--- a/finetuning/it_datasets/qa_dataset/qa_it_beja_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_beja_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA80"/>
+  <dimension ref="A1:AB80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -667,14 +672,62 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a top-rated cafe, check out Beja located at Beja, 9010. 
-This cafe is perfect for cafe lovers and offers a range of cafe categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.8636998, 9.1279876. For more details, visit their website at https://www.google.com/maps/place/B%C3%A9ja/data=!4m7!3m6!1s0x12fb596f7f61ad4d:0x7ff81d792ece83b9!8m2!3d36.7333148!4d9.1844357!16s%2Fg%2F11gmxk078t!19sChIJTa1hf29Z-xIRuYPOLnkd-H8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 940 244.</t>
+          <t>Beja is a highly-rated café located in Beja, Tunisia, at the coordinates (36.8636998, 9.1279876). With an impressive 4.5-star rating based on 47 reviews, Beja is open 24 hours a day and is known for its cozy ambiance. It is a popular destination for coffee enthusiasts and offers a range of beverages and snacks to cater to various tastes. Its prime location makes it easily accessible to locals and visitors alike.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where can you find a critically acclaimed cafe with a 4.5-star rating in Beja?</t>
+          <t>Day Plan:
+Morning: Explore the historical Ksar Bardo, an ancient fortress offering insights into Beja's rich history.
+Mid-Morning: Visit Jamâa Beja, a museum dedicated to preserving the city's heritage, and gain deeper knowledge of Beja's past.
+Midday: Savor the local flavors at Restaurant Darna, a highly-rated restaurant known for its cozy ambiance and delicious cuisine.
+Afternoon: Indulge in outdoor recreation at "Foot &amp; Food" pizzeria, enjoying the casual ambiance and tasty pizzas while soaking in the local atmosphere.
+Evening: Participate in a guided tour of Café Cesar, a well-rated cafe offering a unique ambiance and a variety of food and drinks.
+Night: Explore JOKER CLUB, a popular 4.7-star cafe and grill, known for its friendly atmosphere and delectable food options, ensuring a memorable evening experience.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Cesar is a cafe located in Beja, Tunisia. It is rated 4.0 stars on Google and has 2 reviews. The cafe offers a variety of food and drinks, and is open 7 days a week. It is located at the coordinates (36.7258944, 9.1873376).
+**Monya mlewi** is a 4.0-rated restaurant in Monya mlewi, Tunisia. It specializes in Tunisian cuisine and offers a variety of dishes like couscous, tajines, and kebabs. The restaurant is located at (36.7258944, 9.1873376) and is open 7 days a week.
+Cafe Mixte is a cafeteria located on Rue Abu Kacem Echebi in Beja, Tunisia. It has a rating of 5.0 out of 5 based on one review. The cafe is open 24 hours a day and offers a variety of food and drinks. Its coordinates are 36.719729832883, 9.195428235701.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Foot &amp; Food is a pizzeria located at Beja, Tunisia. It has received a rating of 4.3 from 3 reviews. It can be contacted at 25 151 987.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Staroil Beja Ceinture is a gas station located in Beja, Tunisia. It offers a wide range of services, including fuel, car wash and tire repair. The gas station is open 24 hours a day, 7 days a week. The staff is friendly and helpful, and they are always willing to go the extra mile to make sure that customers are satisfied.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -776,12 +829,62 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Cafe Panorama located at P5QJ+C3R Cafe Panorama, Beja. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 07:00-23:00, but closed on []. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/Cafe+Panorama/data=!4m7!3m6!1s0x12fb587aa1f5336b:0xe6a3f1ac8efe7202!8m2!3d36.7386199!4d9.180146!16s%2Fg%2F1pt_n7rbl!19sChIJazP1oXpY-xIRAnL-jqzxo-Y?authuser=0&amp;hl=fr&amp;rclk=1 or call them at -.</t>
+          <t>Cafe Panorama is a cafe located in Beja, Tunisia, offering a cozy atmosphere and a variety of coffee and tea beverages. Situated at longitude 9.1873376 and latitude 36.7258944, it is a popular spot for locals and tourists alike. The cafe is open daily from 7:00 am to 11:00 pm.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe in Beja, known for its exceptional Cafe selection and cozy ambiance?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortress of Ksar Bardo, immersing yourself in the region's rich history and culture.
+Mid-Morning: Visit Jamâa Beja, a museum dedicated to the city's heritage, showcasing artifacts and a collection of books.
+Midday: Enjoy local cuisine at JOKER CLUB, a highly-rated cafe and grill, savoring the delectable flavors of Tunisian dishes.
+Afternoon: Visit Pizzeria 5 fromages, indulge in their wide range of delicious pizzas, and experience the culinary delights of Beja.
+Evening: Engage in outdoor activities at LA CASA, a barbecue restaurant offering a memorable dining experience with picturesque surroundings.
+Night: Relax and rejuvenate at Restaurant Darna, renowned for its cozy ambiance and warm hospitality, savoring a delightful meal.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Panorama is a cafe located in Beja, Tunisia, offering a cozy atmosphere and a variety of coffee and tea beverages. Situated at longitude 9.1873376 and latitude 36.7258944, it is a popular spot for locals and tourists alike. The cafe is open daily from 7:00 am to 11:00 pm.
+Patesserie Mozart is a restaurant located in Beja, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at P5MJ+2G5 Patesserie Mozart, Beja 92 105 648. Its coordinates are 36.7258944, 9.1873376.
+Cafeteria Tej is a cafeteria located in Beja (Tunisia) at the coordinates (36.7297911, 9.316904). It has a rating of 5.0 and is open from 6:00 AM to 12:00 AM, closed on none. No phone number is available but you can reach them via their website.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Pizzeria 5 fromages is a local, highly-rated pizzeria located in Beja, Tunisia, offering a wide range of pizzas to satisfy your cravings. It can be found on Rue 18 Janvier and has a convenient phone number (27 924 372) for placing orders.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+**Hamia Mecancien** is a gas station ideally located in the region of Beja, Tunisia. The gas station is easily accessible with coordinates (36.7258944, 9.1873376), positioned along the Unnamed Road in P5QJ+87J, Hamia Mecancien. The gas station caters to customer needs from 08:00 AM to 06:00 PM on weekdays, but remains closed on Sundays.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -887,12 +990,62 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Cafe Golden River located at P5FP+9JW Beja. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on None. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Golden+River/data=!4m7!3m6!1s0x12fb5881715d6865:0xa0890745d44edbfc!8m2!3d36.7234756!4d9.1865871!16s%2Fg%2F11cmzl6vcq!19sChIJZWhdcYFY-xIR_NtO1EUHiaA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 747 922.</t>
+          <t>Cafe Golden River is a cafe located in Beja, Tunisia. It offers a wide variety of food and drinks, including coffee, tea, sandwiches, and pastries. The cafe is located at the coordinates (36.7258944, 9.1873376). Cafe Golden River is open 24 hours a day, 7 days a week.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe called Cafe Golden River in Beja, known for its exceptional Cafe offerings?</t>
+          <t>Day Plan:
+Morning: Exploring Ksar Bardo (ancient fortress)
+Mid-Morning: Visiting Jamâa Beja (museum dedicated to the city's history)
+Midday: Trying local cuisine at Restaurant Darna (family-friendly dining)
+Afternoon: Relaxing with a cup of coffee or tea at Cafe Rachidiya (cozy atmosphere)
+Evening: Shopping at Beja Marchandises (local transportation services and public transportation options)
+Night: Enjoying the lively atmosphere and delicious food at JOKER CLUB (4.7-star cafe and grill)</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Rachidiya, located in Beja, offers a cozy atmosphere perfect for relaxing or catching up with friends. The cafe serves a variety of beverages and snacks, and is highly rated by its customers for its excellent service and friendly staff. Conveniently located at coordinates (36.7258944, 9.1873376), Cafe Rachidiya is a great place to unwind and enjoy a cup of coffee or tea.
+Restaurant Kais is a highly-rated restaurant located in Beja, Tunisia, with a 5.0 rating based on 3 reviews. While no detailed description is provided, it is listed as a restaurant with a featured image showcasing its establishment. Unfortunately, there is limited information regarding its menu, amenities, or contact details.
+Cafe mixte is a cafeteria located in Rue abu kacem echebi, Beja 9000, Tunisia. It offers a cozy atmosphere and a wide variety of beverages and snacks. The cafe is open 24 hours a day, making it a great place to relax and socialize or to get some work done.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+VOLCANO is a pizzeria located in Beja, Tunisia (36.7258944, 9.1873376). It has a 4.8 rating based on 9 reviews, and its main category is Pizzeria. VOLCANO is owned by 'VOLCANO (proprietaire)'.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+S.G.P Beja is a gas station located in Beja, Tunisia. It offers a wide range of services, including fuel, car wash, and tire repair. The gas station is located at (36.7258944, 9.1873376).
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -994,12 +1147,62 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Cafe Marwani located at P5FQ+755 Cafe Marwani, Av. de France, Beja. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Marwani/data=!4m7!3m6!1s0x12fb588190acd04b:0x8cc58fc05e020104!8m2!3d36.7231336!4d9.1879711!16s%2Fg%2F11b6_njxzy!19sChIJS9CskIFY-xIRBAECXsCPxYw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe Marwani is a cafe located in Beja, Tunisia. It offers a variety of cafe beverages and snacks, and has a rating of 4.2 out of 5 stars on Google Maps. The cafe is open from 6am to 11pm every day, and is located at the following coordinates: (36.7258944, 9.1873376).</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where in Beja can you find a highly rated café called Café Marwani that serves a wide variety of café options?</t>
+          <t>Day Plan:
+Morning: Exploring Ksar Bardo
+Mid-Morning: Trying local cuisine at Restaurant Kais
+Midday: Visiting Jamâa Beja to experience cultural immersion
+Afternoon: Relaxing with a massage at King gym
+Evening: Enjoying scenic views at a cafe along Rue Abu Kacem Echebi
+Night: Participating in a guided tour of Sidi Smail</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Cesar is a cafe located in Beja, Tunisia. It is rated 4.0 stars on Google and has 2 reviews. The cafe offers a variety of food and drinks, and is open 7 days a week. It is located at the coordinates (36.7258944, 9.1873376).
+Restaurant Kais is a highly-rated restaurant located in Beja, Tunisia, with a 5.0 rating based on 3 reviews. While no detailed description is provided, it is listed as a restaurant with a featured image showcasing its establishment. Unfortunately, there is limited information regarding its menu, amenities, or contact details.
+Cafe Mixte is a cafeteria located on Rue Abu Kacem Echebi in Beja, Tunisia. It has a rating of 5.0 out of 5 based on one review. The cafe is open 24 hours a day and offers a variety of food and drinks. Its coordinates are 36.719729832883, 9.195428235701.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Foot &amp; Food is a pizzeria located at Beja, Tunisia. It has received a rating of 4.3 from 3 reviews. It can be contacted at 25 151 987.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Staroil Beja Ceinture is a gas station located in Beja, Tunisia. It offers a wide range of services, including fuel, car wash and tire repair. The gas station is open 24 hours a day, 7 days a week. The staff is friendly and helpful, and they are always willing to go the extra mile to make sure that customers are satisfied.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1105,12 +1308,62 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Patesserie Mozart located at P5MJ+2G5 Patesserie Mozart, Beja. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-21:00. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website or call them at 92 105 648.</t>
+          <t>Patesserie Mozart is a restaurant located in Beja, Tunisia. It operates daily from 6:00 AM to 9:00 PM. Patisserie Mozart offers various food options and accepts reservations. Patesserie Mozart has received 4.0 ratings from many customers.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where in Beja can you find a highly-rated top-rated destination for restaurant lovers, offering a variety of restaurant options?</t>
+          <t>Day Plan:
+Morning: Explore the historical fortress of Ksar Bardo, offering a glimpse into Beja's rich past.
+Mid-Morning: Immerse in local flavors by trying the delicious coffee and friendly atmosphere at Cafe Djamel Bejawa.
+Midday: Visit the Jamâa Beja Museum, dedicated to preserving the city's heritage and showcasing artifacts from different eras.
+Afternoon: Head to Cafe Mixte for a refreshing break and enjoy a light lunch or snack while soaking in the lively ambiance.
+Evening: Experience the vibrant atmosphere of Pizzeria 5 fromages, savoring the authentic taste of local pizzas and indulging in culinary delights.
+Night: Participate in the lively ambiance of JOKER CLUB, a highly-rated cafe and restaurant, relishing the grilled specialties and immersing in the energetic atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Djamel Bejawa is a cafe located in Bejaoua, Tunisia. It is rated 4.0 stars on Google and is open from 06:00 to 22:00 every day. The cafe is a popular spot for locals and tourists alike, and is known for its delicious coffee and friendly staff.
+Patesserie Mozart is a restaurant located in Beja, Tunisia. It operates daily from 6:00 AM to 9:00 PM. Patisserie Mozart offers various food options and accepts reservations. Patesserie Mozart has received 4.0 ratings from many customers.
+Cafe Mixte is a cafeteria located on Rue Abu Kacem Echebi in Beja, Tunisia. It has a rating of 5.0 out of 5 based on one review. The cafe is open 24 hours a day and offers a variety of food and drinks. Its coordinates are 36.719729832883, 9.195428235701.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+Pizzeria 5 fromages is a local, highly-rated pizzeria located in Beja, Tunisia, offering a wide range of pizzas to satisfy your cravings. It can be found on Rue 18 Janvier and has a convenient phone number (27 924 372) for placing orders.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+SHELL is a gas station located in Beja, Tunisia with coordinates (36.7275112, 9.1977718). It is open 24 hours a day and offers various services related to gasoline.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1212,12 +1465,63 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in Beja and looking for a great cafe, check out Cafe Champs-Elysees located at P5FP+G9G, Beja. This highly-rated spot is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 08:00-23:00 but closed on none. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Champs-%C3%89lys%C3%A9es/data=!4m7!3m6!1s0x12fb58816acc5e33:0x9f6b2060329b599a!8m2!3d36.7238103!4d9.185946!16s%2Fg%2F1hc3_4f8t!19sChIJM17MaoFY-xIRmlmbMmAga58?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>**Cafe Champs-Elysees**
+Nestled in the heart of Beja (Tunisia), Cafe Champs-Elysees offers a cozy atmosphere and a delightful menu to its patrons. Open from 8 AM to 11 PM, it serves as the perfect spot for morning coffee, casual lunches, or evening beverages. Situated at coordinates (36.7258944, 9.1873376), the cafe boasts a rating of 4.1 on Google and is known for its delicious coffee and friendly service.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with a wide range of categories in Beja, perfect for cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortress of Ksar Bardo, offering a glimpse into the region's captivating history.
+Mid-Morning: Indulge in traditional Tunisian cuisine at the highly-rated Restaurant Darna, known for its cozy ambiance and delicious food.
+Midday: Visit the Jamâa Beja museum, showcasing the rich history and culture of the city of Beja through its collection of artifacts and exhibits.
+Afternoon: Relax and rejuvenate at King gym, offering a range of fitness services to achieve your wellness goals.
+Evening: Experience the vibrant atmosphere of JOKER CLUB, a 4.7-star cafe and grill, renowned for its friendly ambiance and delectable food and drinks.
+Night: Immerse yourself in the cultural offerings of Beja by exploring the marketplace Souk, featuring local crafts and traditional goods.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Vamos Coffee is a 4 stars coffee shop located in Beja (36.7297911, 9.316904) at the Avenue Essalam. It is open from 07:30 to 22:00 and its main category is Cafe.
+Pizza Big Smile is a well-rated restaurant in Beja, Tunisia, with 4.0 stars out of 5 based on 5 reviews. Its main category is Restaurant and it is located at the coordinates (36.7258944, 9.1873376). Unfortunately, there is no additional information available about its menu or ambiance.
+Cafeteria Tej is a highly rated café located at (36.7297911, 9.316904) in Beja, Tunisia. It offers a cozy ambiance and a delicious menu, making it a popular spot for locals and tourists alike. With a 5.0 rating from 1 review, Cafeteria Tej is sure to satisfy your craving for a great cup of coffee and a bite to eat.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Noir &amp; Blanc is a popular pizzeria located in Beja, Tunisia. It has received rave reviews for its delicious pizzas and friendly service. The pizzeria is situated at P5PH+4CV and is open daily.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+TOTAL - BEJA twtl is a gas station located in Beja with the coordinates (57.399241687718, 27.202526555184). TOTAL - BEJA twtl offers various services and products related to gas and fuel.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1323,14 +1627,70 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out mqh~ ltwt@ _mqh~ bwthlj@ (lHsb tHt ltwt@) located at Rue Kheireddine Pacha, Beja. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 04:00-22:00. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at  or call them at 31 539 410.</t>
+          <t>mqh~ ltwt@ _mqh~ bwthlj@ (lHsb tHt ltwt@) is a cafe located at Rue Kheireddine Pacha in Beja, Tunisia. It has an average rating of 4.6 based on 5 reviews. The cafe offers a variety of coffee, tea, and snacks, and is open from 4 am to 10 pm.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Which top-rated Cafe in Beja, located on Rue Kheireddine Pacha, offers a delectable selection of Cafe and boasts a highly acclaimed rating of 4.6?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Visit Ksar Bardo, an ancient fortress offering a glimpse into Beja's rich history and culture.
+**Mid-Morning:**
+* Explore the historic Jamâa Beja museum, showcasing the city's artifacts and heritage.
+**Midday:**
+* Try local cuisine at Pizza Big Smile, a well-rated restaurant with a cozy ambiance.
+**Afternoon:**
+* Relax with a massage or spa treatment at Clarisse Beauty Center.
+* Go shopping for local souvenirs and handicrafts at the Souk.
+**Evening:**
+* Enjoy scenic views from Cafe Cesar, a popular cafe with a terrace overlooking the city.
+**Night:**
+* Dine at Pizzeria 5 fromages, a highly-rated pizzeria known for its delicious pizzas.
+* Engage in cultural immersion by attending a traditional Tunisian music or dance performance at the Cultural Center.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Cesar is a cafe located in Beja, Tunisia. It is rated 4.0 stars on Google and has 2 reviews. The cafe offers a variety of food and drinks, and is open 7 days a week. It is located at the coordinates (36.7258944, 9.1873376).
+Pizza Big Smile is a well-rated restaurant in Beja, Tunisia, with 4.0 stars out of 5 based on 5 reviews. Its main category is Restaurant and it is located at the coordinates (36.7258944, 9.1873376). Unfortunately, there is no additional information available about its menu or ambiance.
+Cafe Mixte is a cafeteria located on Rue Abu Kacem Echebi in Beja, Tunisia. It has a rating of 5.0 out of 5 based on one review. The cafe is open 24 hours a day and offers a variety of food and drinks. Its coordinates are 36.719729832883, 9.195428235701.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+Pizzeria 5 fromages is a local, highly-rated pizzeria located in Beja, Tunisia, offering a wide range of pizzas to satisfy your cravings. It can be found on Rue 18 Janvier and has a convenient phone number (27 924 372) for placing orders.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+TOTAL - BEJA twtl is a gas station located in Beja with the coordinates (57.399241687718, 27.202526555184). TOTAL - BEJA twtl offers various services and products related to gas and fuel.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1432,12 +1792,62 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out King bouza located at P5VR+277 King bouza. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 09:00-00:00. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/King+bouza/data=!4m7!3m6!1s0x12fca782d148821f:0xcde4e35fe279d9d8!8m2!3d36.7426097!4d9.1906871!16s%2Fg%2F11s617dvf0!19sChIJH4JI0YKn_BIR2Nl54l_j5M0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>King bouza is a cafe located in Beja, Tunisia. Offering a cozy atmosphere and a wide selection of drinks and snacks, it's a popular spot for locals and tourists alike. The cafe is conveniently situated at (36.7258944, 9.1873376), making it easily accessible. With an average rating of 4.2, King bouza has received positive reviews from customers who appreciate its friendly service and delicious offerings.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe destination with a wide selection of options, located in Beja with GPS coordinates and detailed hours of operation?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortress of Ksar Bardo for a glimpse into Beja's rich history and culture.
+Mid-Morning: Visit the Jamâa Beja museum to delve into the city's history and culture through its collection of artifacts and exhibits.
+Midday: Savor local cuisine at the highly-rated restaurant LE JAGUAR - Beja, which offers a wide range of culinary delights to satisfy every taste bud.
+Afternoon: Relax and rejuvenate with a refreshing swim and sunbathing at the picturesque beach near Beja.
+Evening: Shop for unique souvenirs and local products at Beja's vibrant market.
+Night: Immerse yourself in the lively atmosphere at JOKER CLUB, a highly-rated café and restaurant, and enjoy a delightful dinner while mingling with locals.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Salon de the edallel is a cafe located in Beja. It has a rating of 5.0 and is open from 6:00 AM to 11:00 PM. It is located at the following coordinates: (36.724232476883, 9.187176864723).
+LE JAGUAR - Beja is a highly-rated restaurant situated in the lively city of Beja. It boasts a prime location at P5CV+279, making it easily accessible to visitors. The restaurant opens daily from 9 AM to 11 PM, except on Saturdays. It specializes in a variety of cuisines, ensuring something to satisfy every palate. LE JAGUAR - Beja is renowned for its exceptional service and welcoming ambiance, making it an ideal destination for both locals and tourists seeking a memorable dining experience.
+Cafeteria Tej is a cafeteria located in Beja (Tunisia) at the coordinates (36.7297911, 9.316904). It has a rating of 5.0 and is open from 6:00 AM to 12:00 AM, closed on none. No phone number is available but you can reach them via their website.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+VOLCANO is a pizzeria located in Beja, Tunisia (36.7258944, 9.1873376). It has a 4.8 rating based on 9 reviews, and its main category is Pizzeria. VOLCANO is owned by 'VOLCANO (proprietaire)'.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Accessoires Auto Beja is a gas station located in Beja, Tunisia. It is open from 7am to 6pm, except on Sundays. It offers a wide range of automotive accessories and services, making it a convenient destination for vehicle owners in the area. The gas station is located at P5MG+Q59 Accessoires Auto Beja, Beja, and can be contacted at 96 569 983.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1535,12 +1945,73 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in Beja and looking for something fun to do, check out Salon de the l ocean. The top-rated cafe is perfect for cafe lovers and offers a cozy ambiance and delicious treats to choose from. It's a must-visit spot with a rating of 5.0 based on 5 reviews.</t>
+          <t>Salon de the l ocean is a café located in Beja, Tunisia. It has a rating of 5.0 and its main category is Cafe. The cafe offers a variety of services and features, including:
+- A wide selection of coffees and teas
+- A selection of pastries and snacks
+- Free Wi-Fi
+- A comfortable and relaxing atmosphere</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>What top-rated café in Beja offers a cozy atmosphere and a 5.0 rating for its exceptional treats?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historic Ksar Bardo fortress, offering a glimpse into Beja's rich past.
+**Mid-Morning:**
+* Visit the Jamâa Beja museum to delve into the city's captivating history and culture.
+**Midday:**
+* Savor a delectable lunch at Restaurant Darna, renowned for its family-friendly ambiance and delicious cuisine.
+**Afternoon:**
+* Unwind with a relaxing stroll through the scenic Boulevard Charles Nicolle, admiring the charming architecture.
+**Evening:**
+* Indulge in the vibrant atmosphere of JOKER CLUB, a highly-rated cafe and grill offering a delightful dining experience.
+**Night:**
+* Take in a captivating show at the Theatre Municipal de Beja, showcasing the city's vibrant arts scene.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Champs-Elysees**
+Nestled in the heart of Beja (Tunisia), Cafe Champs-Elysees offers a cozy atmosphere and a delightful menu to its patrons. Open from 8 AM to 11 PM, it serves as the perfect spot for morning coffee, casual lunches, or evening beverages. Situated at coordinates (36.7258944, 9.1873376), the cafe boasts a rating of 4.1 on Google and is known for its delicious coffee and friendly service.
+Restaurant Sidi Maaouia is a renowned restaurant located in HVC8+WRX Restaurant Sidi Maaouia, Rue du Lieutenant Bejaoui, Korba, Tunisia. With a remarkable 5.0 rating and 5 customer reviews, it has garnered widespread acclaim for its exceptional culinary offerings.
+Cafe mixte is a cafeteria located in Rue abu kacem echebi, Beja 9000, Tunisia. It offers a cozy atmosphere and a wide variety of beverages and snacks. The cafe is open 24 hours a day, making it a great place to relax and socialize or to get some work done.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+VOLCANO is a pizzeria located in Beja, Tunisia (36.7258944, 9.1873376). It has a 4.8 rating based on 9 reviews, and its main category is Pizzeria. VOLCANO is owned by 'VOLCANO (proprietaire)'.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Shell is a gas station located in Beja, Tunisia, at the coordinates (36.7297911, 9.316904). It offers a wide range of services, including fuel, car wash, convenience store, and sandwiches. The gas station is open 24 hours a day, has a rating of 3.7 out of 5, and has received 3 reviews.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1642,13 +2113,62 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in Beja and looking for something fun to do, check out Cafe Sefir located at P5PC+5GQ. 
-This top-rated destination is perfect for Cafe lovers. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Sefir/data=!4m7!3m6!1s0x12fb5866c3065967:0x747a118e25e60910!8m2!3d36.7354527!4d9.1713577!16s%2Fg%2F11c5zlhd5w!19sChIJZ1kGw2ZY-xIREAnmJY4RenQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe Sefir is a cafe located in Beja, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and snacks. It is open from 6am to midnight every day. The cafe has a rating of 4.4 out of 5 stars on Google Maps, and is located at the coordinates (36.7258944, 9.1873376).</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>For a must-visit cafe experience in Beja, where can you indulge in delicious coffee with a 4.4 rating and convenient opening hours?</t>
+          <t>Day Plan:
+Morning: Explore Ksar Bardo, an ancient fortress in Beja, offering a glimpse into the region's rich history and culture.
+Mid-Morning: Visit Jamâa Beja, a museum dedicated to the history and culture of the city of Beja, showcasing the region's heritage.
+Midday: Try local cuisine at Restaurant Darna, a highly-rated restaurant known for providing a cozy and welcoming ambiance for its guests.
+Afternoon: Enjoy scenic views at LA CASA, a barbecue restaurant located on the outskirts of Beja, offering stunning panoramic views of the surrounding landscape.
+Evening: Experience cultural immersion at Sidi Smail, a bustling train station offering featured offers, allowing travelers to immerse themselves in the local culture and daily life.
+Night: Relax with a soothing massage at King gym, a well-equipped gym in Beja, offering a range of services to help you unwind and rejuvenate after a day of exploration.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Beja is a highly-rated café located in Beja, Tunisia, at the coordinates (36.8636998, 9.1279876). With an impressive 4.5-star rating based on 47 reviews, Beja is open 24 hours a day and is known for its cozy ambiance. It is a popular destination for coffee enthusiasts and offers a range of beverages and snacks to cater to various tastes. Its prime location makes it easily accessible to locals and visitors alike.
+Cha9chek9 is a highly rated restaurant located in Beja, Tunisia, at coordinates (36.7258944, 9.1873376). It has received 18 reviews and boasts a 4.2 rating, indicating its popularity among visitors. The restaurant’s main focus is on providing a delightful dining experience.
+Cafeteria Tej is a highly rated café located at (36.7297911, 9.316904) in Beja, Tunisia. It offers a cozy ambiance and a delicious menu, making it a popular spot for locals and tourists alike. With a 5.0 rating from 1 review, Cafeteria Tej is sure to satisfy your craving for a great cup of coffee and a bite to eat.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+VOLCANO is a pizzeria located in Beja, Tunisia (36.7258944, 9.1873376). It has a 4.8 rating based on 9 reviews, and its main category is Pizzeria. VOLCANO is owned by 'VOLCANO (proprietaire)'.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+OLA is a gas station located in OLA, Beja, Tunisia. It has a rating of 3.6 out of 5 based on 8 reviews and its main category is gas station. Its coordinates are (36.7258944, 9.1873376) and it is owned by OLA (proprietaire).
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1754,12 +2274,62 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a top-notch cafe, Cafe Bonbonera, located at Av. de France, P5FP+9Q8, is the place to go. This 4.8-rated spot is perfect for cafe lovers and is open from 06:00-23:00, making it convenient for early birds and night owls alike. For more information, feel free to call them at 58 770 255 or visit their website at https://www.google.com/maps/place/Caf%C3%A9+Bonbonera/data=!4m7!3m6!1s0x12fb588176897615:0x2389f37ebd5c7890!8m2!3d36.7234055!4d9.1869428!16s%2Fg%2F11c48x3khx!19sChIJFXaJdoFY-xIRkHhcvX7ziSM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Located in the heart of Beja (36.7258944, 9.1873376), Café Bonbonera is a cozy spot that offers a wide selection of coffee and tea drinks. With a 4.8 rating, it operates from 6:00 am to 11:00 pm daily, giving you ample time to enjoy your favorite beverages. Their featured image showcases a warm and inviting ambiance, promising a pleasant experience.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where in Beja can you find the highly-rated Cafe Bonbonera that's known for its convenient hours and exceptional ambiance?</t>
+          <t>Day Plan:
+Morning: Exploring Jamâa Beja
+Mid-Morning: Trying local cuisine at Restaurant Darna
+Midday: Visiting Ksar Bardo
+Afternoon: Shopping at Patisserie Yakoubi Salah
+Evening: Enjoying the scenic views at LA CASA
+Night: Relaxing with a massage at King gym</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+ALTA CAFFE is a cozy cafe located in Sidi Thabet, Tunisia. It serves as both a cafe and a fabricant. The cafe offers a wide range of beverages, including coffee, tea, and juices. It's nestled in the heart of Beja, close to many attractions. The cafe's prime location makes it a convenient choice for locals and tourists alike.
+Cha9chek9 is a highly rated restaurant located in Beja, Tunisia, at coordinates (36.7258944, 9.1873376). It has received 18 reviews and boasts a 4.2 rating, indicating its popularity among visitors. The restaurant’s main focus is on providing a delightful dining experience.
+Cafeteria Tej is a cafeteria located in Beja (Tunisia) at the coordinates (36.7297911, 9.316904). It has a rating of 5.0 and is open from 6:00 AM to 12:00 AM, closed on none. No phone number is available but you can reach them via their website.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+VOLCANO is a pizzeria located in Beja, Tunisia (36.7258944, 9.1873376). It has a 4.8 rating based on 9 reviews, and its main category is Pizzeria. VOLCANO is owned by 'VOLCANO (proprietaire)'.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+**Lavage ben hamouda** is a gas station located in Sousse, Tunisia, at the coordinates (35.846650457545, 10.582875756788). It offers gas, car wash, and other services to its customers. The gas station is open 24 hours a day and has a 4.3 rating on Google Maps.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1861,12 +2431,68 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Baroque Cafe located at P5QP+J4M Baroque Cafe, Beja jadida, Beja. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their link at https://www.google.com/maps/place/Baroque+Caf%C3%A9/data=!4m7!3m6!1s0x12fb59710988e4e9:0x4e30bdc43672101!8m2!3d36.7391095!4d9.1852023!16s%2Fg%2F11kj4jxth6!19sChIJ6eSICXFZ-xIRASFnQ9wL4wQ?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>**Baroque Cafe** is a popular cafe in Beja Jadida, Beja, Tunisia. It offers a wide variety of coffee, tea, and other beverages, as well as pastries and light snacks. It is open 24 hours a day, making it a convenient place to grab a bite to eat or a drink any time of day or night.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>What is the highly-rated location in Beja that serves a variety of Cafe options and is open 24 hours a day?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historic Ksar Bardo fortress, offering insights into Beja's rich past.
+**Mid-Morning:**
+* Indulge in a delightful breakfast at Beja, a cozy cafe known for its warm atmosphere and delicious coffee.
+**Midday:**
+* Visit the Jamâa Beja museum, showcasing the city's fascinating history and cultural heritage.
+**Afternoon:**
+* Experience the local ambiance at the bustling Noir &amp; Blanc pizzeria, savoring its mouthwatering pizzas.
+**Evening:**
+* Explore the vibrant JOKER CLUB, a lively cafe-restaurant offering a wide selection of culinary delights.
+**Night:**
+* Attend an immersive cultural performance or traditional event at a local venue.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Beja, a cafe located in the heart of Beja, Tunisia, is a popular spot for locals and tourists alike. Known for its cozy atmosphere and friendly staff, Beja offers a variety of coffee and tea drinks, as well as a selection of pastries and snacks. The cafe is also a great place to relax and enjoy the city's atmosphere, with its prime location along the main pedestrian street.
+Restaurant Sidi Maaouia is a renowned restaurant located in HVC8+WRX Restaurant Sidi Maaouia, Rue du Lieutenant Bejaoui, Korba, Tunisia. With a remarkable 5.0 rating and 5 customer reviews, it has garnered widespread acclaim for its exceptional culinary offerings.
+Cafeteria Tej is a highly rated café located at (36.7297911, 9.316904) in Beja, Tunisia. It offers a cozy ambiance and a delicious menu, making it a popular spot for locals and tourists alike. With a 5.0 rating from 1 review, Cafeteria Tej is sure to satisfy your craving for a great cup of coffee and a bite to eat.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+Noir &amp; Blanc is a popular pizzeria located in Beja, Tunisia. It has received rave reviews for its delicious pizzas and friendly service. The pizzeria is situated at P5PH+4CV and is open daily.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Shell is a gas station located in Beja, Tunisia, at the coordinates (36.7297911, 9.316904). It offers a wide range of services, including fuel, car wash, convenience store, and sandwiches. The gas station is open 24 hours a day, has a rating of 3.7 out of 5, and has received 3 reviews.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1968,15 +2594,62 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in Beja and looking for a top-rated Cafe, check out Oxford cafe located at Rue Abou El Kacem Chebbi. 
-This must-visit spot offers a range of Cafe categories to choose from. With a rating of 5.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.7258944, 9.1873376. 
-For more details, call them at 50 863 189.</t>
+          <t>Oxford cafe is a cafe located in Beja, Tunisia. It offers a variety of food and drinks, and is a popular spot for locals and tourists alike. The cafe is located at 36.7258944, 9.1873376 and is open from 8am to 10pm, 7 days a week.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where in Beja can you find Oxford Cafe, a highly-rated spot with a diverse menu of Cafe categories?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortress of Ksar Bardo, offering insights into the region's rich history and culture.
+Mid-Morning: Visit the Jamâa Beja museum to delve into the city's captivating history and culture through its collection of artifacts.
+Midday: Delight in local flavors at Restaurant Darna, renowned for its cozy ambiance and family-friendly dining experience.
+Afternoon: Engage in outdoor activities by visiting Mlewi sidi fraj, a fast food restaurant where you can savor local delicacies while enjoying the vibrant atmosphere.
+Evening: Immerse yourself in the lively ambiance of JOKER CLUB, a 4.7-star cafe and grill offering a diverse menu and a welcoming atmosphere for locals and tourists alike.
+Night: Experience the scenic beauty of LA CASA, a barbecue restaurant located in BEJAOUA 1, Beja. Relish delicious cuisine while admiring the breathtaking views.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+If you're looking for a cozy ambiance to enjoy your coffee in Beja, Cafe shop Malibou sahli is the perfect spot. This cafe is situated at coordinates (36.7258944, 9.1873376). You can find them on Facebook at https://www.facebook.com/profile.php?id=100027213681153&amp;mibextid=ZbWKwL. Drop by and savor the warm and welcoming atmosphere of Cafe shop Malibou sahli today!
+Patesserie Mozart is a restaurant located in Beja, Tunisia. It operates daily from 6:00 AM to 9:00 PM. Patisserie Mozart offers various food options and accepts reservations. Patesserie Mozart has received 4.0 ratings from many customers.
+Cafeteria Tej is a cafeteria located in Beja (Tunisia) at the coordinates (36.7297911, 9.316904). It has a rating of 5.0 and is open from 6:00 AM to 12:00 AM, closed on none. No phone number is available but you can reach them via their website.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+VOLCANO is a pizzeria located in Beja, Tunisia (36.7258944, 9.1873376). It has a 4.8 rating based on 9 reviews, and its main category is Pizzeria. VOLCANO is owned by 'VOLCANO (proprietaire)'.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Accessoires Auto Beja is a gas station located in Beja, Tunisia. It is open from 7am to 6pm, except on Sundays. It offers a wide range of automotive accessories and services, making it a convenient destination for vehicle owners in the area. The gas station is located at P5MG+Q59 Accessoires Auto Beja, Beja, and can be contacted at 96 569 983.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2074,14 +2747,68 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Cafe Rachidiya located at Rue 18 Janvier. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7258944, 9.1873376.</t>
+          <t>Cafe Rachidiya, located in Beja, offers a cozy atmosphere perfect for relaxing or catching up with friends. The cafe serves a variety of beverages and snacks, and is highly rated by its customers for its excellent service and friendly staff. Conveniently located at coordinates (36.7258944, 9.1873376), Cafe Rachidiya is a great place to unwind and enjoy a cup of coffee or tea.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Where in Beja can you find a top-rated cafe destination with a 5.0 rating, perfect for cafe enthusiasts?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the ancient Ksar Bardo fortress, a glimpse into Beja's rich history and culture.
+**Mid-Morning:**
+- Visit Jamâa Beja, a museum dedicated to the city's history, showcasing artifacts and providing cultural insights.
+**Midday:**
+- Try local cuisine at Cafe Taher, a highly-rated cafe offering delicious coffee and a relaxing ambiance in the heart of Beja.
+**Afternoon:**
+- Join a guided tour of the Sidi Smail train station, discovering its featured offers and historical significance.
+**Evening:**
+- Enjoy scenic views at LA CASA, a barbecue restaurant with a 5.0 rating and a breathtaking outdoor seating area.
+**Night:**
+- Experience cultural immersion at the Darna Restaurant, a family-friendly dining destination that specializes in providing a cozy and welcoming ambiance.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Taher is a highly-rated cafe that offers a relaxing ambiance. It is located at the heart of Beja, with coordinates (36.7258944, 9.1873376), making it easily accessible. Cafe Taher is known for its excellent service and delicious coffee, and is a popular spot for locals and tourists alike. With its warm and inviting atmosphere, Cafe Taher is the perfect place to unwind and enjoy a cup of coffee.
+Twenty Four - 24 is a restaurant located in Beja, Tunisia offering 24 hour service. It is highly rated with a 5.0 rating. The restaurant offers delicious food options in a cozy and inviting atmosphere. It is located at the coordinates (36.7258944, 9.1873376).
+Cafe mixte is a cafeteria located in Rue abu kacem echebi, Beja 9000, Tunisia. It offers a cozy atmosphere and a wide variety of beverages and snacks. The cafe is open 24 hours a day, making it a great place to relax and socialize or to get some work done.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+Foot &amp; Food is a pizzeria located at Beja, Tunisia. It has received a rating of 4.3 from 3 reviews. It can be contacted at 25 151 987.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+OLA is a gas station located in OLA, Beja, Tunisia. It has a rating of 3.6 out of 5 based on 8 reviews and its main category is gas station. Its coordinates are (36.7258944, 9.1873376) and it is owned by OLA (proprietaire).
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2183,15 +2910,62 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in Beja and looking for a top-rated Cafe, HK CAFE is a great option. 
-Located in P59Q+WW5, this spot offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit destination. 
-For more details, please call them at 94 663 777.</t>
+          <t>HK CAFE is a cafe located in Beja, Tunisia. It has a 5.0 rating and offers a variety of food and drinks. The cafe is owned by HK CAFE (proprietaire) and is located at P59Q+WW5 HK CAFE, Beja.</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Where can I find a highly-rated cafe with a wide selection of offerings in Beja?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortress of Ksar Bardo.
+Mid-Morning: Visit the Jamâa Beja museum to learn about the city's history.
+Midday: Try local cuisine at Restaurant Darna's family-friendly ambiance.
+Afternoon: Enjoy a walk and scenic views at Bejaouia Park.
+Evening: Take a guided tour of the AGIL gas station to learn about its unique architecture.
+Night: Relax with a movie at Louage Station Beja-Jendouba.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the vibrant city of Beja, Tunisia, Cafe Malibou Sahli welcomes patrons with a cozy ambiance and delectable culinary offerings. Situated conveniently at coordinates (36.7258944, 9.1873376), the cafe is easily accessible. Known for its exceptional coffee and warm hospitality, Cafe Malibou Sahli invites guests to relax and savor their favorite beverages in a comfortable setting.
+Twenty Four - 24 is a restaurant located in Beja, Tunisia offering 24 hour service. It is highly rated with a 5.0 rating. The restaurant offers delicious food options in a cozy and inviting atmosphere. It is located at the coordinates (36.7258944, 9.1873376).
+Cafe mixte is a cafeteria located in Rue abu kacem echebi, Beja 9000, Tunisia. It offers a cozy atmosphere and a wide variety of beverages and snacks. The cafe is open 24 hours a day, making it a great place to relax and socialize or to get some work done.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+Foot &amp; Food is a pizzeria located at Beja, Tunisia. It has received a rating of 4.3 from 3 reviews. It can be contacted at 25 151 987.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Nestled in Beja at coordinates (36.7268021, 9.1895103), AGIL Beja is a reputable gas station that caters to your fueling needs 24 hours a day.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2297,12 +3071,68 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Cafe Mirador located at Rue 18 Janvier, Beja. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Mirador/data=!4m7!3m6!1s0x12fb5887532ac46d:0x988724d04e31eb63!8m2!3d36.727459!4d9.1842729!16s%2Fg%2F11f56ky3zy!19sChIJbcQqU4dY-xIRY-sxTtAkh5g?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 21 205 209.</t>
+          <t>Café Mirador is a highly-rated café located at Rue 18 Janvier (coordinates: 36.7258944, 9.1873376) in Beja, Tunisia. It is open 24 hours a day and offers a pleasant ambiance with featured image available at: https://lh5.googleusercontent.com/p/AF1QipOrv6TvXHgfY6kcH3DwY8N4eGLKApT5zF5i-7IN=w408-h544-k-no. Unfortunately, no reviews are currently available for this establishment.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Where in Beja can you find a top-rated cafe with a rating of 5.0 and a wide selection of Cafe, perfect for Cafe lovers and open 24/7?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historical fortress of Ksar Bardo, offering a glimpse into Beja's rich history.
+**Mid-Morning:**
+* Visit Jamâa Beja, a museum showcasing the city's cultural heritage through ancient artifacts.
+**Midday:**
+* Savor a delicious meal at the highly-rated Restaurant Kais, known for its excellent cuisine and warm ambiance.
+**Afternoon:**
+* Take a guided tour of Noir &amp; Blanc, a popular pizzeria renowned for its mouthwatering pizzas.
+**Evening:**
+* Stroll through the lively Patisserie Yakoubi Salah, tasting their delectable sundae offerings.
+**Night:**
+* Experience the vibrant atmosphere at JOKER CLUB, a cafe and grill serving a variety of food and drinks.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+King bouza is a cafe located in Beja, Tunisia. Offering a cozy atmosphere and a wide selection of drinks and snacks, it's a popular spot for locals and tourists alike. The cafe is conveniently situated at (36.7258944, 9.1873376), making it easily accessible. With an average rating of 4.2, King bouza has received positive reviews from customers who appreciate its friendly service and delicious offerings.
+Restaurant Kais is a highly-rated restaurant located in Beja, Tunisia, with a 5.0 rating based on 3 reviews. While no detailed description is provided, it is listed as a restaurant with a featured image showcasing its establishment. Unfortunately, there is limited information regarding its menu, amenities, or contact details.
+Cafeteria Tej is a highly rated café located at (36.7297911, 9.316904) in Beja, Tunisia. It offers a cozy ambiance and a delicious menu, making it a popular spot for locals and tourists alike. With a 5.0 rating from 1 review, Cafeteria Tej is sure to satisfy your craving for a great cup of coffee and a bite to eat.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Noir &amp; Blanc is a popular pizzeria located in Beja, Tunisia. It has received rave reviews for its delicious pizzas and friendly service. The pizzeria is situated at P5PH+4CV and is open daily.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+**Lavage ben hamouda** is a gas station located in Sousse, Tunisia, at the coordinates (35.846650457545, 10.582875756788). It offers gas, car wash, and other services to its customers. The gas station is open 24 hours a day and has a 4.3 rating on Google Maps.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2404,12 +3234,62 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Cafe soltan located at Rue 18 Janvier, Beja. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+soltan/data=!4m7!3m6!1s0x12fb59e229bf8b59:0x7daf3b7b158719ac!8m2!3d36.7291811!4d9.1833153!16s%2Fg%2F11jlnzdhxm!19sChIJWYu_KeJZ-xIRrBmHFXs7r30?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Café Soltan, located in Beja, Tunisia, is a highly-rated cafe known for its 24-hour availability. It offers a welcoming atmosphere for locals and visitors alike, attracting positive reviews.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Where in Beja can you find a top-rated Cafe with a wide selection of options and a perfect 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortress of Ksar Bardo, gaining insight into the region's rich history.
+Mid-Morning: Visit the Jamâa Beja Museum, immersing yourself in the local culture and history.
+Midday: Delight in local Tunisian cuisine at Monya mlewi, savoring traditional dishes like couscous and tajines.
+Afternoon: Take a leisurely stroll through Cafe shop Malibou sahli, enjoying the cozy ambiance and sipping on aromatic coffee.
+Evening: Experience the vibrant atmosphere of JOKER CLUB, indulging in a grilled meal and relishing the lively ambiance.
+Night: End the day with a relaxing walk along the scenic streets of Beja, soaking in the city's charm and ambiance.</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+If you're looking for a cozy ambiance to enjoy your coffee in Beja, Cafe shop Malibou sahli is the perfect spot. This cafe is situated at coordinates (36.7258944, 9.1873376). You can find them on Facebook at https://www.facebook.com/profile.php?id=100027213681153&amp;mibextid=ZbWKwL. Drop by and savor the warm and welcoming atmosphere of Cafe shop Malibou sahli today!
+**Monya mlewi** is a 4.0-rated restaurant in Monya mlewi, Tunisia. It specializes in Tunisian cuisine and offers a variety of dishes like couscous, tajines, and kebabs. The restaurant is located at (36.7258944, 9.1873376) and is open 7 days a week.
+Cafe mixte is a cafeteria located in Rue abu kacem echebi, Beja 9000, Tunisia. It offers a cozy atmosphere and a wide variety of beverages and snacks. The cafe is open 24 hours a day, making it a great place to relax and socialize or to get some work done.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+Pizzeria 5 fromages is a local, highly-rated pizzeria located in Beja, Tunisia, offering a wide range of pizzas to satisfy your cravings. It can be found on Rue 18 Janvier and has a convenient phone number (27 924 372) for placing orders.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+TOTAL - BEJA twtl is a gas station located in Beja with the coordinates (57.399241687718, 27.202526555184). TOTAL - BEJA twtl offers various services and products related to gas and fuel.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2507,14 +3387,62 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out cafe cesar located at P5CR+XR5. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7258944, 9.1873376.</t>
+          <t>Cafe Cesar is a cafe located in Beja, Tunisia. It is rated 4.0 stars on Google and has 2 reviews. The cafe offers a variety of food and drinks, and is open 7 days a week. It is located at the coordinates (36.7258944, 9.1873376).</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with a wide selection of coffee options and a cozy atmosphere in Beja?</t>
+          <t>Day Plan:
+Morning: Explore Ksar Bardo to delve into the region's rich history and culture.
+Mid-Morning: Visit mT`m lbHry for a highly-rated local dining experience.
+Midday: Take a leisurely stroll through Cafe El guebsi, enjoying its 24-hour service and diverse menu.
+Afternoon: Head to King gym to work on your fitness goals with their experienced staff.
+Evening: Indulge in the delicious food and cozy ambiance of Restaurant Darna.
+Night: Experience the lively atmosphere and local flavors at JOKER CLUB.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe El guebsi is a cafe located at Av. Farhat Hached, Beja, Tunisia. It is open 24 hours a day and offers a variety of items. The cafe has a rating of 5.0 out of 5 and has received 1 review.
+mT`m lbHry is a highly-rated restaurant located in Beja, Tunisia. With an average rating of 4.0 out of 11 reviews, this establishment specializes in local cuisine and is particularly popular among locals. It's conveniently located at P5FP+H64, making it easily accessible for visitors and residents alike.
+Cafe Mixte is a cafeteria located on Rue Abu Kacem Echebi in Beja, Tunisia. It has a rating of 5.0 out of 5 based on one review. The cafe is open 24 hours a day and offers a variety of food and drinks. Its coordinates are 36.719729832883, 9.195428235701.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Foot &amp; Food is a pizzeria located at Beja, Tunisia. It has received a rating of 4.3 from 3 reviews. It can be contacted at 25 151 987.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Staroil Beja Ceinture is a gas station located in Beja, Tunisia. It offers a wide range of services, including fuel, car wash and tire repair. The gas station is open 24 hours a day, 7 days a week. The staff is friendly and helpful, and they are always willing to go the extra mile to make sure that customers are satisfied.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2612,13 +3540,62 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a great Cafe, check out Swiing! This top-rated spot has a rating of 5.0 and offers a cozy atmosphere perfect for Cafe lovers. 
-With 2 reviews, it's a must-visit spot. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/Swiing/data=!4m7!3m6!1s0x12fb599caacb4b09:0x8f7630f141c65a60!8m2!3d36.7354378!4d9.1776602!16s%2Fg%2F11s5p5xfw7!19sChIJCUvLqpxZ-xIRYFrGQfEwdo8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Swiing is a cafe located in Beja (36.7258944, 9.1873376) with an average rating of 5.0. Although it has only 2 reviews, it ranks as one of the best cafes in the area.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated café with a cozy atmosphere in Beja, as indicated by its 5.0 rating and positive reviews?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortress of Ksar Bardo, stepping back in time to experience Beja's rich history and culture.
+Mid-Morning: Enjoy a cup of coffee and a bite to eat at the highly-rated Cafeteria Tej.
+Midday: Tantalize your taste buds with traditional Tunisian cuisine at Monya mlewi, savoring the authentic flavors of the region.
+Afternoon: Take a stroll through the Jamâa Beja museum, uncovering the fascinating history and cultural heritage of the city.
+Evening: Head to the lively JOKER CLUB for a late lunch or early dinner, indulging in grilled delicacies while soaking up the vibrant atmosphere.
+Night: Relax and unwind at the comfortable Darna Restaurant, enjoying a cozy and satisfying dining experience as the day draws to a close.</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Sefir is a cafe located in Beja, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and snacks. It is open from 6am to midnight every day. The cafe has a rating of 4.4 out of 5 stars on Google Maps, and is located at the coordinates (36.7258944, 9.1873376).
+**Monya mlewi** is a 4.0-rated restaurant in Monya mlewi, Tunisia. It specializes in Tunisian cuisine and offers a variety of dishes like couscous, tajines, and kebabs. The restaurant is located at (36.7258944, 9.1873376) and is open 7 days a week.
+Cafeteria Tej is a highly rated café located at (36.7297911, 9.316904) in Beja, Tunisia. It offers a cozy ambiance and a delicious menu, making it a popular spot for locals and tourists alike. With a 5.0 rating from 1 review, Cafeteria Tej is sure to satisfy your craving for a great cup of coffee and a bite to eat.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+VOLCANO is a pizzeria located in Beja, Tunisia (36.7258944, 9.1873376). It has a 4.8 rating based on 9 reviews, and its main category is Pizzeria. VOLCANO is owned by 'VOLCANO (proprietaire)'.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Shell is a gas station located in Beja, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and is conveniently located on Avenue Habib Bourguiba Beja Ville. Shell has received positive reviews from customers, with an average rating of 4.0 out of 5 stars.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2716,12 +3693,62 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a great Cafe, check out Cafe Taher located at P5CX+325 Cafe Taher, Beja. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Taher/data=!4m7!3m6!1s0x12fca77bb7be9ee9:0xdf2cfa66e6d29bef!8m2!3d36.7201486!4d9.197618!16s%2Fg%2F11g65lpgzp!19sChIJ6Z6-t3un_BIR75vS5mb6LN8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 247 704.</t>
+          <t>Cafe Taher is a highly-rated cafe that offers a relaxing ambiance. It is located at the heart of Beja, with coordinates (36.7258944, 9.1873376), making it easily accessible. Cafe Taher is known for its excellent service and delicious coffee, and is a popular spot for locals and tourists alike. With its warm and inviting atmosphere, Cafe Taher is the perfect place to unwind and enjoy a cup of coffee.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>What is the top-rated Cafe in Beja, highly recommended for Cafe lovers and conveniently located with GPS coordinates 36.7258944, 9.1873376?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortress of Ksar Bardo, a historical landmark offering insights into the region's rich history and culture.
+Mid-Morning: Visit the Jamâa Beja Museum, dedicated to the history and culture of Beja, showcasing artifacts, pottery, and Islamic coins.
+Midday: Try local cuisine at Let's Eat, a highly-rated restaurant specializing in a wide variety of dishes.
+Afternoon: Enjoy a relaxing afternoon in the Rue abu kacem echebi area, visiting Cafe mixte for beverages and snacks.
+Evening: Savor delicious grilled dishes at JOKER CLUB, a highly-rated restaurant offering a 24/7 service.
+Night: Engage in outdoor activities at LA CASA, a barbecue restaurant located in a picturesque setting, offering a memorable dining experience under the stars.</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Soltan, located in Beja, Tunisia, is a highly-rated cafe known for its 24-hour availability. It offers a welcoming atmosphere for locals and visitors alike, attracting positive reviews.
+In the heart of Beja, Let's Eat is a welcoming restaurant with a rating of 5 stars. It specializes in a wide variety of dishes, and is located at the coordinates (36.7258944, 9.1873376). The restaurant's opening hours are from 10:00 to 22:00 and is contactable by phone at 31 113 883. Experience the delectable cuisine of Let's Eat today!
+Cafe mixte is a cafeteria located in Rue abu kacem echebi, Beja 9000, Tunisia. It offers a cozy atmosphere and a wide variety of beverages and snacks. The cafe is open 24 hours a day, making it a great place to relax and socialize or to get some work done.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+VOLCANO is a pizzeria located in Beja, Tunisia (36.7258944, 9.1873376). It has a 4.8 rating based on 9 reviews, and its main category is Pizzeria. VOLCANO is owned by 'VOLCANO (proprietaire)'.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+bjaoui Key is a gas station located in Beja, Tunisia, at the coordinates (36.7297911, 9.316904). It offers fuel, lubricants, and other automotive services. The station is open from 7:00 AM to 6:00 PM, Monday through Saturday, and is closed on Sundays. bjaoui Key has a rating of 5.0 out of 5 based on 4 reviews.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2823,13 +3850,62 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a Cafe, check out Salon de the edallel located at 1 er etage, Salon de the edallel, app 2-3, 46 Rue Hedi Chaker, Beja. This top-rated destination offers a range of Cafe categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 36.724232476883, 9.187176864723.</t>
+          <t>The Salon de the edallel is a cafe located in Beja. It has a rating of 5.0 and is open from 6:00 AM to 11:00 PM. It is located at the following coordinates: (36.724232476883, 9.187176864723).</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>**Question:**
-If you're craving a highly-rated Cafe experience with a wide selection of options in Beja, where should you visit that's open extended hours and boasts GPS coordinates to easily locate?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortress of Ksar Bardo, offering a glimpse into the region's rich history and culture.
+Mid-Morning: Visit Jamâa Beja, a museum dedicated to the history and culture of the city of Beja.
+Midday: Try local cuisine at Restaurant Darna, known for its cozy ambiance and delicious food.
+Afternoon: Relax with a soothing massage at a local spa or hotel.
+Evening: Participate in a guided tour of Beja Marchandises, offering convenient public transportation options.
+Night: Enjoy scenic views and a memorable dining experience at LA CASA, a barbecue restaurant with a high Google rating.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Beja, a cafe located in the heart of Beja, Tunisia, is a popular spot for locals and tourists alike. Known for its cozy atmosphere and friendly staff, Beja offers a variety of coffee and tea drinks, as well as a selection of pastries and snacks. The cafe is also a great place to relax and enjoy the city's atmosphere, with its prime location along the main pedestrian street.
+Patesserie Mozart is a restaurant located in Beja, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at P5MJ+2G5 Patesserie Mozart, Beja 92 105 648. Its coordinates are 36.7258944, 9.1873376.
+Cafe Mixte is a cafeteria located on Rue Abu Kacem Echebi in Beja, Tunisia. It has a rating of 5.0 out of 5 based on one review. The cafe is open 24 hours a day and offers a variety of food and drinks. Its coordinates are 36.719729832883, 9.195428235701.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Foot &amp; Food is a pizzeria located at Beja, Tunisia. It has received a rating of 4.3 from 3 reviews. It can be contacted at 25 151 987.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+S.G.P Beja is a gas station located in Beja, Tunisia. It offers a wide range of services, including fuel, car wash, and tire repair. The gas station is located at (36.7258944, 9.1873376).
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2939,14 +4015,62 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Vamos Coffee located at Vamos Coffee, Avenue Essalam, Beja 9000. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:30-22:00. To get there, use these GPS coordinates: 36.7297911, 9.316904. For more details, visit their website at https://www.instagram.com/coffee.vamos/ or call them at 55 650 740.</t>
+          <t>Vamos Coffee is a 4 stars coffee shop located in Beja (36.7297911, 9.316904) at the Avenue Essalam. It is open from 07:30 to 22:00 and its main category is Cafe.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Where in Beja can you indulge in top-rated Cafe at a cafe hotspot with excellent ratings?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortress of Ksar Bardo (Historical Landmark)
+Mid-Morning: Visit the Jamâa Beja Museum to discover the city's rich history and culture (Cultural Immersion)
+Midday: Try local cuisine at Twenty Four - 24 (Authentic Dining Experience)
+Afternoon: Get fit at King gym for an invigorating workout (Recreational Activity)
+Evening: Indulge in delicious food and vibrant atmosphere at JOKER CLUB (Dinner and Nightlife)
+Night: Take a relaxing evening stroll through Cafe mixte for a cozy ambiance and beverages (Relaxing and Socializing)</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Golden River is a cafe located in Beja, Tunisia. It offers a wide variety of food and drinks, including coffee, tea, sandwiches, and pastries. The cafe is located at the coordinates (36.7258944, 9.1873376). Cafe Golden River is open 24 hours a day, 7 days a week.
+Twenty Four - 24 is a restaurant located in Beja, Tunisia offering 24 hour service. It is highly rated with a 5.0 rating. The restaurant offers delicious food options in a cozy and inviting atmosphere. It is located at the coordinates (36.7258944, 9.1873376).
+Cafe mixte is a cafeteria located in Rue abu kacem echebi, Beja 9000, Tunisia. It offers a cozy atmosphere and a wide variety of beverages and snacks. The cafe is open 24 hours a day, making it a great place to relax and socialize or to get some work done.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Foot &amp; Food is a pizzeria located at Beja, Tunisia. It has received a rating of 4.3 from 3 reviews. It can be contacted at 25 151 987.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+SHELL is a gas station located in Beja, Tunisia with coordinates (36.7275112, 9.1977718). It is open 24 hours a day and offers various services related to gasoline.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3048,14 +4172,62 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Cafe El guebsi located at Av. Farhat Hached, Beja. 
-This top-rated destination is perfect for Cafe lovers and offers a range to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 36.726560793073, 9.183564966281. For more details, call them at 31 516 285.</t>
+          <t>Cafe El guebsi is a cafe located at Av. Farhat Hached, Beja, Tunisia. It is open 24 hours a day and offers a variety of items. The cafe has a rating of 5.0 out of 5 and has received 1 review.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated café experience with flexible 24-hour access in Beja?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortress of Ksar Bardo, offering a glimpse into the region's rich history and culture. (Duration: 2 hours)
+Mid-Morning: Visit the Jamâa Beja Museum, dedicated to the history and culture of the city of Beja. (Duration: 1 hour)
+Midday: Try local cuisine at Restaurant Darna, known for its family-friendly dining experience and delicious food. (Duration: 1.5 hours)
+Afternoon: Engage in outdoor activities like hiking or biking at a nearby natural park or scenic location. (Duration: 2 hours)
+Evening: Relax with a spa treatment or massage at a local spa or hotel. (Duration: 1.5 hours)
+Night: Enjoy a traditional Tunisian dinner and live music at the highly-rated Twenty Four - 24 restaurant. (Duration: 2 hours)</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ ltwt@ _mqh~ bwthlj@ (lHsb tHt ltwt@) is a cafe located at Rue Kheireddine Pacha in Beja, Tunisia. It has an average rating of 4.6 based on 5 reviews. The cafe offers a variety of coffee, tea, and snacks, and is open from 4 am to 10 pm.
+Twenty Four - 24 is a restaurant located in Beja, Tunisia offering 24 hour service. It is highly rated with a 5.0 rating. The restaurant offers delicious food options in a cozy and inviting atmosphere. It is located at the coordinates (36.7258944, 9.1873376).
+Cafe Mixte is a cafeteria located on Rue Abu Kacem Echebi in Beja, Tunisia. It has a rating of 5.0 out of 5 based on one review. The cafe is open 24 hours a day and offers a variety of food and drinks. Its coordinates are 36.719729832883, 9.195428235701.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Noir &amp; Blanc is a popular pizzeria located in Beja, Tunisia. It has received rave reviews for its delicious pizzas and friendly service. The pizzeria is situated at P5PH+4CV and is open daily.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Staroil Beja Ceinture is a gas station located in Beja, Tunisia. It offers a wide range of services, including fuel, car wash and tire repair. The gas station is open 24 hours a day, 7 days a week. The staff is friendly and helpful, and they are always willing to go the extra mile to make sure that customers are satisfied.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3153,12 +4325,74 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Cafe mixte located at Rue abu kacem echebi, Beja 9000. This top-rated destination is perfect for Cafeteria lovers and offers a range of Cafeteria and Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.719729832883, 9.195428235701.</t>
+          <t>Cafe mixte is a cafeteria located in Rue abu kacem echebi, Beja 9000, Tunisia. It offers a cozy atmosphere and a wide variety of beverages and snacks. The cafe is open 24 hours a day, making it a great place to relax and socialize or to get some work done.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Where in Beja can you enjoy top-rated coffee and snacks at a cafe with 24/7 availability?</t>
+          <t>Day Plan:
+Morning:
+- Exploring Ksar Bardo
+- Guided tour of the ancient fortress to learn about its history and significance.
+Mid-Morning:
+- Trying local cuisine at Restaurant Darna
+- Savoring traditional Tunisian dishes and experiencing the warm ambiance.
+Midday:
+- Shopping at Beja Marchandises
+- Browsing for souvenirs, local products, and handicrafts.
+Afternoon:
+- Relaxing at Noir &amp; Blanc
+- Indulging in delicious pizzas and enjoying the friendly atmosphere of the popular pizzeria.
+Evening:
+- Enjoying scenic views at Sidi Smail train station
+- Admiring the architectural beauty of the station and capturing stunning photographs.
+Night:
+- Participating in a moving experience at Louage Station Beja-Jendouba
+- Exploring the fascinating world of moving and witnessing the process firsthand.</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in the heart of Beja (36.7258944, 9.1873376), Café Bonbonera is a cozy spot that offers a wide selection of coffee and tea drinks. With a 4.8 rating, it operates from 6:00 am to 11:00 pm daily, giving you ample time to enjoy your favorite beverages. Their featured image showcases a warm and inviting ambiance, promising a pleasant experience.
+Cha9chek9 is a highly rated restaurant located in Beja, Tunisia, at coordinates (36.7258944, 9.1873376). It has received 18 reviews and boasts a 4.2 rating, indicating its popularity among visitors. The restaurant’s main focus is on providing a delightful dining experience.
+Cafeteria Tej is a highly rated café located at (36.7297911, 9.316904) in Beja, Tunisia. It offers a cozy ambiance and a delicious menu, making it a popular spot for locals and tourists alike. With a 5.0 rating from 1 review, Cafeteria Tej is sure to satisfy your craving for a great cup of coffee and a bite to eat.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Noir &amp; Blanc is a popular pizzeria located in Beja, Tunisia. It has received rave reviews for its delicious pizzas and friendly service. The pizzeria is situated at P5PH+4CV and is open daily.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+S.G.P Beja is a gas station located in Beja, Tunisia. It offers a wide range of services, including fuel, car wash, and tire repair. The gas station is located at (36.7258944, 9.1873376).
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3256,12 +4490,62 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in Beja and looking for a top-rated cafe, check out Total phenix cafe. Located at P6H2+6QV Total phenix cafe, this destination offers a range of cafe-related options to choose from. With a rating of 5.0, it's open during weekday_timing and closed on closed_on. For more details, visit their website at https://www.google.com/maps/place/Total+ph%C3%A8nix+caf%C3%A8/data=!4m7!3m6!1s0x12fca7632e5e089b:0x88df5ddd45cd50c9!8m2!3d36.7281029!4d9.2019097!16s%2Fg%2F11t9hsst1b!19sChIJmwheLmOn_BIRyVDNRd1d34g?authuser=0&amp;hl=fr&amp;rclk=1 or call them at phone.</t>
+          <t>Total phenix cafe is a cafe located in Beja, Tunisia.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated (5.0) café called Total phenix cafe located in Beja, open during weekday_timing and closed on closed_on?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortress of Ksar Bardo, offering a glimpse into Beja's rich history and culture.
+Mid-Morning: Visit the Jamâa Beja Museum, dedicated to the history and culture of the city, featuring a collection of artifacts from the region.
+Midday: Try local cuisine at Restaurant Darna, known for its cozy ambiance and delicious food.
+Afternoon: Enjoy a scenic walk through Noir &amp; Blanc, a popular pizzeria, known for its tasty pizzas and friendly service.
+Evening: Experience cultural immersion at a traditional Tunisian music concert at the JOKER CLUB cafe and restaurant.
+Night: Relax with a soothing massage at a local spa to unwind after a day of exploration.</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+If you're looking for a cozy ambiance to enjoy your coffee in Beja, Cafe shop Malibou sahli is the perfect spot. This cafe is situated at coordinates (36.7258944, 9.1873376). You can find them on Facebook at https://www.facebook.com/profile.php?id=100027213681153&amp;mibextid=ZbWKwL. Drop by and savor the warm and welcoming atmosphere of Cafe shop Malibou sahli today!
+Patesserie Mozart is a restaurant located in Beja, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at P5MJ+2G5 Patesserie Mozart, Beja 92 105 648. Its coordinates are 36.7258944, 9.1873376.
+Cafe Mixte is a cafeteria located on Rue Abu Kacem Echebi in Beja, Tunisia. It has a rating of 5.0 out of 5 based on one review. The cafe is open 24 hours a day and offers a variety of food and drinks. Its coordinates are 36.719729832883, 9.195428235701.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+Noir &amp; Blanc is a popular pizzeria located in Beja, Tunisia. It has received rave reviews for its delicious pizzas and friendly service. The pizzeria is situated at P5PH+4CV and is open daily.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Shell is a gas station located in Beja, Tunisia, at the coordinates (36.7297911, 9.316904). It offers a wide range of services, including fuel, car wash, convenience store, and sandwiches. The gas station is open 24 hours a day, has a rating of 3.7 out of 5, and has received 3 reviews.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3359,12 +4643,62 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in Beja and looking for a top-rated spot for Cafe lovers, check out Cafe Malibou Sahli. It offers a range of Cafe options and has a 5.0 rating based on 1 reviews. To get there, you can use the GPS coordinates: 36.7258944, 9.1873376. For more details, visit their Facebook page at https://www.facebook.com/profile.php?id=100027213681153&amp;mibextid=ZbWKwL.</t>
+          <t>Nestled in the vibrant city of Beja, Tunisia, Cafe Malibou Sahli welcomes patrons with a cozy ambiance and delectable culinary offerings. Situated conveniently at coordinates (36.7258944, 9.1873376), the cafe is easily accessible. Known for its exceptional coffee and warm hospitality, Cafe Malibou Sahli invites guests to relax and savor their favorite beverages in a comfortable setting.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Where in Beja can you find Cafe Malibou Sahli, renowned for its exceptional Cafe offerings and 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortress of Ksar Bardo (36.73567, 9.17533) to delve into Beja's rich history and culture.
+Mid-Morning: Visit the Jamâa Beja museum to learn about the city's heritage through its collection of artifacts and exhibits.
+Midday: Tantalize your taste buds with a delightful lunch at Restaurant Darna (36.7258944, 9.1873376), renowned for its cozy ambiance and delicious cuisine.
+Afternoon: Immerse yourself in the vibrant atmosphere of JOKER CLUB (36.7258944, 9.1873376), a highly-rated cafe, and restaurant de grillades, offering delectable flavors and lively company.
+Evening: Take a leisurely stroll through the picturesque streets of Beja, soaking in the town's charm and admiring the local architecture.
+Night: Experience the flavors of Tunisian cuisine at Foot &amp; Food pizzeria, known for its authentic pizzas and inviting ambiance.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Swiing is a cafe located in Beja (36.7258944, 9.1873376) with an average rating of 5.0. Although it has only 2 reviews, it ranks as one of the best cafes in the area.
+Patesserie Mozart is a restaurant located in Beja, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at P5MJ+2G5 Patesserie Mozart, Beja 92 105 648. Its coordinates are 36.7258944, 9.1873376.
+Cafeteria Tej is a highly rated café located at (36.7297911, 9.316904) in Beja, Tunisia. It offers a cozy ambiance and a delicious menu, making it a popular spot for locals and tourists alike. With a 5.0 rating from 1 review, Cafeteria Tej is sure to satisfy your craving for a great cup of coffee and a bite to eat.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+Foot &amp; Food is a pizzeria located at Beja, Tunisia. It has received a rating of 4.3 from 3 reviews. It can be contacted at 25 151 987.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+**Lavage ben hamouda** is a gas station located in Sousse, Tunisia, at the coordinates (35.846650457545, 10.582875756788). It offers gas, car wash, and other services to its customers. The gas station is open 24 hours a day and has a 4.3 rating on Google Maps.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3462,12 +4796,68 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in beja, check out Cafe shop Malibou sahli located at P5FP+8FW Cafe shop Malibou sahli, Beja. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100027213681153%26mibextid%3DZbWKwL</t>
+          <t>If you're looking for a cozy ambiance to enjoy your coffee in Beja, Cafe shop Malibou sahli is the perfect spot. This cafe is situated at coordinates (36.7258944, 9.1873376). You can find them on Facebook at https://www.facebook.com/profile.php?id=100027213681153&amp;mibextid=ZbWKwL. Drop by and savor the warm and welcoming atmosphere of Cafe shop Malibou sahli today!</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>If you're in Beja and craving a delightful cafe experience, what top-rated destination, perfect for cafe lovers, should you visit?</t>
+          <t>Day Plan:
+Morning:
+- Exploring Jamâa Beja for a glimpse of local history and culture.
+Mid-Morning:
+- Trying local cuisine at Patesserie Mozart for a delightful breakfast experience.
+Midday:
+- Visiting Ksar Bardo for an immersive archaeological adventure.
+Afternoon:
+- Enjoying a relaxing break at Cafeteria Tej with a cup of coffee and a bite to eat.
+Evening:
+- Shopping for souvenirs and local products at Beja Marchandises.
+Night:
+- Experiencing a taste of local nightlife at JOKER CLUB for dinner and entertainment.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+If you're looking for a cozy ambiance to enjoy your coffee in Beja, Cafe shop Malibou sahli is the perfect spot. This cafe is situated at coordinates (36.7258944, 9.1873376). You can find them on Facebook at https://www.facebook.com/profile.php?id=100027213681153&amp;mibextid=ZbWKwL. Drop by and savor the warm and welcoming atmosphere of Cafe shop Malibou sahli today!
+Patesserie Mozart is a restaurant located in Beja, Tunisia. It operates daily from 6:00 AM to 9:00 PM. Patisserie Mozart offers various food options and accepts reservations. Patesserie Mozart has received 4.0 ratings from many customers.
+Cafeteria Tej is a highly rated café located at (36.7297911, 9.316904) in Beja, Tunisia. It offers a cozy ambiance and a delicious menu, making it a popular spot for locals and tourists alike. With a 5.0 rating from 1 review, Cafeteria Tej is sure to satisfy your craving for a great cup of coffee and a bite to eat.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+VOLCANO is a pizzeria located in Beja, Tunisia (36.7258944, 9.1873376). It has a 4.8 rating based on 9 reviews, and its main category is Pizzeria. VOLCANO is owned by 'VOLCANO (proprietaire)'.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+OLA is a gas station located in OLA, Beja, Tunisia. It has a rating of 3.6 out of 5 based on 8 reviews and its main category is gas station. Its coordinates are (36.7258944, 9.1873376) and it is owned by OLA (proprietaire).
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3573,14 +4963,62 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in Beja and looking for a great Cafeteria, check out Cafeteria Tej located at nhj Gn `dd 2. 
-This top-rated destination is perfect for Cafeteria lovers and offers a range of Cafeteria to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on None. To get there, use these GPS coordinates: 36.7297911, 9.316904. For more details, visit their website at None or call them at 54 477 657.</t>
+          <t>Cafeteria Tej is a cafeteria located in Beja (Tunisia) at the coordinates (36.7297911, 9.316904). It has a rating of 5.0 and is open from 6:00 AM to 12:00 AM, closed on none. No phone number is available but you can reach them via their website.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafeteria with a perfect 5.0 rating and a wide selection of Cafeteria options in Beja?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of Ksar Bardo, offering a glimpse into the region's rich history.
+Mid-Morning: Visit the Jamâa Beja Museum, which houses artifacts and exhibits on the city's captivating past.
+Midday: Savor the delicious pizzas of Noir &amp; Blanc, a pizzeria renowned for its exceptional food and friendly service.
+Afternoon: Engage in outdoor activities such as hiking or biking at the scenic Sidi Smail Train Station.
+Evening: Delight in a family-friendly dining experience at Restaurant Darna, known for its cozy ambiance and warm hospitality.
+Night: Experience the lively atmosphere of JOKER CLUB, a 4.7-star cafe and grill offering a delectable menu and a warm ambiance.</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the vibrant city of Beja, Tunisia, Cafe Malibou Sahli welcomes patrons with a cozy ambiance and delectable culinary offerings. Situated conveniently at coordinates (36.7258944, 9.1873376), the cafe is easily accessible. Known for its exceptional coffee and warm hospitality, Cafe Malibou Sahli invites guests to relax and savor their favorite beverages in a comfortable setting.
+Twenty Four - 24 is a restaurant located in Beja, Tunisia offering 24 hour service. It is highly rated with a 5.0 rating. The restaurant offers delicious food options in a cozy and inviting atmosphere. It is located at the coordinates (36.7258944, 9.1873376).
+Cafeteria Tej is a highly rated café located at (36.7297911, 9.316904) in Beja, Tunisia. It offers a cozy ambiance and a delicious menu, making it a popular spot for locals and tourists alike. With a 5.0 rating from 1 review, Cafeteria Tej is sure to satisfy your craving for a great cup of coffee and a bite to eat.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Noir &amp; Blanc is a popular pizzeria located in Beja, Tunisia. It has received rave reviews for its delicious pizzas and friendly service. The pizzeria is situated at P5PH+4CV and is open daily.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Nestled in Beja at coordinates (36.7268021, 9.1895103), AGIL Beja is a reputable gas station that caters to your fueling needs 24 hours a day.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3686,12 +5124,62 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out ALTA CAFFE located at Route de Bejaoua KM 7, Sidi Thabet 2020. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe, Fabricant to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-18:00, but closed on dimanche. To get there, use these GPS coordinates: 36.8989013, 10.049836. For more details, visit their website at or call them at 70 553 612.</t>
+          <t>ALTA CAFFE is a cozy cafe located in Sidi Thabet, Tunisia. It serves as both a cafe and a fabricant. The cafe offers a wide range of beverages, including coffee, tea, and juices. It's nestled in the heart of Beja, close to many attractions. The cafe's prime location makes it a convenient choice for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Where can I find a highly rated cafe with a variety of menu options near Beja, Tunisia?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortress of Ksar Bardo, offering a glimpse into the region's rich history and culture.
+Mid-Morning: Visit the Jamâa Beja museum, showcasing the city's heritage through a collection of artifacts and exhibits.
+Midday: Savor local cuisine at the highly-rated Restaurant Darna, known for its cozy ambiance and delicious food offerings.
+Afternoon: Engage in outdoor activities at Mlewi sidi fraj, a fast food restaurant with a 5.0 rating based on 1 review.
+Evening: Experience the vibrant atmosphere at JOKER CLUB, a 4.7-star cafe and grill known for its friendly ambiance and delicious food.
+Night: Relax with a scenic view at LA CASA, a barbecue restaurant with a 5.0 Google rating based on 2 reviews.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Vamos Coffee is a 4 stars coffee shop located in Beja (36.7297911, 9.316904) at the Avenue Essalam. It is open from 07:30 to 22:00 and its main category is Cafe.
+Patesserie Mozart is a restaurant located in Beja, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at P5MJ+2G5 Patesserie Mozart, Beja 92 105 648. Its coordinates are 36.7258944, 9.1873376.
+Cafe Mixte is a cafeteria located on Rue Abu Kacem Echebi in Beja, Tunisia. It has a rating of 5.0 out of 5 based on one review. The cafe is open 24 hours a day and offers a variety of food and drinks. Its coordinates are 36.719729832883, 9.195428235701.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Foot &amp; Food is a pizzeria located at Beja, Tunisia. It has received a rating of 4.3 from 3 reviews. It can be contacted at 25 151 987.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Shell is a gas station located in Beja, Tunisia, at the coordinates (36.7297911, 9.316904). It offers a wide range of services, including fuel, car wash, convenience store, and sandwiches. The gas station is open 24 hours a day, has a rating of 3.7 out of 5, and has received 3 reviews.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3785,14 +5273,62 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Restaurant Sidi Maaouia located at Rue du Lieutenant Bejaoui, Korba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.578644343492, 10.870781156518. For more details, visit their link at https://www.google.com/maps/place/Restaurant+Sidi+Maaouia/data=!4m7!3m6!1s0x1302bbb87cc2c197:0x414e262489257ca0!8m2!3d36.5723525!</t>
+          <t>Restaurant Sidi Maaouia is a renowned restaurant located in HVC8+WRX Restaurant Sidi Maaouia, Rue du Lieutenant Bejaoui, Korba, Tunisia. With a remarkable 5.0 rating and 5 customer reviews, it has garnered widespread acclaim for its exceptional culinary offerings.</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Where in Beja can you find a highly-rated restaurant with GPS coordinates of 36.578644343492, 10.870781156518 and a focus on Restaurant cuisine?</t>
+          <t>Day Plan:
+Morning: Explore Ksar Bardo, an ancient fortress offering insights into the region's history and culture.
+Mid-Morning: Visit Jamâa Beja, a museum dedicated to the city's history and culture, showcasing artifacts and documents.
+Midday: Savor a delicious meal at Let's Eat, a highly-rated restaurant offering a wide variety of dishes.
+Afternoon: Enjoy a relaxing experience at a spa or hotel, perfect for rejuvenating after the day's exploration.
+Evening: Head to JOKER CLUB, a 4.7-star cafe and grill, to enjoy a delightful dinner and soak in the local atmosphere.
+Night: Take a guided tour of the city's historical landmarks to learn about Beja's rich past and cultural significance.</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Beja, a cafe located in the heart of Beja, Tunisia, is a popular spot for locals and tourists alike. Known for its cozy atmosphere and friendly staff, Beja offers a variety of coffee and tea drinks, as well as a selection of pastries and snacks. The cafe is also a great place to relax and enjoy the city's atmosphere, with its prime location along the main pedestrian street.
+In the heart of Beja, Let's Eat is a welcoming restaurant with a rating of 5 stars. It specializes in a wide variety of dishes, and is located at the coordinates (36.7258944, 9.1873376). The restaurant's opening hours are from 10:00 to 22:00 and is contactable by phone at 31 113 883. Experience the delectable cuisine of Let's Eat today!
+Cafe mixte is a cafeteria located in Rue abu kacem echebi, Beja 9000, Tunisia. It offers a cozy atmosphere and a wide variety of beverages and snacks. The cafe is open 24 hours a day, making it a great place to relax and socialize or to get some work done.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Noir &amp; Blanc is a popular pizzeria located in Beja, Tunisia. It has received rave reviews for its delicious pizzas and friendly service. The pizzeria is situated at P5PH+4CV and is open daily.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+**Hamia Mecancien** is a gas station ideally located in the region of Beja, Tunisia. The gas station is easily accessible with coordinates (36.7258944, 9.1873376), positioned along the Unnamed Road in P5QJ+87J, Hamia Mecancien. The gas station caters to customer needs from 08:00 AM to 06:00 PM on weekdays, but remains closed on Sundays.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3894,14 +5430,62 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Cafe Djamel Bejawa located at R2P6+M5G Cafe Djamel Bejawa, Bejaoua, Rue Bombachi Bejaoui, Manouba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-22:00, but closed on []. To get there, use these GPS coordinates: 36.8293828, 10.0515875. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Djamel+Bejawa/data=!4m7!3m6!1s0x12fd2c8b84413ebf:0xa39919013fdd84e6!8m2!3d36.8366816!4d10.010444!16s%2Fg%2F11f15h_4k4!19sChIJvz5BhIss_RIR5oTdPwEZmaM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Djamel Bejawa is a cafe located in Bejaoua, Tunisia. It is rated 4.0 stars on Google and is open from 06:00 to 22:00 every day. The cafe is a popular spot for locals and tourists alike, and is known for its delicious coffee and friendly staff.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>Where is the highly-rated Cafe Djamel Bejawa located, known for its excellent cafe offerings?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortress of Ksar Bardo, stepping back in time to discover Beja's rich history and culture.
+Mid-Morning: Visit Patisserie Yakoubi Salah, a beloved sundae restaurant, and savor the sweet flavors of local patisserie.
+Midday: Indulge in a delicious meal at Pizzeria 5 fromages, tantalizing your taste buds with a wide variety of pizzas.
+Afternoon: Head to JOKER CLUB, a lively cafe and grill, to relish in the delectable cuisine and bask in the friendly ambiance.
+Evening: Explore the bustling Louage Station Beja-Jendouba, immersing yourself in the local life and vibrant energy of the city.
+Night: Wind down at the tranquil LA CASA, where you can savor a satisfying barbecue meal and soak in the serene atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Swiing is a cafe located in Beja (36.7258944, 9.1873376) with an average rating of 5.0. Although it has only 2 reviews, it ranks as one of the best cafes in the area.
+Located in Beja, mT`m l`rby lswry is a 4.4-star rated restaurant (based on 17 reviews) that operates from 08:00 to 18:30 every day except Sunday. The restaurant's main category is Restaurant and it offers a variety of dishes and services. It is situated at the coordinates (36.7258944, 9.1873376).
+Cafeteria Tej is a cafeteria located in Beja (Tunisia) at the coordinates (36.7297911, 9.316904). It has a rating of 5.0 and is open from 6:00 AM to 12:00 AM, closed on none. No phone number is available but you can reach them via their website.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Pizzeria 5 fromages is a local, highly-rated pizzeria located in Beja, Tunisia, offering a wide range of pizzas to satisfy your cravings. It can be found on Rue 18 Janvier and has a convenient phone number (27 924 372) for placing orders.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+SHELL is a gas station located in Beja, Tunisia with coordinates (36.7275112, 9.1977718). It is open 24 hours a day and offers various services related to gasoline.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4007,12 +5591,62 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in Beja and looking for a unique historical experience, visit Ksar Bardo located at P5MG+WJ4, Ksar Bardo. This top-rated archaeological site offers a glimpse into the rich history of the region. With a rating of 4.0, it's a must-visit spot for history buffs. It's open daily from 09:00-21:00. For more details, visit their website or call them at 78 455 306.</t>
+          <t>Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Where in Beja can you explore a highly-rated archaeological site that delves into the region's captivating history?</t>
+          <t>Day Plan:
+Morning: Visit the Jamâa Beja Museum to learn about the history and culture of the city.
+Mid-Morning: Explore the ancient fortress of Ksar Bardo for a glimpse into the region's rich heritage.
+Midday: Try local cuisine at Restaurant Darna, known for its cozy ambiance and delicious food options.
+Afternoon: Relax with a cup of coffee or tea at Cafe Rachidiya, a cozy spot perfect for catching up with friends.
+Evening: Engage in outdoor activities like hiking or cycling at one of Beja's scenic parks.
+Night: Experience cultural immersion at Sidi Smail, a train station with featured offers and a vibrant local atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Rachidiya, located in Beja, offers a cozy atmosphere perfect for relaxing or catching up with friends. The cafe serves a variety of beverages and snacks, and is highly rated by its customers for its excellent service and friendly staff. Conveniently located at coordinates (36.7258944, 9.1873376), Cafe Rachidiya is a great place to unwind and enjoy a cup of coffee or tea.
+Patesserie Mozart is a restaurant located in Beja, Tunisia. It operates daily from 6:00 AM to 9:00 PM. Patisserie Mozart offers various food options and accepts reservations. Patesserie Mozart has received 4.0 ratings from many customers.
+Cafe mixte is a cafeteria located in Rue abu kacem echebi, Beja 9000, Tunisia. It offers a cozy atmosphere and a wide variety of beverages and snacks. The cafe is open 24 hours a day, making it a great place to relax and socialize or to get some work done.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+Foot &amp; Food is a pizzeria located at Beja, Tunisia. It has received a rating of 4.3 from 3 reviews. It can be contacted at 25 151 987.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Shell is a gas station located in Beja, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and is conveniently located on Avenue Habib Bourguiba Beja Ville. Shell has received positive reviews from customers, with an average rating of 4.0 out of 5 stars.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4110,15 +5744,62 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out jm` bj@ ljdyd@ located at P5VQ+4M3 jm` bj@ ljdyd@, Av. Tahar Haddad, Beja. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 4.8, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.7258944, 9.1873376.</t>
+          <t>Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>What top-rated destination in Beja offers a diverse selection of Musees and boasts a rating of 4.8, making it a must-visit for Musee enthusiasts?</t>
+          <t>Day Plan:
+Morning: Visit Ksar Bardo to learn about the region's history and culture.
+Mid-Morning: Try the delicious pizzas and other dishes at Noir &amp; Blanc.
+Midday: Take a guided tour of Jamâa Beja, a museum dedicated to the history of Beja.
+Afternoon: Enjoy some outdoor activities like swimming or sunbathing at a local beach or park.
+Evening: Have a romantic dinner at Restaurant Darna, known for its cozy ambiance and delicious food.
+Night: Experience the lively atmosphere at JOKER CLUB, a 4.7-star cafe and grill open 24 hours a day.</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Golden River is a cafe located in Beja, Tunisia. It offers a wide variety of food and drinks, including coffee, tea, sandwiches, and pastries. The cafe is located at the coordinates (36.7258944, 9.1873376). Cafe Golden River is open 24 hours a day, 7 days a week.
+Patesserie Mozart is a restaurant located in Beja, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at P5MJ+2G5 Patesserie Mozart, Beja 92 105 648. Its coordinates are 36.7258944, 9.1873376.
+Cafe Mixte is a cafeteria located on Rue Abu Kacem Echebi in Beja, Tunisia. It has a rating of 5.0 out of 5 based on one review. The cafe is open 24 hours a day and offers a variety of food and drinks. Its coordinates are 36.719729832883, 9.195428235701.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Noir &amp; Blanc is a popular pizzeria located in Beja, Tunisia. It has received rave reviews for its delicious pizzas and friendly service. The pizzeria is situated at P5PH+4CV and is open daily.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Nestled in Beja at coordinates (36.7268021, 9.1895103), AGIL Beja is a reputable gas station that caters to your fueling needs 24 hours a day.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4220,14 +5901,62 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out King gym located at P5HJ+5XF King gym, Av. Farhat Hached. 
-This top-rated destination is perfect for Salle de gym lovers and offers a range of Salle de gym to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-21:00, but closed on . To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at  or call them at 55 853 886.</t>
+          <t>King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Where in Beja can you find a highly rated destination with a variety of gym options, perfect for fitness enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore Ksar Bardo, an ancient fortress providing a glimpse into Beja's rich history and culture.
+Mid-Morning: Try local cuisine at Restaurant Darna, known for its cozy ambiance and delicious meals.
+Midday: Visit Sidi Smail, a local train station with featured offers.
+Afternoon: Enjoy a relaxing break at Cafe Rachidiya, with its cozy atmosphere and friendly staff.
+Evening: Indulge in a dinner at JOKER CLUB, a highly-rated Cafe and restaurant de grillades.
+Night: Experience the city's nightlife at LA CASA, a barbecue restaurant with live music.</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Rachidiya, located in Beja, offers a cozy atmosphere perfect for relaxing or catching up with friends. The cafe serves a variety of beverages and snacks, and is highly rated by its customers for its excellent service and friendly staff. Conveniently located at coordinates (36.7258944, 9.1873376), Cafe Rachidiya is a great place to unwind and enjoy a cup of coffee or tea.
+Patesserie Mozart is a restaurant located in Beja, Tunisia. It operates daily from 6:00 AM to 9:00 PM. Patisserie Mozart offers various food options and accepts reservations. Patesserie Mozart has received 4.0 ratings from many customers.
+Cafe Mixte is a cafeteria located on Rue Abu Kacem Echebi in Beja, Tunisia. It has a rating of 5.0 out of 5 based on one review. The cafe is open 24 hours a day and offers a variety of food and drinks. Its coordinates are 36.719729832883, 9.195428235701.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+Foot &amp; Food is a pizzeria located at Beja, Tunisia. It has received a rating of 4.3 from 3 reviews. It can be contacted at 25 151 987.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+**Hamia Mecancien** is a gas station ideally located in the region of Beja, Tunisia. The gas station is easily accessible with coordinates (36.7258944, 9.1873376), positioned along the Unnamed Road in P5QJ+87J, Hamia Mecancien. The gas station caters to customer needs from 08:00 AM to 06:00 PM on weekdays, but remains closed on Sundays.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4333,12 +6062,62 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out JOKER CLUB located at P697+2FH JOKER CLUB, Beja. This top-rated destination is perfect for Cafe et restaurant de grillades lovers and offers a range of Cafe et restaurant de grillades to choose from. With a rating of 4.7, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, call them at 53 548 806.</t>
+          <t>JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>If you're in Beja and craving delicious Cafe et restaurant de grillades, what top-rated destination can you visit that's known for its extensive menu and exceptional quality?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortress of Ksar Bardo, offering a glimpse into Beja's rich history and culture.
+Mid-Morning: Visit the Jamâa Beja museum, showcasing the city's captivating past through artifacts and exhibits.
+Midday: Delight in a traditional Tunisian lunch at Restaurant Darna, known for its cozy ambiance and family-friendly menu.
+Afternoon: Enjoy an invigorating workout at King gym, a well-equipped facility with a range of fitness options.
+Evening: Relish a delectable dinner at JOKER CLUB, a highly-rated restaurant offering a blend of cafe and restaurant de grillades cuisine.
+Night: Unwind at Patisserie Yakoubi Salah for a sweet treat before retiring to a comfortable hotel for a peaceful night's rest.</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Sefir is a cafe located in Beja, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and snacks. It is open from 6am to midnight every day. The cafe has a rating of 4.4 out of 5 stars on Google Maps, and is located at the coordinates (36.7258944, 9.1873376).
+Restaurant Alfurno, located in Beja (36.7258944, 9.1873376), has a rating of 4.4 and 5 reviews. It operates from 08:00-22:00 and falls under the main category of Restaurant.
+Cafeteria Tej is a cafeteria located in Beja (Tunisia) at the coordinates (36.7297911, 9.316904). It has a rating of 5.0 and is open from 6:00 AM to 12:00 AM, closed on none. No phone number is available but you can reach them via their website.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+Pizzeria 5 fromages is a local, highly-rated pizzeria located in Beja, Tunisia, offering a wide range of pizzas to satisfy your cravings. It can be found on Rue 18 Janvier and has a convenient phone number (27 924 372) for placing orders.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Accessoires Auto Beja is a gas station located in Beja, Tunisia. It is open from 7am to 6pm, except on Sundays. It offers a wide range of automotive accessories and services, making it a convenient destination for vehicle owners in the area. The gas station is located at P5MG+Q59 Accessoires Auto Beja, Beja, and can be contacted at 96 569 983.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4444,12 +6223,62 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Beja located at Beja, 9010. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on . To get there, use these GPS coordinates: 36.8636998, 9.1279876. For more details, visit their website at or call them at 25 940 244.</t>
+          <t>Beja, a cafe located in the heart of Beja, Tunisia, is a popular spot for locals and tourists alike. Known for its cozy atmosphere and friendly staff, Beja offers a variety of coffee and tea drinks, as well as a selection of pastries and snacks. The cafe is also a great place to relax and enjoy the city's atmosphere, with its prime location along the main pedestrian street.</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination with a wide selection of cafes, perfect for cafe enthusiasts in Beja?</t>
+          <t>Day Plan:
+Morning: Explore the historical landmark Ksar Bardo, offering a glimpse into the region's rich past.
+Mid-Morning: Indulge in a delectable culinary experience at Restaurant Vero Gusto Beja, known for its mouthwatering cuisine.
+Midday: Take a guided tour of Jamâa Beja, a museum dedicated to the fascinating history and culture of the city.
+Afternoon: Shop for local souvenirs and handcrafted goods at a bustling market in the city center.
+Evening: Enjoy a relaxing evening admiring the scenic views at a panoramic spot overlooking the city.
+Night: Experience the vibrant nightlife at Cafe Malibou Sahli, known for its cozy ambiance and live music.</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the vibrant city of Beja, Tunisia, Cafe Malibou Sahli welcomes patrons with a cozy ambiance and delectable culinary offerings. Situated conveniently at coordinates (36.7258944, 9.1873376), the cafe is easily accessible. Known for its exceptional coffee and warm hospitality, Cafe Malibou Sahli invites guests to relax and savor their favorite beverages in a comfortable setting.
+Nestled in the heart of Restaurant Vero Gusto Beja, this restaurant tantalizes taste buds with its delectable cuisine. Located at 36.7258944, 9.1873376, it offers a culinary experience that is sure to leave a lasting impression.
+Cafeteria Tej is a cafeteria located in Beja (Tunisia) at the coordinates (36.7297911, 9.316904). It has a rating of 5.0 and is open from 6:00 AM to 12:00 AM, closed on none. No phone number is available but you can reach them via their website.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+Pizzeria 5 fromages is a local, highly-rated pizzeria located in Beja, Tunisia, offering a wide range of pizzas to satisfy your cravings. It can be found on Rue 18 Janvier and has a convenient phone number (27 924 372) for placing orders.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Accessoires Auto Beja is a gas station located in Beja, Tunisia. It is open from 7am to 6pm, except on Sundays. It offers a wide range of automotive accessories and services, making it a convenient destination for vehicle owners in the area. The gas station is located at P5MG+Q59 Accessoires Auto Beja, Beja, and can be contacted at 96 569 983.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4555,12 +6384,62 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a top-rated spot in the Restaurant category, Cha9chek9 is highly recommended. With a rating of 4.2, it's perfect for any Restaurant lover. Located at P5HH+HQ5 Cha9chek9, Beja, it offers a range of experiences to choose from. To get there, follow the GPS coordinates (36.7258944, 9.1873376). Although the phone number and website aren't provided, you can visit the link https://www.africabizinfo.com/TN/cha-chek for more details.</t>
+          <t>Cha9chek9 is a highly rated restaurant located in Beja, Tunisia, at coordinates (36.7258944, 9.1873376). It has received 18 reviews and boasts a 4.2 rating, indicating its popularity among visitors. The restaurant’s main focus is on providing a delightful dining experience.</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>Which top-rated Restaurant in Beja boasts a 4.2 rating and is known for offering a range of experiences?</t>
+          <t>Day Plan:
+Morning: Exploring Ksar Bardo
+Mid-Morning: Trying local cuisine at Twenty Four - 24
+Midday: Visiting Jamâa Beja
+Afternoon: Shopping at Beja Marchandises
+Evening: Enjoying scenic views at Sidi Smail
+Night: Relaxing with a massage at a local spa in your hotel</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Salon de the edallel is a cafe located in Beja. It has a rating of 5.0 and is open from 6:00 AM to 11:00 PM. It is located at the following coordinates: (36.724232476883, 9.187176864723).
+Twenty Four - 24 is a restaurant located in Beja, Tunisia offering 24 hour service. It is highly rated with a 5.0 rating. The restaurant offers delicious food options in a cozy and inviting atmosphere. It is located at the coordinates (36.7258944, 9.1873376).
+Cafeteria Tej is a highly rated café located at (36.7297911, 9.316904) in Beja, Tunisia. It offers a cozy ambiance and a delicious menu, making it a popular spot for locals and tourists alike. With a 5.0 rating from 1 review, Cafeteria Tej is sure to satisfy your craving for a great cup of coffee and a bite to eat.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+Foot &amp; Food is a pizzeria located at Beja, Tunisia. It has received a rating of 4.3 from 3 reviews. It can be contacted at 25 151 987.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+S.G.P Beja is a gas station located in Beja, Tunisia. It offers a wide range of services, including fuel, car wash, and tire repair. The gas station is located at (36.7258944, 9.1873376).
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4666,14 +6545,62 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out mT`m l`rby lswry located at P5FP+C69 mT`m l`rby lswry, Beja. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-18:30, but closed on dimanche. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website or call them at 27 533 582.</t>
+          <t>Located in Beja, mT`m l`rby lswry is a 4.4-star rated restaurant (based on 17 reviews) that operates from 08:00 to 18:30 every day except Sunday. The restaurant's main category is Restaurant and it offers a variety of dishes and services. It is situated at the coordinates (36.7258944, 9.1873376).</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>Where in Beja can you find a highly-rated (4.4) restaurant that offers a delectable variety of cuisines, making it a must-visit destination for dining enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore Ksar Bardo, an ancient fortress offering a glimpse into the region's rich history and culture.
+Mid-Morning: Try local cuisine at Restaurant Darna, known for its family-friendly ambiance and delicious food.
+Midday: Visit Jamâa Beja, a museum dedicated to the history and culture of the city of Beja.
+Afternoon: Enjoy scenic views at Noir &amp; Blanc, a pizzeria with delicious pizzas and friendly service.
+Evening: Participate in a guided tour of AGIL Beja, a gas station offering insights into the local fueling industry.
+Night: Relax with a sundae at Patisserie Yakoubi Salah, a restaurant known for its sweet treats.</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+HK CAFE is a cafe located in Beja, Tunisia. It has a 5.0 rating and offers a variety of food and drinks. The cafe is owned by HK CAFE (proprietaire) and is located at P59Q+WW5 HK CAFE, Beja.
+LE JAGUAR - Beja is a highly-rated restaurant situated in the lively city of Beja. It boasts a prime location at P5CV+279, making it easily accessible to visitors. The restaurant opens daily from 9 AM to 11 PM, except on Saturdays. It specializes in a variety of cuisines, ensuring something to satisfy every palate. LE JAGUAR - Beja is renowned for its exceptional service and welcoming ambiance, making it an ideal destination for both locals and tourists seeking a memorable dining experience.
+Cafe mixte is a cafeteria located in Rue abu kacem echebi, Beja 9000, Tunisia. It offers a cozy atmosphere and a wide variety of beverages and snacks. The cafe is open 24 hours a day, making it a great place to relax and socialize or to get some work done.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Noir &amp; Blanc is a popular pizzeria located in Beja, Tunisia. It has received rave reviews for its delicious pizzas and friendly service. The pizzeria is situated at P5PH+4CV and is open daily.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Nestled in Beja at coordinates (36.7268021, 9.1895103), AGIL Beja is a reputable gas station that caters to your fueling needs 24 hours a day.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4775,12 +6702,62 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out mT`m lbHry located at P5FP+H64 mT`m lbHry, Beja. This top-rated destination is perfect for Restaurant lovers and offers a range of [] to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-18:30, but closed on dimanche. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at  or call them at .</t>
+          <t>mT`m lbHry is a highly-rated restaurant located in Beja, Tunisia. With an average rating of 4.0 out of 11 reviews, this establishment specializes in local cuisine and is particularly popular among locals. It's conveniently located at P5FP+H64, making it easily accessible for visitors and residents alike.</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>Where in Beja can you find a top-rated restaurant destination with a 4.0 rating and a wide selection of dishes, perfect for food enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring Ksar Bardo
+Mid-Morning: Trying local cuisine at LE JAGUAR - Beja
+Midday: Visiting Jamâa Beja
+Afternoon: Enjoying recreational activities at a park or beach
+Evening: Relaxing with a coffee at Cafeteria Tej
+Night: Participating in an event or activity at JOKER CLUB</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Taher is a highly-rated cafe that offers a relaxing ambiance. It is located at the heart of Beja, with coordinates (36.7258944, 9.1873376), making it easily accessible. Cafe Taher is known for its excellent service and delicious coffee, and is a popular spot for locals and tourists alike. With its warm and inviting atmosphere, Cafe Taher is the perfect place to unwind and enjoy a cup of coffee.
+LE JAGUAR - Beja is a highly-rated restaurant situated in the lively city of Beja. It boasts a prime location at P5CV+279, making it easily accessible to visitors. The restaurant opens daily from 9 AM to 11 PM, except on Saturdays. It specializes in a variety of cuisines, ensuring something to satisfy every palate. LE JAGUAR - Beja is renowned for its exceptional service and welcoming ambiance, making it an ideal destination for both locals and tourists seeking a memorable dining experience.
+Cafeteria Tej is a highly rated café located at (36.7297911, 9.316904) in Beja, Tunisia. It offers a cozy ambiance and a delicious menu, making it a popular spot for locals and tourists alike. With a 5.0 rating from 1 review, Cafeteria Tej is sure to satisfy your craving for a great cup of coffee and a bite to eat.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+Foot &amp; Food is a pizzeria located at Beja, Tunisia. It has received a rating of 4.3 from 3 reviews. It can be contacted at 25 151 987.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+bjaoui Key is a gas station located in Beja, Tunisia, at the coordinates (36.7297911, 9.316904). It offers fuel, lubricants, and other automotive services. The station is open from 7:00 AM to 6:00 PM, Monday through Saturday, and is closed on Sundays. bjaoui Key has a rating of 5.0 out of 5 based on 4 reviews.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4886,12 +6863,62 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>Looking for a delightful dining experience in Beja? Head to Patesserie Mozart, located at P5MJ+2G5. This highly-rated restaurant (4.0 out of 5) is a favorite among locals and tourists alike. They offer a mouthwatering menu with a wide range of dishes to choose from. The restaurant is open from 6 AM to 9 PM daily, so you can enjoy a delicious meal whenever you please. For more information, visit their website or give them a call at 92 105 648.</t>
+          <t>Patesserie Mozart is a restaurant located in Beja, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at P5MJ+2G5 Patesserie Mozart, Beja 92 105 648. Its coordinates are 36.7258944, 9.1873376.</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant in Beja that locals and tourists rave about?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortress of Ksar Bardo, offering a glimpse into the region's rich history and culture.
+Mid-Morning: Visit the Jamâa Beja Museum, dedicated to the history and culture of the city of Beja, featuring a collection of artifacts and a library.
+Midday: Try local cuisine at Restaurant Darna, known for its cozy and welcoming ambiance and delicious dining experience.
+Afternoon: Relax with a cup of coffee and a bite to eat at Cafeteria Tej, a highly-rated café with a cozy ambiance.
+Evening: Experience the nightlife at JOKER CLUB, offering a 24/7 service and a lively ambiance for dining and entertainment.
+Night: Enjoy the scenic views at LA CASA, a barbecue restaurant located on the outskirts of Beja, offering a delightful ambiance and delicious food options.</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Soltan, located in Beja, Tunisia, is a highly-rated cafe known for its 24-hour availability. It offers a welcoming atmosphere for locals and visitors alike, attracting positive reviews.
+Restaurant Sidi Maaouia is a renowned restaurant located in HVC8+WRX Restaurant Sidi Maaouia, Rue du Lieutenant Bejaoui, Korba, Tunisia. With a remarkable 5.0 rating and 5 customer reviews, it has garnered widespread acclaim for its exceptional culinary offerings.
+Cafeteria Tej is a highly rated café located at (36.7297911, 9.316904) in Beja, Tunisia. It offers a cozy ambiance and a delicious menu, making it a popular spot for locals and tourists alike. With a 5.0 rating from 1 review, Cafeteria Tej is sure to satisfy your craving for a great cup of coffee and a bite to eat.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+Foot &amp; Food is a pizzeria located at Beja, Tunisia. It has received a rating of 4.3 from 3 reviews. It can be contacted at 25 151 987.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+bjaoui Key is a gas station located in Beja, Tunisia, at the coordinates (36.7297911, 9.316904). It offers fuel, lubricants, and other automotive services. The station is open from 7:00 AM to 6:00 PM, Monday through Saturday, and is closed on Sundays. bjaoui Key has a rating of 5.0 out of 5 based on 4 reviews.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4989,14 +7016,62 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out VOLCANO located at P5PF+2HF VOLCANO. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/VOLCANO/data=!4m7!3m6!1s0x12fb59331117a845:0xc2ddfa257d6471f3!8m2!3d36.7347819!4d9.1750092!16s%2Fg%2F11j03j003q!19sChIJRagXETNZ-xIR83FkfSX63cI?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>VOLCANO is a pizzeria located in Beja, Tunisia (36.7258944, 9.1873376). It has a 4.8 rating based on 9 reviews, and its main category is Pizzeria. VOLCANO is owned by 'VOLCANO (proprietaire)'.</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>What is the top-rated Pizzeria destination with GPS coordinates 36.7258944, 9.1873376 located in Beja, known for its range of Pizzeria options?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortress of Ksar Bardo for a glimpse into Beja's rich history and culture.
+Mid-Morning: Savor a delectable coffee and soak in the cozy ambiance of Cafe Malibou Sahli.
+Midday: Indulge in a traditional Tunisian meal at the highly-rated Restaurant Darna.
+Afternoon: Wander through the vibrant streets of Beja and do some shopping at the local markets.
+Evening: Catch a captivating sunset at the scenic Sidi Smail train station.
+Night: Experience the lively atmosphere and grilled delicacies at JOKER CLUB, a renowned restaurant and grill.</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the vibrant city of Beja, Tunisia, Cafe Malibou Sahli welcomes patrons with a cozy ambiance and delectable culinary offerings. Situated conveniently at coordinates (36.7258944, 9.1873376), the cafe is easily accessible. Known for its exceptional coffee and warm hospitality, Cafe Malibou Sahli invites guests to relax and savor their favorite beverages in a comfortable setting.
+Located in Beja, mT`m l`rby lswry is a 4.4-star rated restaurant (based on 17 reviews) that operates from 08:00 to 18:30 every day except Sunday. The restaurant's main category is Restaurant and it offers a variety of dishes and services. It is situated at the coordinates (36.7258944, 9.1873376).
+Cafe mixte is a cafeteria located in Rue abu kacem echebi, Beja 9000, Tunisia. It offers a cozy atmosphere and a wide variety of beverages and snacks. The cafe is open 24 hours a day, making it a great place to relax and socialize or to get some work done.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Pizzeria 5 fromages is a local, highly-rated pizzeria located in Beja, Tunisia, offering a wide range of pizzas to satisfy your cravings. It can be found on Rue 18 Janvier and has a convenient phone number (27 924 372) for placing orders.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Shell is a gas station located in Beja, Tunisia, at the coordinates (36.7297911, 9.316904). It offers a wide range of services, including fuel, car wash, convenience store, and sandwiches. The gas station is open 24 hours a day, has a rating of 3.7 out of 5, and has received 3 reviews.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5102,14 +7177,62 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out JOKER CLUB located at P697+2FH JOKER CLUB, Beja. 
-This top-rated destination is perfect for Cafe et restaurant de grillades lovers and offers a range of Cafe et restaurant de grillades to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/JOKER+CLUB/data=!4m7!3m6!1s0x12fca7e62b117b7b:0x2795ff971a94e5d3!8m2!3d36.7175602!4d9.2137303!16s%2Fg%2F11j2zw63_j!19sChIJe3sRK-an_BIR0-WUGpf_lSc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 548 806.</t>
+          <t>JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>What is the name and location of a highly recommended spot in Beja known for its excellent Cafe et restaurant de grillades and 24-hour availability?</t>
+          <t>Day Plan:
+Morning: Exploring Ksar Bardo, an ancient fortress with rich historical significance.
+Mid-Morning: Trying local cuisine at Cha9chek9 restaurant, known for its delightful dining experience and high ratings.
+Midday: Visiting Sidi Smail, a train station offering featured offers and providing a glimpse into the local transportation system.
+Afternoon: Enjoying the scenic views at JOKER CLUB, a 4.7-star cafe and grill with a friendly atmosphere and delicious food.
+Evening: Participating in a guided tour of Jamâa Beja, a museum dedicated to showcasing the city's history and culture.
+Night: Relaxing with a sundae at Patisserie Yakoubi Salah, a restaurant specializing in delicious sundaes and featuring a 4.0 Google rating.</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+ALTA CAFFE is a cozy cafe located in Sidi Thabet, Tunisia. It serves as both a cafe and a fabricant. The cafe offers a wide range of beverages, including coffee, tea, and juices. It's nestled in the heart of Beja, close to many attractions. The cafe's prime location makes it a convenient choice for locals and tourists alike.
+Cha9chek9 is a highly rated restaurant located in Beja, Tunisia, at coordinates (36.7258944, 9.1873376). It has received 18 reviews and boasts a 4.2 rating, indicating its popularity among visitors. The restaurant’s main focus is on providing a delightful dining experience.
+Cafeteria Tej is a cafeteria located in Beja (Tunisia) at the coordinates (36.7297911, 9.316904). It has a rating of 5.0 and is open from 6:00 AM to 12:00 AM, closed on none. No phone number is available but you can reach them via their website.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Foot &amp; Food is a pizzeria located at Beja, Tunisia. It has received a rating of 4.3 from 3 reviews. It can be contacted at 25 151 987.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+bjaoui Key is a gas station located in Beja, Tunisia, at the coordinates (36.7297911, 9.316904). It offers fuel, lubricants, and other automotive services. The station is open from 7:00 AM to 6:00 PM, Monday through Saturday, and is closed on Sundays. bjaoui Key has a rating of 5.0 out of 5 based on 4 reviews.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5207,12 +7330,62 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>If you're in Beja and looking for a family-friendly dining experience, check out Restaurant Darna. This top-rated destination serves up delicious food and offers a cozy atmosphere. With a rating of 4.4, it's a must-visit spot. Visit their website at https://www.google.com/maps/place/Restaurant+Darna/data=!4m7!3m6!1s0x12fb590e071471f1:0xd8ee6f920e717ee1!8m2!3d36.7268575!4d9.1713682!16s%2Fg%2F11kb5gfq7d!19sChIJ8XEUBw5Z-xIR4X5xDpJv7tg?authuser=0&amp;hl=fr&amp;rclk=1 for more details.</t>
+          <t>Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>In Beja, where can you find a cozy and family-friendly dining experience with high ratings?</t>
+          <t>Day Plan:
+Morning: Exploring Ksar Bardo, an ancient fortress with rich historical significance.
+Mid-Morning: Trying local cuisine at Restaurant Darna, known for its family-friendly ambiance and delicious menu.
+Midday: Visiting Jamâa Beja, a museum dedicated to the history and culture of the city.
+Afternoon: Enjoying a cup of coffee and snacks at Cafeteria Tej, a highly-rated café with a cozy ambiance.
+Evening: Shopping for souvenirs and local products at Beja Marchandises, a transportation services company that also offers convenient public transportation.
+Night: Relishing a barbecue dinner at LA CASA, a highly-rated barbecue restaurant with a cozy atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Beja is a highly-rated café located in Beja, Tunisia, at the coordinates (36.8636998, 9.1279876). With an impressive 4.5-star rating based on 47 reviews, Beja is open 24 hours a day and is known for its cozy ambiance. It is a popular destination for coffee enthusiasts and offers a range of beverages and snacks to cater to various tastes. Its prime location makes it easily accessible to locals and visitors alike.
+In the heart of Beja, Let's Eat is a welcoming restaurant with a rating of 5 stars. It specializes in a wide variety of dishes, and is located at the coordinates (36.7258944, 9.1873376). The restaurant's opening hours are from 10:00 to 22:00 and is contactable by phone at 31 113 883. Experience the delectable cuisine of Let's Eat today!
+Cafeteria Tej is a highly rated café located at (36.7297911, 9.316904) in Beja, Tunisia. It offers a cozy ambiance and a delicious menu, making it a popular spot for locals and tourists alike. With a 5.0 rating from 1 review, Cafeteria Tej is sure to satisfy your craving for a great cup of coffee and a bite to eat.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+Noir &amp; Blanc is a popular pizzeria located in Beja, Tunisia. It has received rave reviews for its delicious pizzas and friendly service. The pizzeria is situated at P5PH+4CV and is open daily.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Staroil Beja Ceinture is a gas station located in Beja, Tunisia. It offers a wide range of services, including fuel, car wash and tire repair. The gas station is open 24 hours a day, 7 days a week. The staff is friendly and helpful, and they are always willing to go the extra mile to make sure that customers are satisfied.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5314,14 +7487,62 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Restaurant Alfurno located at P59Q+RWG Restaurant Alfurno. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on . To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Alfurno/data=!4m7!3m6!1s0x12fb58827ff82497:0xd81ae7e7256267ac!8m2!3d36.7195636!4d9.1898296!16s%2Fg%2F11c7vkd4j3!19sChIJlyT4f4JY-xIRrGdiJefnGtg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Restaurant Alfurno, located in Beja (36.7258944, 9.1873376), has a rating of 4.4 and 5 reviews. It operates from 08:00-22:00 and falls under the main category of Restaurant.</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant with GPS coordinates 36.7258944, 9.1873376 that caters to Restaurant enthusiasts in the Beja area?</t>
+          <t>Day Plan:
+Morning: Exploring Ksar Bardo, an ancient fortress offering insights into the region's rich history and culture.
+Mid-Morning: Enjoying scenic views at LA CASA, a barbecue restaurant with a 5.0 rating and stunning views.
+Midday: Trying local cuisine at Restaurant Darna, a family-friendly restaurant with a cozy ambiance and a 4.4-star rating.
+Afternoon: Visiting Jamâa Beja, a museum dedicated to the history and culture of Beja.
+Evening: Engaging in outdoor activities like hiking or biking at the picturesque Beja National Park.
+Night: Relaxing with a traditional hammam experience at a local spa or hotel.</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Swiing is a cafe located in Beja (36.7258944, 9.1873376) with an average rating of 5.0. Although it has only 2 reviews, it ranks as one of the best cafes in the area.
+Nestled in the heart of Restaurant Vero Gusto Beja, this restaurant tantalizes taste buds with its delectable cuisine. Located at 36.7258944, 9.1873376, it offers a culinary experience that is sure to leave a lasting impression.
+Cafeteria Tej is a cafeteria located in Beja (Tunisia) at the coordinates (36.7297911, 9.316904). It has a rating of 5.0 and is open from 6:00 AM to 12:00 AM, closed on none. No phone number is available but you can reach them via their website.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+Foot &amp; Food is a pizzeria located at Beja, Tunisia. It has received a rating of 4.3 from 3 reviews. It can be contacted at 25 151 987.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+S.G.P Beja is a gas station located in Beja, Tunisia. It offers a wide range of services, including fuel, car wash, and tire repair. The gas station is located at (36.7258944, 9.1873376).
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5415,12 +7636,62 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you're in Beja and looking for a top-rated restaurant, Monya mlewi is the perfect spot. Located at P6C2+J5F Monya mlewi, Unnamed Road, Beja, this highly-rated destination has a 4.0 rating and offers a range of dining options.</t>
+          <t>**Monya mlewi** is a 4.0-rated restaurant in Monya mlewi, Tunisia. It specializes in Tunisian cuisine and offers a variety of dishes like couscous, tajines, and kebabs. The restaurant is located at (36.7258944, 9.1873376) and is open 7 days a week.</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>Where in Beja can you find Monya mlewi, a 4.0-rated restaurant with a variety of dining options?</t>
+          <t>Day Plan:
+Morning: Explore Ksar Bardo, an ancient fortress offering a glimpse into the region's past.
+Mid-Morning: Indulge in local cuisine at Restaurant Darna, known for its warm ambiance and delicious food.
+Midday: Visit Jamâa Beja, a museum dedicated to the city's history and culture.
+Afternoon: Take a guided tour of Louage Station Beja-Jendouba, a moving company that provides insights into the local transportation industry.
+Evening: Shop for souvenirs and local products at Beja Marchandises, a transportation hub offering a range of shopping options.
+Night: Relax and rejuvenate with a traditional hammam experience at a local spa.</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe El guebsi is a cafe located at Av. Farhat Hached, Beja, Tunisia. It is open 24 hours a day and offers a variety of items. The cafe has a rating of 5.0 out of 5 and has received 1 review.
+Located in Beja, mT`m l`rby lswry is a 4.4-star rated restaurant (based on 17 reviews) that operates from 08:00 to 18:30 every day except Sunday. The restaurant's main category is Restaurant and it offers a variety of dishes and services. It is situated at the coordinates (36.7258944, 9.1873376).
+Cafe mixte is a cafeteria located in Rue abu kacem echebi, Beja 9000, Tunisia. It offers a cozy atmosphere and a wide variety of beverages and snacks. The cafe is open 24 hours a day, making it a great place to relax and socialize or to get some work done.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+Pizzeria 5 fromages is a local, highly-rated pizzeria located in Beja, Tunisia, offering a wide range of pizzas to satisfy your cravings. It can be found on Rue 18 Janvier and has a convenient phone number (27 924 372) for placing orders.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Shell is a gas station located in Beja, Tunisia, at the coordinates (36.7297911, 9.316904). It offers a wide range of services, including fuel, car wash, convenience store, and sandwiches. The gas station is open 24 hours a day, has a rating of 3.7 out of 5, and has received 3 reviews.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5518,12 +7789,62 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you are in beja and looking for a  Restaurant, check out Pizza Big Smile located at P5PF+GHM Pizza Big Smile, Beja. This top-rated location has a 4.0 rating and is open during regular hours. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website  or call them at 25 999 235.</t>
+          <t>Pizza Big Smile is a well-rated restaurant in Beja, Tunisia, with 4.0 stars out of 5 based on 5 reviews. Its main category is Restaurant and it is located at the coordinates (36.7258944, 9.1873376). Unfortunately, there is no additional information available about its menu or ambiance.</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Restaurant with GPS coordinates 36.7258944, 9.1873376 in Beja?</t>
+          <t>Day Plan:
+Morning: Explore historic Ksar Bardo, an ancient fortress offering a glimpse into the region's rich history.
+Mid-Morning: Immerse yourself in the local culture at Jamaa Beja, a museum dedicated to the history and culture of the city.
+Midday: Savour authentic Tunisian cuisine at Restaurant Darna, known for its family-friendly ambience and delicious dishes.
+Afternoon: Try local delicacies like the famous pizzas at Pizzeria 5 fromages or enjoy the highly-rated fast food offerings at Mlewi sidi fraj.
+Evening: Shop for souvenirs and local goods at Beja Marchandises, a transportation hub that also offers a range of retail options.
+Night: Experience the vibrant atmosphere and local flavours at JOKER CLUB, a highly-rated cafe and restaurant de grillades offering a 24/7 service.</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in the heart of Beja (36.7258944, 9.1873376), Café Bonbonera is a cozy spot that offers a wide selection of coffee and tea drinks. With a 4.8 rating, it operates from 6:00 am to 11:00 pm daily, giving you ample time to enjoy your favorite beverages. Their featured image showcases a warm and inviting ambiance, promising a pleasant experience.
+Patesserie Mozart is a restaurant located in Beja, Tunisia. It operates daily from 6:00 AM to 9:00 PM. Patisserie Mozart offers various food options and accepts reservations. Patesserie Mozart has received 4.0 ratings from many customers.
+Cafe mixte is a cafeteria located in Rue abu kacem echebi, Beja 9000, Tunisia. It offers a cozy atmosphere and a wide variety of beverages and snacks. The cafe is open 24 hours a day, making it a great place to relax and socialize or to get some work done.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+Pizzeria 5 fromages is a local, highly-rated pizzeria located in Beja, Tunisia, offering a wide range of pizzas to satisfy your cravings. It can be found on Rue 18 Janvier and has a convenient phone number (27 924 372) for placing orders.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+bjaoui Key is a gas station located in Beja, Tunisia, at the coordinates (36.7297911, 9.316904). It offers fuel, lubricants, and other automotive services. The station is open from 7:00 AM to 6:00 PM, Monday through Saturday, and is closed on Sundays. bjaoui Key has a rating of 5.0 out of 5 based on 4 reviews.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5633,12 +7954,62 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in Beja and looking for a top-rated restaurant, check out LE JAGUAR - Beja located at P5CV+279 LE JAGUAR - Beja, Beja. This must-visit spot is perfect for Restaurant lovers and has a rating of 4.8. It's open during these hours: 09:00-23:00, but closed on samedi. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.facebook.com/Le-Jaguar-100223122704513/ or call them at 29 796 805.</t>
+          <t>LE JAGUAR - Beja is a highly-rated restaurant situated in the lively city of Beja. It boasts a prime location at P5CV+279, making it easily accessible to visitors. The restaurant opens daily from 9 AM to 11 PM, except on Saturdays. It specializes in a variety of cuisines, ensuring something to satisfy every palate. LE JAGUAR - Beja is renowned for its exceptional service and welcoming ambiance, making it an ideal destination for both locals and tourists seeking a memorable dining experience.</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>What is a highly rated restaurant in Beja with a rating of 4.8, located at the coordinates 36.7258944, 9.1873376?</t>
+          <t>Day Plan:
+Morning: Exploring Ksar Bardo fortress
+Mid-Morning: Experiencing cultural immersion at Musée Jamâa Beja
+Midday: Trying local cuisine at Restaurant Darna
+Afternoon: Participating in a guided tour of Ksar Bardo fortress
+Evening: Enjoying scenic views at LA CASA
+Night: Relaxing with JOKER CLUB ambient</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Swiing is a cafe located in Beja (36.7258944, 9.1873376) with an average rating of 5.0. Although it has only 2 reviews, it ranks as one of the best cafes in the area.
+Pizza Big Smile is a well-rated restaurant in Beja, Tunisia, with 4.0 stars out of 5 based on 5 reviews. Its main category is Restaurant and it is located at the coordinates (36.7258944, 9.1873376). Unfortunately, there is no additional information available about its menu or ambiance.
+Cafeteria Tej is a highly rated café located at (36.7297911, 9.316904) in Beja, Tunisia. It offers a cozy ambiance and a delicious menu, making it a popular spot for locals and tourists alike. With a 5.0 rating from 1 review, Cafeteria Tej is sure to satisfy your craving for a great cup of coffee and a bite to eat.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Noir &amp; Blanc is a popular pizzeria located in Beja, Tunisia. It has received rave reviews for its delicious pizzas and friendly service. The pizzeria is situated at P5PH+4CV and is open daily.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Accessoires Auto Beja is a gas station located in Beja, Tunisia. It is open from 7am to 6pm, except on Sundays. It offers a wide range of automotive accessories and services, making it a convenient destination for vehicle owners in the area. The gas station is located at P5MG+Q59 Accessoires Auto Beja, Beja, and can be contacted at 96 569 983.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5732,13 +8103,62 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a great Pizzeria, check out Foot &amp; Food located at P5MM+8QF Foot &amp; Food, Beja. This top-rated destination offers a range of categories to choose from, with a rating of 4.3. To get there, use these GPS coordinates: nan, nan. For more details, visit their website 
-at https://www.google.com/maps/place/Foot+%26+Food/data=!4m7!3m6!1s0x12fb587c00000001:0xa57a28a6f9e50ffe!8m2!3d36.7333148!4d9.1844357!16s%2Fg%2F11hbg8fnvf!19sChIJAQAAAHxY-xIR_g_l-aYoeqU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 151 987.</t>
+          <t>Foot &amp; Food is a pizzeria located at Beja, Tunisia. It has received a rating of 4.3 from 3 reviews. It can be contacted at 25 151 987.</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Pizzeria with a diverse menu and GPS coordinates in Beja?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortress Ksar Bardo to immerse yourself in the region's history.
+Mid-Morning: Visit Jamâa Beja, a museum dedicated to the city's captivating history and culture.
+Midday: Delight in the local cuisine at Restaurant Darna, known for its warm ambiance and delicious food.
+Afternoon: Take a relaxing break at Cafe Malibou Sahli, savoring the exceptional coffee and cozy atmosphere.
+Evening: Explore the bustling streets of Beja, enjoying the vibrant city life and shopping for souvenirs.
+Night: Experience the lively atmosphere at JOKER CLUB, a popular spot for locals and tourists alike.</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the vibrant city of Beja, Tunisia, Cafe Malibou Sahli welcomes patrons with a cozy ambiance and delectable culinary offerings. Situated conveniently at coordinates (36.7258944, 9.1873376), the cafe is easily accessible. Known for its exceptional coffee and warm hospitality, Cafe Malibou Sahli invites guests to relax and savor their favorite beverages in a comfortable setting.
+Cha9chek9 is a highly rated restaurant located in Beja, Tunisia, at coordinates (36.7258944, 9.1873376). It has received 18 reviews and boasts a 4.2 rating, indicating its popularity among visitors. The restaurant’s main focus is on providing a delightful dining experience.
+Cafe mixte is a cafeteria located in Rue abu kacem echebi, Beja 9000, Tunisia. It offers a cozy atmosphere and a wide variety of beverages and snacks. The cafe is open 24 hours a day, making it a great place to relax and socialize or to get some work done.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Noir &amp; Blanc is a popular pizzeria located in Beja, Tunisia. It has received rave reviews for its delicious pizzas and friendly service. The pizzeria is situated at P5PH+4CV and is open daily.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+TOTAL - BEJA twtl is a gas station located in Beja with the coordinates (57.399241687718, 27.202526555184). TOTAL - BEJA twtl offers various services and products related to gas and fuel.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5836,12 +8256,62 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a top-rated restaurant, Restaurant Kais is a must-visit spot. This destination is perfect for restaurant lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's located at P5FP+2W5 Restaurant Kais, Beja. To get there, use these GPS coordinates: 38.0295696, 23.7092307.</t>
+          <t>Restaurant Kais is a highly-rated restaurant located in Beja, Tunisia, with a 5.0 rating based on 3 reviews. While no detailed description is provided, it is listed as a restaurant with a featured image showcasing its establishment. Unfortunately, there is limited information regarding its menu, amenities, or contact details.</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>What is the top-rated restaurant in Beja with a rating of 5.0 and conveniently located at P5FP+2W5?</t>
+          <t>Day Plan:
+Morning: Explore the historic Ksar Bardo, a 4.0-rated ancient fortress offering a glimpse into the rich history and culture of the region.
+Mid-Morning: Visit the Jamâa Beja museum to delve into the captivating history and culture of the city, showcasing artifacts from prehistoric eras to Islamic coins.
+Midday: Savor the authentic flavors of Tunisia at Let's Eat, a 5-star restaurant that delights with its diverse menu and warm ambiance.
+Afternoon: Indulge in a rejuvenating workout session at King gym, renowned for its experienced staff and range of services to support your fitness goals.
+Evening: Experience a vibrant atmosphere at JOKER CLUB, a 4.7-star cafe and grill that offers delectable cuisine, refreshing drinks, and a lively ambiance popular among locals and tourists alike.
+Night: Unwind and relax in the comfortable confines of your hotel spa, treating yourself to a soothing massage or facial to rejuvenate for the next day's adventures.</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Cesar is a cafe located in Beja, Tunisia. It is rated 4.0 stars on Google and has 2 reviews. The cafe offers a variety of food and drinks, and is open 7 days a week. It is located at the coordinates (36.7258944, 9.1873376).
+In the heart of Beja, Let's Eat is a welcoming restaurant with a rating of 5 stars. It specializes in a wide variety of dishes, and is located at the coordinates (36.7258944, 9.1873376). The restaurant's opening hours are from 10:00 to 22:00 and is contactable by phone at 31 113 883. Experience the delectable cuisine of Let's Eat today!
+Cafe mixte is a cafeteria located in Rue abu kacem echebi, Beja 9000, Tunisia. It offers a cozy atmosphere and a wide variety of beverages and snacks. The cafe is open 24 hours a day, making it a great place to relax and socialize or to get some work done.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+VOLCANO is a pizzeria located in Beja, Tunisia (36.7258944, 9.1873376). It has a 4.8 rating based on 9 reviews, and its main category is Pizzeria. VOLCANO is owned by 'VOLCANO (proprietaire)'.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Staroil Beja Ceinture is a gas station located in Beja, Tunisia. It offers a wide range of services, including fuel, car wash and tire repair. The gas station is open 24 hours a day, 7 days a week. The staff is friendly and helpful, and they are always willing to go the extra mile to make sure that customers are satisfied.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5935,12 +8405,62 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Noir &amp; Blanc located at P5PH+4CV Noir &amp; Blanc, Beja. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: nan, nan. For more details, visit their website at https://www.google.com/maps/place/Noir+%26+Blanc/data=!4m7!3m6!1s0x12fb59d06a2c3221:0x2bcd0d8ee0484537!8m2!3d36.7353677!4d9.1785493!16s%2Fg%2F11ll279xvj!19sChIJITIsatBZ-xIRN0VI4I4NzSs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 96 109 550.</t>
+          <t>Noir &amp; Blanc is a popular pizzeria located in Beja, Tunisia. It has received rave reviews for its delicious pizzas and friendly service. The pizzeria is situated at P5PH+4CV and is open daily.</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>What is the top-rated Pizzeria spot located at P5PH+4CV Noir &amp; Blanc, Beja with a perfect rating of 5.0?</t>
+          <t>Day Plan:
+Morning: Exploring Oxford cafe
+Mid-Morning: Trying local cuisine at Restaurant Alfurno
+Midday: Visiting Ksar Bardo
+Afternoon: Enjoying the art at Jamâa Beja
+Evening: Relaxing with a massage at King gym
+Night: Enjoying the nightlife at JOKER CLUB</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Oxford cafe is a cafe located in Beja, Tunisia. It offers a variety of food and drinks, and is a popular spot for locals and tourists alike. The cafe is located at 36.7258944, 9.1873376 and is open from 8am to 10pm, 7 days a week.
+Restaurant Alfurno, located in Beja (36.7258944, 9.1873376), has a rating of 4.4 and 5 reviews. It operates from 08:00-22:00 and falls under the main category of Restaurant.
+Cafeteria Tej is a cafeteria located in Beja (Tunisia) at the coordinates (36.7297911, 9.316904). It has a rating of 5.0 and is open from 6:00 AM to 12:00 AM, closed on none. No phone number is available but you can reach them via their website.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Pizzeria 5 fromages is a local, highly-rated pizzeria located in Beja, Tunisia, offering a wide range of pizzas to satisfy your cravings. It can be found on Rue 18 Janvier and has a convenient phone number (27 924 372) for placing orders.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Accessoires Auto Beja is a gas station located in Beja, Tunisia. It is open from 7am to 6pm, except on Sundays. It offers a wide range of automotive accessories and services, making it a convenient destination for vehicle owners in the area. The gas station is located at P5MG+Q59 Accessoires Auto Beja, Beja, and can be contacted at 96 569 983.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6042,12 +8562,62 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a top-rated Restaurant de sundae, check out Patisserie Yakoubi Salah located at P5FP+996 Patisserie Yakoubi Salah, Avenue Habib Bourguiba, Beja. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-12:00, but closed on []. To get there, use these GPS coordinates: 36.715723662625, 9.179695197507. For more details, call them at 78 453 023.</t>
+          <t>Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>What is the highly-rated Restaurant de sundae located on Avenue Habib Bourguiba in Beja that boasts a rating of 4.0?</t>
+          <t>Day Plan:
+Morning: Exploring the ancient Ksar Bardo fortress to discover the region's rich history and culture.
+Mid-Morning: Trying local cuisine at Restaurant Darna for a cozy and welcoming dining experience.
+Midday: Visiting Jamâa Beja museum to delve into the history and culture of Beja city.
+Afternoon: Relaxing with a refreshing drink at Oxford cafe, a popular spot among locals and tourists.
+Evening: Enjoying a delicious barbecue dinner at LA CASA, a highly-rated restaurant with a scenic ambiance.
+Night: Participating in a traditional cultural event at JOKER CLUB, a cafe-grill known for its friendly atmosphere and live entertainment.</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Oxford cafe is a cafe located in Beja, Tunisia. It offers a variety of food and drinks, and is a popular spot for locals and tourists alike. The cafe is located at 36.7258944, 9.1873376 and is open from 8am to 10pm, 7 days a week.
+Cha9chek9 is a highly rated restaurant located in Beja, Tunisia, at coordinates (36.7258944, 9.1873376). It has received 18 reviews and boasts a 4.2 rating, indicating its popularity among visitors. The restaurant’s main focus is on providing a delightful dining experience.
+Cafeteria Tej is a highly rated café located at (36.7297911, 9.316904) in Beja, Tunisia. It offers a cozy ambiance and a delicious menu, making it a popular spot for locals and tourists alike. With a 5.0 rating from 1 review, Cafeteria Tej is sure to satisfy your craving for a great cup of coffee and a bite to eat.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Foot &amp; Food is a pizzeria located at Beja, Tunisia. It has received a rating of 4.3 from 3 reviews. It can be contacted at 25 151 987.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Staroil Beja Ceinture is a gas station located in Beja, Tunisia. It offers a wide range of services, including fuel, car wash and tire repair. The gas station is open 24 hours a day, 7 days a week. The staff is friendly and helpful, and they are always willing to go the extra mile to make sure that customers are satisfied.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6145,12 +8715,62 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a great Restaurant, check out Twenty Four - 24 (Beja) located at P6C2+M94 Twenty Four - 24 (Beja), Beja. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/Twenty+Four+-+24+%28Beja%29/data=!4m7!3m6!1s0x12fca7d2bbfde60b:0x2a27a4c7cea0d7fd!8m2!3d36.7217411!4d9.2010193!16s%2Fg%2F11sy_d5mnm!19sChIJC-b9u9Kn_BIR_degzsekJyo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Twenty Four - 24 is a restaurant located in Beja, Tunisia offering 24 hour service. It is highly rated with a 5.0 rating. The restaurant offers delicious food options in a cozy and inviting atmosphere. It is located at the coordinates (36.7258944, 9.1873376).</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>Where in Beja can you find a highly-rated restaurant with 24-hour availability and a wide selection of categories?</t>
+          <t>Day Plan:
+Morning: Exploring the ancient fortress of Ksar Bardo. Its rich history and stunning architecture will transport you back in time.
+Mid-Morning: Trying local cuisine at Restaurant Darna. Immerse your taste buds in authentic Tunisian flavors and enjoy a cozy and welcoming ambiance.
+Midday: Experiencing cultural immersion at Jamâa Beja. Dive into the history and culture of Beja through its collection of artifacts and library.
+Afternoon: Enjoying scenic views at JOKER CLUB. Overlooking the vibrant city, indulge in delicious food and drinks while enjoying the lively atmosphere.
+Evening: Participating in an event at Louage Station Beja-Jendouba. Join a local event showcasing Tunisian traditions and culture, such as traditional music or dance performances.
+Night: Relaxing with a sunset stroll by the coast. Feel the cool sea breeze and let the picturesque sunset wash away all worries as you end your day on a peaceful note.</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Given these locations:
+ALTA CAFFE is a cozy cafe located in Sidi Thabet, Tunisia. It serves as both a cafe and a fabricant. The cafe offers a wide range of beverages, including coffee, tea, and juices. It's nestled in the heart of Beja, close to many attractions. The cafe's prime location makes it a convenient choice for locals and tourists alike.
+**Monya mlewi** is a 4.0-rated restaurant in Monya mlewi, Tunisia. It specializes in Tunisian cuisine and offers a variety of dishes like couscous, tajines, and kebabs. The restaurant is located at (36.7258944, 9.1873376) and is open 7 days a week.
+Cafeteria Tej is a cafeteria located in Beja (Tunisia) at the coordinates (36.7297911, 9.316904). It has a rating of 5.0 and is open from 6:00 AM to 12:00 AM, closed on none. No phone number is available but you can reach them via their website.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+VOLCANO is a pizzeria located in Beja, Tunisia (36.7258944, 9.1873376). It has a 4.8 rating based on 9 reviews, and its main category is Pizzeria. VOLCANO is owned by 'VOLCANO (proprietaire)'.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+**Hamia Mecancien** is a gas station ideally located in the region of Beja, Tunisia. The gas station is easily accessible with coordinates (36.7258944, 9.1873376), positioned along the Unnamed Road in P5QJ+87J, Hamia Mecancien. The gas station caters to customer needs from 08:00 AM to 06:00 PM on weekdays, but remains closed on Sundays.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6252,14 +8872,62 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Let's Eat located at P5HX+CJ8. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:00-22:00. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/Let%E2%80%99s+Eat/data=!4m7!3m6!1s0x12fca7a8aa656577:0x29bd4b62058ae269!8m2!3d36.7279403!4d9.1995578!16s%2Fg%2F11rkm6bjmc!19sChIJd2Vlqqin_BIRaeKKBWJLvSk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 31 113 883.</t>
+          <t>In the heart of Beja, Let's Eat is a welcoming restaurant with a rating of 5 stars. It specializes in a wide variety of dishes, and is located at the coordinates (36.7258944, 9.1873376). The restaurant's opening hours are from 10:00 to 22:00 and is contactable by phone at 31 113 883. Experience the delectable cuisine of Let's Eat today!</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>Where in Beja can you find a highly rated dining destination with a range of options, perfect for Restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring Ksar Bardo, an ancient fortress with rich historical significance.
+Mid-Morning: Trying local cuisine at Restaurant Darna, known for its cozy ambiance and delicious meals.
+Midday: Visiting Jamâa Beja, a museum dedicated to the city's history and showcasing its cultural heritage.
+Afternoon: Enjoying a scenic stroll through the picturesque Beja Marchandises, offering convenient transportation options.
+Evening: Experiencing cultural immersion at Sidi Smail, the bustling train station, and engaging with locals.
+Night: Relaxing with a soothing massage at a spa or hotel, unwinding after a day of exploration.</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in the heart of Beja (36.7258944, 9.1873376), Café Bonbonera is a cozy spot that offers a wide selection of coffee and tea drinks. With a 4.8 rating, it operates from 6:00 am to 11:00 pm daily, giving you ample time to enjoy your favorite beverages. Their featured image showcases a warm and inviting ambiance, promising a pleasant experience.
+Patesserie Mozart is a restaurant located in Beja, Tunisia. It operates daily from 6:00 AM to 9:00 PM. Patisserie Mozart offers various food options and accepts reservations. Patesserie Mozart has received 4.0 ratings from many customers.
+Cafeteria Tej is a cafeteria located in Beja (Tunisia) at the coordinates (36.7297911, 9.316904). It has a rating of 5.0 and is open from 6:00 AM to 12:00 AM, closed on none. No phone number is available but you can reach them via their website.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+VOLCANO is a pizzeria located in Beja, Tunisia (36.7258944, 9.1873376). It has a 4.8 rating based on 9 reviews, and its main category is Pizzeria. VOLCANO is owned by 'VOLCANO (proprietaire)'.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+**Lavage ben hamouda** is a gas station located in Sousse, Tunisia, at the coordinates (35.846650457545, 10.582875756788). It offers gas, car wash, and other services to its customers. The gas station is open 24 hours a day and has a 4.3 rating on Google Maps.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6353,12 +9021,62 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Restaurant Vero Gusto Beja located at Rue Ibn Khaldoune, Beja. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Vero+Gusto+Beja/data=!4m7!3m6!1s0x12fca7af5ccb7ce7:0x7fd068ed59a0885e!8m2!3d36.718825!4d9.1919583!16s%2Fg%2F11gvplvjxs!19sChIJ53zLXK-n_BIRXoigWe1o0H8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Nestled in the heart of Restaurant Vero Gusto Beja, this restaurant tantalizes taste buds with its delectable cuisine. Located at 36.7258944, 9.1873376, it offers a culinary experience that is sure to leave a lasting impression.</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant called Restaurant Vero Gusto Beja in Beja?</t>
+          <t>Day Plan:
+Morning: Exploring Ksar Bardo, an ancient fortress offering a glimpse into Beja's rich history (9:00 AM - 11:00 AM)
+Mid-Morning: Visiting Jamâa Beja Museum to learn about the city's history and culture (11:00 AM - 12:30 PM)
+Midday: Trying local cuisine at Restaurant Sidi Maaouia with exceptional culinary offerings (1:00 PM - 3:00 PM)
+Afternoon: Experiencing cultural immersion at King gym for a workout (3:30 PM - 5:00 PM)
+Evening: Relaxing at JOKER CLUB for a delightful dinner and refreshing beverages (6:00 PM - 8:30 PM)
+Night: Enjoying scenic views at LA CASA, a barbecue restaurant with stunning ambiance (9:00 PM - 11:00 PM)</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in the heart of Beja (36.7258944, 9.1873376), Café Bonbonera is a cozy spot that offers a wide selection of coffee and tea drinks. With a 4.8 rating, it operates from 6:00 am to 11:00 pm daily, giving you ample time to enjoy your favorite beverages. Their featured image showcases a warm and inviting ambiance, promising a pleasant experience.
+Restaurant Sidi Maaouia is a renowned restaurant located in HVC8+WRX Restaurant Sidi Maaouia, Rue du Lieutenant Bejaoui, Korba, Tunisia. With a remarkable 5.0 rating and 5 customer reviews, it has garnered widespread acclaim for its exceptional culinary offerings.
+Cafeteria Tej is a highly rated café located at (36.7297911, 9.316904) in Beja, Tunisia. It offers a cozy ambiance and a delicious menu, making it a popular spot for locals and tourists alike. With a 5.0 rating from 1 review, Cafeteria Tej is sure to satisfy your craving for a great cup of coffee and a bite to eat.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+VOLCANO is a pizzeria located in Beja, Tunisia (36.7258944, 9.1873376). It has a 4.8 rating based on 9 reviews, and its main category is Pizzeria. VOLCANO is owned by 'VOLCANO (proprietaire)'.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+TOTAL - BEJA twtl is a gas station located in Beja with the coordinates (57.399241687718, 27.202526555184). TOTAL - BEJA twtl offers various services and products related to gas and fuel.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6464,12 +9182,62 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Cafeteria Tej located at Cafeteria Tej, nhj Gn `dd 2, Beja 9000. This top-rated destination is perfect for Cafeteria lovers and offers a range of Cafeteria to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.7297911, 9.316904. For more details, call them at 54 477 657.</t>
+          <t>Cafeteria Tej is a highly rated café located at (36.7297911, 9.316904) in Beja, Tunisia. It offers a cozy ambiance and a delicious menu, making it a popular spot for locals and tourists alike. With a 5.0 rating from 1 review, Cafeteria Tej is sure to satisfy your craving for a great cup of coffee and a bite to eat.</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Cafeteria with a 5.0 rating and a wide selection of Cafeteria options in Beja?</t>
+          <t>Day Plan:
+Morning: Visiting Ksar Bardo to explore its historical significance and immerse in the region's rich culture.
+Mid-Morning: Take a guided tour of Jamâa Beja to learn about the city's history through its collection of artifacts, pottery, and coins.
+Midday: Try local cuisine at Restaurant Darna, known for its cozy ambiance and delicious food.
+Afternoon: Enjoy a scenic walk through Beja's streets, admiring the vibrant local culture and architecture.
+Evening: Head to JOKER CLUB for a delightful dinner, savoring the authentic flavors of Tunisian cuisine.
+Night: Relax and rejuvenate with a traditional Hammam experience at a local spa.</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe El guebsi is a cafe located at Av. Farhat Hached, Beja, Tunisia. It is open 24 hours a day and offers a variety of items. The cafe has a rating of 5.0 out of 5 and has received 1 review.
+Pizza Big Smile is a well-rated restaurant in Beja, Tunisia, with 4.0 stars out of 5 based on 5 reviews. Its main category is Restaurant and it is located at the coordinates (36.7258944, 9.1873376). Unfortunately, there is no additional information available about its menu or ambiance.
+Cafe Mixte is a cafeteria located on Rue Abu Kacem Echebi in Beja, Tunisia. It has a rating of 5.0 out of 5 based on one review. The cafe is open 24 hours a day and offers a variety of food and drinks. Its coordinates are 36.719729832883, 9.195428235701.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+Foot &amp; Food is a pizzeria located at Beja, Tunisia. It has received a rating of 4.3 from 3 reviews. It can be contacted at 25 151 987.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+bjaoui Key is a gas station located in Beja, Tunisia, at the coordinates (36.7297911, 9.316904). It offers fuel, lubricants, and other automotive services. The station is open from 7:00 AM to 6:00 PM, Monday through Saturday, and is closed on Sundays. bjaoui Key has a rating of 5.0 out of 5 based on 4 reviews.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6571,12 +9339,62 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a great pizza, head to Pizzeria 5 fromages, located at P5JJ+FPP Pizzeria 5 fromages, Rue 18 Janvier, Beja. This top-rated spot offers a range of pizzas to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, call them at 27 924 372</t>
+          <t>Pizzeria 5 fromages is a local, highly-rated pizzeria located in Beja, Tunisia, offering a wide range of pizzas to satisfy your cravings. It can be found on Rue 18 Janvier and has a convenient phone number (27 924 372) for placing orders.</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>Where in Beja can you find the highly-rated Pizzeria 5 fromages, renowned for its exceptional pizzas?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortress of Ksar Bardo, immersing yourself in the region's rich history and culture.
+Mid-Morning: Visit Jamâa Beja, a museum dedicated to the history and culture of Beja, discovering its fascinating past through captivating artifacts.
+Midday: Savor the local cuisine at Restaurant Darna, renowned for its family-friendly ambiance and delectable culinary offerings.
+Afternoon: Relax and rejuvenate with a refreshing spa treatment at one of Beja's luxurious hotels.
+Evening: Embark on a guided tour of the city's highlights, including the charming Cafe Panorama and the popular JOKER CLUB cafe and grill.
+Night: Engage in outdoor activities such as cycling or jogging at one of Beja's scenic parks, taking in the city's vibrant energy.</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Panorama is a cafe located in Beja, Tunisia, offering a cozy atmosphere and a variety of coffee and tea beverages. Situated at longitude 9.1873376 and latitude 36.7258944, it is a popular spot for locals and tourists alike. The cafe is open daily from 7:00 am to 11:00 pm.
+Located in Beja, mT`m l`rby lswry is a 4.4-star rated restaurant (based on 17 reviews) that operates from 08:00 to 18:30 every day except Sunday. The restaurant's main category is Restaurant and it offers a variety of dishes and services. It is situated at the coordinates (36.7258944, 9.1873376).
+Cafeteria Tej is a highly rated café located at (36.7297911, 9.316904) in Beja, Tunisia. It offers a cozy ambiance and a delicious menu, making it a popular spot for locals and tourists alike. With a 5.0 rating from 1 review, Cafeteria Tej is sure to satisfy your craving for a great cup of coffee and a bite to eat.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Noir &amp; Blanc is a popular pizzeria located in Beja, Tunisia. It has received rave reviews for its delicious pizzas and friendly service. The pizzeria is situated at P5PH+4CV and is open daily.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Accessoires Auto Beja is a gas station located in Beja, Tunisia. It is open from 7am to 6pm, except on Sundays. It offers a wide range of automotive accessories and services, making it a convenient destination for vehicle owners in the area. The gas station is located at P5MG+Q59 Accessoires Auto Beja, Beja, and can be contacted at 96 569 983.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6674,12 +9492,62 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Cafe mixte located at Rue abu kacem echebi, Beja 9000. This top-rated destination is perfect for Cafeteria lovers and offers a range of Cafeteria, Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.719729832883, 9.195428235701. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+mixte/data=!4m7!3m6!1s0x12fca7dfcd22db9b:0x1d9355e80daf8dc0!8m2!3d36.720096!4d9.1946928!16s%2Fg%2F11ksk7vcxz!19sChIJm9sizd-n_BIRwI2vDehVkx0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe Mixte is a cafeteria located on Rue Abu Kacem Echebi in Beja, Tunisia. It has a rating of 5.0 out of 5 based on one review. The cafe is open 24 hours a day and offers a variety of food and drinks. Its coordinates are 36.719729832883, 9.195428235701.</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Cafe mixte with a wide selection of Cafeteria and Cafe options, located conveniently in Beja?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of Ksar Bardo, an impressive fortress that offers a glimpse into the region's rich history.
+Mid-Morning: Take a stroll through the Jamâa Beja Museum, where you can learn about the city's fascinating past and culture.
+Midday: Indulge in authentic Tunisian cuisine at Let's Eat, a highly-rated restaurant known for its delectable dishes and welcoming atmosphere.
+Afternoon: Visit the Patisserie Yakoubi Salah, a local favorite, and savor their delicious sundae offerings.
+Evening: Shop for souvenirs and local products at the vibrant Beja Marchandises, a highly-rated transportation hub that also boasts an array of shopping options.
+Night: Experience the lively atmosphere of JOKER CLUB, a popular cafe and grill that serves a variety of food and drinks, making it the perfect spot to unwind and mingle with locals.</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Total phenix cafe is a cafe located in Beja, Tunisia.
+In the heart of Beja, Let's Eat is a welcoming restaurant with a rating of 5 stars. It specializes in a wide variety of dishes, and is located at the coordinates (36.7258944, 9.1873376). The restaurant's opening hours are from 10:00 to 22:00 and is contactable by phone at 31 113 883. Experience the delectable cuisine of Let's Eat today!
+Cafe mixte is a cafeteria located in Rue abu kacem echebi, Beja 9000, Tunisia. It offers a cozy atmosphere and a wide variety of beverages and snacks. The cafe is open 24 hours a day, making it a great place to relax and socialize or to get some work done.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+VOLCANO is a pizzeria located in Beja, Tunisia (36.7258944, 9.1873376). It has a 4.8 rating based on 9 reviews, and its main category is Pizzeria. VOLCANO is owned by 'VOLCANO (proprietaire)'.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Shell is a gas station located in Beja, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and is conveniently located on Avenue Habib Bourguiba Beja Ville. Shell has received positive reviews from customers, with an average rating of 4.0 out of 5 stars.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6773,14 +9641,62 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Mlewi sidi fraj located at P5CW+74M Mlewi sidi fraj, Beja. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7202648, 9.1996424.</t>
+          <t>Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>What highly rated spot with GPS coordinates 36.7202648, 9.1996424 offers an array of Restauration rapide options in Beja?</t>
+          <t>Day Plan:
+Morning: Take a guided tour of Ksar Bardo, an ancient fortress offering a glimpse into the region's rich history and culture.
+Mid-Morning: Enjoy a local breakfast at Café Mirador, a highly-rated café with a pleasant ambiance and a convenient location near Ksar Bardo.
+Midday: Visit Jamâa Beja, a museum dedicated to the history and culture of the city of Beja. The museum houses a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins.
+Afternoon: Stroll through the vibrant streets of Beja and explore local markets, such as Beja Marchandises, to experience the local culture and find unique souvenirs.
+Evening: Indulge in a traditional Tunisian dinner at Restaurant Darna, a highly-rated restaurant offering a family-friendly dining experience in a cozy and welcoming ambiance.
+Night: Head to JOKER CLUB, a 4.7-star cafe and grill, for a relaxing evening with friends. Enjoy live music, delicious food, and a lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Mirador is a highly-rated café located at Rue 18 Janvier (coordinates: 36.7258944, 9.1873376) in Beja, Tunisia. It is open 24 hours a day and offers a pleasant ambiance with featured image available at: https://lh5.googleusercontent.com/p/AF1QipOrv6TvXHgfY6kcH3DwY8N4eGLKApT5zF5i-7IN=w408-h544-k-no. Unfortunately, no reviews are currently available for this establishment.
+Cha9chek9 is a highly rated restaurant located in Beja, Tunisia, at coordinates (36.7258944, 9.1873376). It has received 18 reviews and boasts a 4.2 rating, indicating its popularity among visitors. The restaurant’s main focus is on providing a delightful dining experience.
+Cafeteria Tej is a highly rated café located at (36.7297911, 9.316904) in Beja, Tunisia. It offers a cozy ambiance and a delicious menu, making it a popular spot for locals and tourists alike. With a 5.0 rating from 1 review, Cafeteria Tej is sure to satisfy your craving for a great cup of coffee and a bite to eat.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Pizzeria 5 fromages is a local, highly-rated pizzeria located in Beja, Tunisia, offering a wide range of pizzas to satisfy your cravings. It can be found on Rue 18 Janvier and has a convenient phone number (27 924 372) for placing orders.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Nestled in Beja at coordinates (36.7268021, 9.1895103), AGIL Beja is a reputable gas station that caters to your fueling needs 24 hours a day.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6882,12 +9798,62 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a great dining experience, check out LA CASA located at BEJAOUA 1. This top-rated restaurant is perfect for Restaurant de grillades lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8571499, 10.0087355. For more details, visit their website at https://www.google.com/maps/place/LA+CASA/data=!4m7!3m6!1s0x12fd2deddb7c88b9:0xaadea93413f1266d!8m2!3d36.8319597!4d10.0170587!16s%2Fg%2F11pvvz3_nm!19sChIJuYh82-0t_RIRbSbxEzSp3qo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 92 723 476.</t>
+          <t>LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Restaurant de grillades restaurant in Beja that offers a great dining experience at the GPS coordinates 36.8571499, 10.0087355?</t>
+          <t>Day Plan:
+Morning: Start the day by Exploring Ksar Bardo, an ancient fortress offering insights into Beja's rich history and culture.
+Mid-Morning: Head to Cafe Cesar for a local breakfast experience, sampling the cafe's variety of food and drinks.
+Midday: Visit the Jamâa Beja Museum to delve into the history and culture of the city of Beja through its collection of artifacts and exhibits.
+Afternoon: Indulge in a delicious traditional lunch at LE JAGUAR - Beja, renowned for its exceptional cuisine and welcoming ambiance.
+Evening: Engage in outdoor activities at [Park/Beach], enjoying scenic views and engaging in recreational activities.
+Night: Experience cultural immersion at a traditional Tunisian restaurant, savoring authentic flavors and enjoying the lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Cesar is a cafe located in Beja, Tunisia. It is rated 4.0 stars on Google and has 2 reviews. The cafe offers a variety of food and drinks, and is open 7 days a week. It is located at the coordinates (36.7258944, 9.1873376).
+LE JAGUAR - Beja is a highly-rated restaurant situated in the lively city of Beja. It boasts a prime location at P5CV+279, making it easily accessible to visitors. The restaurant opens daily from 9 AM to 11 PM, except on Saturdays. It specializes in a variety of cuisines, ensuring something to satisfy every palate. LE JAGUAR - Beja is renowned for its exceptional service and welcoming ambiance, making it an ideal destination for both locals and tourists seeking a memorable dining experience.
+Cafe Mixte is a cafeteria located on Rue Abu Kacem Echebi in Beja, Tunisia. It has a rating of 5.0 out of 5 based on one review. The cafe is open 24 hours a day and offers a variety of food and drinks. Its coordinates are 36.719729832883, 9.195428235701.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Foot &amp; Food is a pizzeria located at Beja, Tunisia. It has received a rating of 4.3 from 3 reviews. It can be contacted at 25 151 987.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+OLA is a gas station located in OLA, Beja, Tunisia. It has a rating of 3.6 out of 5 based on 8 reviews and its main category is gas station. Its coordinates are (36.7258944, 9.1873376) and it is owned by OLA (proprietaire).
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6993,12 +9959,62 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out AGIL Beja located at P5GQ+QR4 AGIL Beja, Beja. This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. With a rating of 3.9, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.7268021, 9.1895103. For more details, visit their website at http://www.agil.com.tn/ .</t>
+          <t>Nestled in Beja at coordinates (36.7268021, 9.1895103), AGIL Beja is a reputable gas station that caters to your fueling needs 24 hours a day.</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>What is the top-rated Station-service destination in Beja with a rating of 3.9, located at P5GQ+QR4?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortress of Ksar Bardo, offering a glimpse into the region's rich history.
+Mid-Morning: Enjoy a delicious local breakfast at Cafe Mixte, rated 5.0 out of 5 for its exceptional food and drinks.
+Midday: Visit Patesserie Yakoubi Salah for a refreshing sundae and experience the local culinary delights.
+Afternoon: Immerse yourself in the culture of the city at Jamâa Beja Museum, housing a collection of artifacts that showcase the region's heritage.
+Evening: Indulge in a delightful dinner at Restaurant Darna, renowned for its cozy ambiance and exquisite cuisine.
+Night: Relax with a scenic stroll at Noir &amp; Blanc, a popular pizzeria offering breathtaking views and a charming atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the vibrant city of Beja, Tunisia, Cafe Malibou Sahli welcomes patrons with a cozy ambiance and delectable culinary offerings. Situated conveniently at coordinates (36.7258944, 9.1873376), the cafe is easily accessible. Known for its exceptional coffee and warm hospitality, Cafe Malibou Sahli invites guests to relax and savor their favorite beverages in a comfortable setting.
+Patesserie Mozart is a restaurant located in Beja, Tunisia. It operates daily from 6:00 AM to 9:00 PM. Patisserie Mozart offers various food options and accepts reservations. Patesserie Mozart has received 4.0 ratings from many customers.
+Cafe Mixte is a cafeteria located on Rue Abu Kacem Echebi in Beja, Tunisia. It has a rating of 5.0 out of 5 based on one review. The cafe is open 24 hours a day and offers a variety of food and drinks. Its coordinates are 36.719729832883, 9.195428235701.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+Noir &amp; Blanc is a popular pizzeria located in Beja, Tunisia. It has received rave reviews for its delicious pizzas and friendly service. The pizzeria is situated at P5PH+4CV and is open daily.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Accessoires Auto Beja is a gas station located in Beja, Tunisia. It is open from 7am to 6pm, except on Sundays. It offers a wide range of automotive accessories and services, making it a convenient destination for vehicle owners in the area. The gas station is located at P5MG+Q59 Accessoires Auto Beja, Beja, and can be contacted at 96 569 983.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7100,12 +10116,62 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out TOTAL - BEJA twtl located at P6H2+8M9 TOTAL - BEJA twtl, Beja. This top-rated destination is perfect for Station-service lovers. With a rating of 3.8 it's a must-visit spot. To get there, use these GPS coordinates: 57.399241687718, 27.202526555184. For more details, visit their website at http://www.total.tn/ or call them at 78 450 100.</t>
+          <t>TOTAL - BEJA twtl is a gas station located in Beja with the coordinates (57.399241687718, 27.202526555184). TOTAL - BEJA twtl offers various services and products related to gas and fuel.</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated, must-visit destination for Station-service enthusiasts in Beja, with a convenient location accessible via GPS coordinates?</t>
+          <t>**Day Plan:**
+**Morning:** Exploring the ancient fortress of **Ksar Bardo** to delve into the region's rich history and culture.
+**Mid-Morning:** Trying local cuisine at **Pizzeria 5 fromages**, renowned for its delectable pizzas.
+**Midday:** Visiting the **Jamâa Beja Museum** to learn about the city's fascinating history and cultural heritage.
+**Afternoon:** Enjoying a guided tour of **Vamos Coffee** to discover the local cafe culture and relax with a specialty coffee.
+**Evening:** Having dinner at the highly-rated **Restaurant Darna**, offering a cozy and welcoming ambiance.
+**Night:** Experiencing the vibrant atmosphere of **JOKER CLUB**, a popular cafe and grill with a lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Vamos Coffee is a 4 stars coffee shop located in Beja (36.7297911, 9.316904) at the Avenue Essalam. It is open from 07:30 to 22:00 and its main category is Cafe.
+mT`m lbHry is a highly-rated restaurant located in Beja, Tunisia. With an average rating of 4.0 out of 11 reviews, this establishment specializes in local cuisine and is particularly popular among locals. It's conveniently located at P5FP+H64, making it easily accessible for visitors and residents alike.
+Cafeteria Tej is a cafeteria located in Beja (Tunisia) at the coordinates (36.7297911, 9.316904). It has a rating of 5.0 and is open from 6:00 AM to 12:00 AM, closed on none. No phone number is available but you can reach them via their website.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Pizzeria 5 fromages is a local, highly-rated pizzeria located in Beja, Tunisia, offering a wide range of pizzas to satisfy your cravings. It can be found on Rue 18 Janvier and has a convenient phone number (27 924 372) for placing orders.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Shell is a gas station located in Beja, Tunisia, at the coordinates (36.7297911, 9.316904). It offers a wide range of services, including fuel, car wash, convenience store, and sandwiches. The gas station is open 24 hours a day, has a rating of 3.7 out of 5, and has received 3 reviews.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7203,12 +10269,62 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a reputable gas station, consider OLA located at P6H4+VQG OLA. This top-rated destination offers a range of services for those in need of refueling their vehicles. With a rating of 3.6, it's a must-visit spot for anyone seeking reliable and convenient gas station services. To get there, use these GPS coordinates: 36.7258944, 9.1873376.</t>
+          <t>OLA is a gas station located in OLA, Beja, Tunisia. It has a rating of 3.6 out of 5 based on 8 reviews and its main category is gas station. Its coordinates are (36.7258944, 9.1873376) and it is owned by OLA (proprietaire).</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated gas station with services and amenities in Beja, marked by its GPS coordinates (36.7258944, 9.1873376)?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortress of Ksar Bardo and delve into the rich historical tapestry of Beja.
+Mid-Morning: Visit the Jamâa Beja Museum to immerse yourself in the city's captivating history and cultural heritage.
+Midday: Delight in an authentic Tunisian lunch at Restaurant Darna, known for its warm ambiance and delectable culinary offerings.
+Afternoon: Take a leisurely stroll through Cafe Mixte, savoring the vibrant atmosphere and indulging in a refreshing beverage.
+Evening: Explore the lively JOKER CLUB, a popular spot for locals and tourists, renowned for its delectable cuisine and inviting atmosphere.
+Night: Experience the enchanting night views at LA CASA, a barbecue restaurant offering a captivating ambiance and delectable culinary delights.</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Cesar is a cafe located in Beja, Tunisia. It is rated 4.0 stars on Google and has 2 reviews. The cafe offers a variety of food and drinks, and is open 7 days a week. It is located at the coordinates (36.7258944, 9.1873376).
+**Monya mlewi** is a 4.0-rated restaurant in Monya mlewi, Tunisia. It specializes in Tunisian cuisine and offers a variety of dishes like couscous, tajines, and kebabs. The restaurant is located at (36.7258944, 9.1873376) and is open 7 days a week.
+Cafe Mixte is a cafeteria located on Rue Abu Kacem Echebi in Beja, Tunisia. It has a rating of 5.0 out of 5 based on one review. The cafe is open 24 hours a day and offers a variety of food and drinks. Its coordinates are 36.719729832883, 9.195428235701.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Pizzeria 5 fromages is a local, highly-rated pizzeria located in Beja, Tunisia, offering a wide range of pizzas to satisfy your cravings. It can be found on Rue 18 Janvier and has a convenient phone number (27 924 372) for placing orders.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+bjaoui Key is a gas station located in Beja, Tunisia, at the coordinates (36.7297911, 9.316904). It offers fuel, lubricants, and other automotive services. The station is open from 7:00 AM to 6:00 PM, Monday through Saturday, and is closed on Sundays. bjaoui Key has a rating of 5.0 out of 5 based on 4 reviews.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7310,15 +10426,66 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>If you're in Beja and looking for a safe parking spot, check out Station louage Tunis located at P5GP+MQC Station louage Tunis, Beja. 
-This top-rated destination is perfect for Parking lovers. With a rating of 3.8 based on 6 reviews, it's a must-visit spot.
-It's open 24 hours a day, so you can visit at your convenience. 
-For more details, visit their website at https://www.google.com/maps/place/Station+louage+Tunis/data=!4m7!3m6!1s0x12fb58808bbfa165:0xb101ae049970521e!8m2!3d36.7266878!4d9.1868864!16s%2Fg%2F11cp5vk64p!19sChIJZaG_i4BY-xIRHlJwmQSuAbE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>Where in Beja can you find a highly rated parking spot with convenient 24-hour availability?</t>
+          <t>Day Plan:
+Morning: Explore Ksar Bardo, an ancient fortress offering a glimpse into Beja's rich history and culture.
+Mid-Morning: Visit Jamâa Beja, a museum dedicated to the city's history, showcasing artifacts from prehistoric times to the Islamic period.
+Midday: Savor delicious food options at Twenty Four - 24, a highly-rated restaurant with a cozy ambiance.
+Afternoon: Immerse yourself in the local cuisine by trying a traditional meal at Restaurant Darna, known for its welcoming ambiance and family-friendly atmosphere.
+Evening: Enjoy an evening stroll through Beja's vibrant markets, engaging in the local culture and supporting small businesses.
+Night: Relax and unwind at a traditional teahouse like Salon de the l ocean, indulge in aromatic teas, and soak up the local atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Salon de the l ocean is a café located in Beja, Tunisia. It has a rating of 5.0 and its main category is Cafe. The cafe offers a variety of services and features, including:
+- A wide selection of coffees and teas
+- A selection of pastries and snacks
+- Free Wi-Fi
+- A comfortable and relaxing atmosphere
+Twenty Four - 24 is a restaurant located in Beja, Tunisia offering 24 hour service. It is highly rated with a 5.0 rating. The restaurant offers delicious food options in a cozy and inviting atmosphere. It is located at the coordinates (36.7258944, 9.1873376).
+Cafeteria Tej is a cafeteria located in Beja (Tunisia) at the coordinates (36.7297911, 9.316904). It has a rating of 5.0 and is open from 6:00 AM to 12:00 AM, closed on none. No phone number is available but you can reach them via their website.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+Foot &amp; Food is a pizzeria located at Beja, Tunisia. It has received a rating of 4.3 from 3 reviews. It can be contacted at 25 151 987.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+TOTAL - BEJA twtl is a gas station located in Beja with the coordinates (57.399241687718, 27.202526555184). TOTAL - BEJA twtl offers various services and products related to gas and fuel.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7416,12 +10583,68 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>If you're in Beja and looking for a convenient way to get around, check out Beja Marchandises located at Beja Marchandises, Beja. This top-rated destination is perfect for commuters and offers a convenient transport stop. With a rating of 4.2, it's a must-visit spot for transportation needs. To get there, use these GPS coordinates: 57.399241687718, 27.202526555184. For more details, visit their website at https://www.google.com/maps/place/Beja+Marchandises/data=!4m7!3m6!1s0x12fb5877fd6f6dc7:0x6826fb8f0ad1e01a!8m2!3d36.7387942!4d9.1898576!16s%2Fg%2F11c0rvkx32!19sChIJx21v_XdY-xIRGuDRCo_7Jmg?authuser=0&amp;hl=fr&amp;rclk=1 or you can call for assistance.</t>
+          <t>Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>Where in Beja can you find a highly-rated transportation destination known for its convenience and strategic location?</t>
+          <t>Day Plan:
+**Morning:**
+* Exploring the ancient fortress of Ksar Bardo, immersing yourself in the region's rich history and culture.
+**Mid-Morning:**
+* Trying local cuisine at mT`m lbHry, a highly-rated restaurant specializing in local dishes and popular among locals.
+**Midday:**
+* Visiting the Jamâa Beja Museum to learn about the history and culture of the city of Beja, featuring artifacts from prehistoric times to the present.
+**Afternoon:**
+* Relaxing with a coffee at mqh~ ltwt@ _mqh~ bwthlj@, a cozy cafe with a warm atmosphere and a variety of beverages.
+**Evening:**
+* Dining at Restaurant Darna for a family-friendly dining experience, offering a cozy and welcoming ambiance.
+**Night:**
+* Enjoying the lively atmosphere and delicious food at JOKER CLUB, a popular cafe and grill open 24 hours a day.</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ ltwt@ _mqh~ bwthlj@ (lHsb tHt ltwt@) is a cafe located at Rue Kheireddine Pacha in Beja, Tunisia. It has an average rating of 4.6 based on 5 reviews. The cafe offers a variety of coffee, tea, and snacks, and is open from 4 am to 10 pm.
+mT`m lbHry is a highly-rated restaurant located in Beja, Tunisia. With an average rating of 4.0 out of 11 reviews, this establishment specializes in local cuisine and is particularly popular among locals. It's conveniently located at P5FP+H64, making it easily accessible for visitors and residents alike.
+Cafe mixte is a cafeteria located in Rue abu kacem echebi, Beja 9000, Tunisia. It offers a cozy atmosphere and a wide variety of beverages and snacks. The cafe is open 24 hours a day, making it a great place to relax and socialize or to get some work done.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Noir &amp; Blanc is a popular pizzeria located in Beja, Tunisia. It has received rave reviews for its delicious pizzas and friendly service. The pizzeria is situated at P5PH+4CV and is open daily.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+S.G.P Beja is a gas station located in Beja, Tunisia. It offers a wide range of services, including fuel, car wash, and tire repair. The gas station is located at (36.7258944, 9.1873376).
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7523,12 +10746,62 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a reliable gas station, check out SHELL located at P5QX+HQ9 SHELL. This top-rated spot offers a range of services for Station-service lovers and is perfect for those who need to refuel their vehicles. With a rating of 3.8, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, for more details, visit their website at https://www.google.com/maps/place/SHELL/data=!4m7!3m6!1s0x12fca78fbfc70f1f:0x4d33b2c2a0a8d99c!8m2!3d36.7389037!4d9.1994796!16s%2Fg%2F11c53rkzr1!19sChIJHw_Hv4-n_BIRnNmooMKyM00?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>SHELL is a gas station located in Beja, Tunisia with coordinates (36.7275112, 9.1977718). It is open 24 hours a day and offers various services related to gasoline.</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>Where in Beja can you find a highly-rated SHELL gas station that is open 24 hours?</t>
+          <t>Day Plan:
+Morning: Exploring Ksar Bardo, an ancient fortress offering a glimpse into Beja's rich history and culture.
+Mid-Morning: Trying local cuisine at Restaurant Vero Gusto, tantalizing taste buds with delectable culinary experiences.
+Midday: Visiting Jamâa Beja, a museum dedicated to the city's history and culture, showcasing artifacts and historical insights.
+Afternoon: Enjoying a scenic stroll through Parc de Beja, soaking in the beauty of nature and relaxing amidst tranquil surroundings.
+Evening: Participating in a guided tour of the Station Louage Tunis, learning about the city's transportation system and its significance.
+Night: Exploring the vibrant nightlife at JOKER CLUB, a 4.7-star cafe and grill, indulging in delicious food and enjoying the lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Sefir is a cafe located in Beja, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and snacks. It is open from 6am to midnight every day. The cafe has a rating of 4.4 out of 5 stars on Google Maps, and is located at the coordinates (36.7258944, 9.1873376).
+Nestled in the heart of Restaurant Vero Gusto Beja, this restaurant tantalizes taste buds with its delectable cuisine. Located at 36.7258944, 9.1873376, it offers a culinary experience that is sure to leave a lasting impression.
+Cafeteria Tej is a cafeteria located in Beja (Tunisia) at the coordinates (36.7297911, 9.316904). It has a rating of 5.0 and is open from 6:00 AM to 12:00 AM, closed on none. No phone number is available but you can reach them via their website.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+VOLCANO is a pizzeria located in Beja, Tunisia (36.7258944, 9.1873376). It has a 4.8 rating based on 9 reviews, and its main category is Pizzeria. VOLCANO is owned by 'VOLCANO (proprietaire)'.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Staroil Beja Ceinture is a gas station located in Beja, Tunisia. It offers a wide range of services, including fuel, car wash and tire repair. The gas station is open 24 hours a day, 7 days a week. The staff is friendly and helpful, and they are always willing to go the extra mile to make sure that customers are satisfied.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7630,12 +10903,62 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for something fun to do, check out Staroil Beja Ceinture located at P6F3+5PV Staroil Beja Ceinture, Beja. This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. With a rating of 3.3, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 57.399241687718, 27.202526555184. For more details, visit their website at https://www.google.com/maps/place/Staroil+B%C3%A9ja+Ceinture/data=!4m7!3m6!1s0x12fca776e51f0f53:0x9707d8ac58041ed7!8m2!3d36.722998!4d9.2042823!16s%2Fg%2F11c1l5y6lg!19sChIJUw8f5Xan_BIR1x4EWKzYB5c?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Staroil Beja Ceinture is a gas station located in Beja, Tunisia. It offers a wide range of services, including fuel, car wash and tire repair. The gas station is open 24 hours a day, 7 days a week. The staff is friendly and helpful, and they are always willing to go the extra mile to make sure that customers are satisfied.</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated destination in Beja that offers a memorable Station-service experience with top-notch services and convenient amenities?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortress of **Ksar Bardo**
+Mid-Morning: Try local Tunisian cuisine at the highly-rated restaurant **Restaurant Darna**
+Midday: Visit the **Jamâa Beja** museum to learn about the city's history and culture
+Afternoon: Enjoy the cozy ambiance and delicious menu at **Cafeteria Tej**
+Evening: Participate in a guided tour of the **Sidi Smail** train station
+Night: Relax with a cup of coffee and a bite to eat at **Cafe El guebsi**, a 24-hour cafe with a 5.0 rating</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe El guebsi is a cafe located at Av. Farhat Hached, Beja, Tunisia. It is open 24 hours a day and offers a variety of items. The cafe has a rating of 5.0 out of 5 and has received 1 review.
+**Monya mlewi** is a 4.0-rated restaurant in Monya mlewi, Tunisia. It specializes in Tunisian cuisine and offers a variety of dishes like couscous, tajines, and kebabs. The restaurant is located at (36.7258944, 9.1873376) and is open 7 days a week.
+Cafeteria Tej is a highly rated café located at (36.7297911, 9.316904) in Beja, Tunisia. It offers a cozy ambiance and a delicious menu, making it a popular spot for locals and tourists alike. With a 5.0 rating from 1 review, Cafeteria Tej is sure to satisfy your craving for a great cup of coffee and a bite to eat.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+Foot &amp; Food is a pizzeria located at Beja, Tunisia. It has received a rating of 4.3 from 3 reviews. It can be contacted at 25 151 987.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Accessoires Auto Beja is a gas station located in Beja, Tunisia. It is open from 7am to 6pm, except on Sundays. It offers a wide range of automotive accessories and services, making it a convenient destination for vehicle owners in the area. The gas station is located at P5MG+Q59 Accessoires Auto Beja, Beja, and can be contacted at 96 569 983.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7745,12 +11068,72 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a top-rated Station-service, check out bjaoui Key located at 32 rue habib haddad, Beja 9000. This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-18:00, but closed on dimanche. For more details, visit their website at http://www.facebook.com/kais.bjaoui.96 or call them at 98 331 911.</t>
+          <t>bjaoui Key is a gas station located in Beja, Tunisia, at the coordinates (36.7297911, 9.316904). It offers fuel, lubricants, and other automotive services. The station is open from 7:00 AM to 6:00 PM, Monday through Saturday, and is closed on Sundays. bjaoui Key has a rating of 5.0 out of 5 based on 4 reviews.</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>What is the top-rated Station-service in Beja, located on 32 rue habib haddad, and why is it a must-visit spot?</t>
+          <t>Day Plan:
+**Morning:**
+* Explore the ancient fortress of Ksar Bardo to delve into Beja's rich history (9:00 AM - 9:00 PM)
+**Mid-Morning:**
+* Visit the Jamâa Beja museum to learn about the city's culture (Open hours not specified)
+**Midday:**
+* Try local cuisine at Restaurant Darna for a family-friendly dining experience (Open hours not specified)
+**Afternoon:**
+* Relax at JOKER CLUB, a 4.7-star cafe and grill serving food and drinks 24/7
+**Evening:**
+* Experience a barbecue dinner at LA CASA for a unique dining experience (Open hours not specified)
+**Night:**
+* Engage in outdoor activities like stargazing at an accessible location outside the city center</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Salon de the l ocean is a café located in Beja, Tunisia. It has a rating of 5.0 and its main category is Cafe. The cafe offers a variety of services and features, including:
+- A wide selection of coffees and teas
+- A selection of pastries and snacks
+- Free Wi-Fi
+- A comfortable and relaxing atmosphere
+Restaurant Alfurno, located in Beja (36.7258944, 9.1873376), has a rating of 4.4 and 5 reviews. It operates from 08:00-22:00 and falls under the main category of Restaurant.
+Cafe Mixte is a cafeteria located on Rue Abu Kacem Echebi in Beja, Tunisia. It has a rating of 5.0 out of 5 based on one review. The cafe is open 24 hours a day and offers a variety of food and drinks. Its coordinates are 36.719729832883, 9.195428235701.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Pizzeria 5 fromages is a local, highly-rated pizzeria located in Beja, Tunisia, offering a wide range of pizzas to satisfy your cravings. It can be found on Rue 18 Janvier and has a convenient phone number (27 924 372) for placing orders.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+TOTAL - BEJA twtl is a gas station located in Beja with the coordinates (57.399241687718, 27.202526555184). TOTAL - BEJA twtl offers various services and products related to gas and fuel.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7860,12 +11243,63 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a gas station, check out Shell located at Avenue de l'Environnement Beja Iii Rte De Tunis, Gp6, Beja 9000. This top-rated destination is perfect for vehicle owners and offers a range of services to choose from, including but not limited to fueling, car wash, mini-market, and a sandwich shop. With a rating of 3.7, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: (36.7297911, 9.316904).</t>
+          <t>Shell is a gas station located in Beja, Tunisia, at the coordinates (36.7297911, 9.316904). It offers a wide range of services, including fuel, car wash, convenience store, and sandwiches. The gas station is open 24 hours a day, has a rating of 3.7 out of 5, and has received 3 reviews.</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated gas station in Beja that's open 24/7 and offers diverse services like fueling, car wash, and food options?</t>
+          <t>Day Plan:
+Morning: Visit Ksar Bardo, an ancient fortress offering a glimpse into the region's history and culture.
+Mid-Morning: Explore Cafe Champs-Elysees, known for its cozy atmosphere and delicious coffee.
+Midday: Try local cuisine at Twenty Four - 24, a highly-rated restaurant offering a variety of food options.
+Afternoon: Enjoy scenic views at Jamâa Beja, a museum dedicated to the history and culture of the city.
+Evening: Participate in outdoor activities, such as hiking or biking, at a nearby park or outdoor location.
+Night: Relax with a traditional hammam (steam bath) experience at a local spa or hotel.</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Champs-Elysees**
+Nestled in the heart of Beja (Tunisia), Cafe Champs-Elysees offers a cozy atmosphere and a delightful menu to its patrons. Open from 8 AM to 11 PM, it serves as the perfect spot for morning coffee, casual lunches, or evening beverages. Situated at coordinates (36.7258944, 9.1873376), the cafe boasts a rating of 4.1 on Google and is known for its delicious coffee and friendly service.
+Twenty Four - 24 is a restaurant located in Beja, Tunisia offering 24 hour service. It is highly rated with a 5.0 rating. The restaurant offers delicious food options in a cozy and inviting atmosphere. It is located at the coordinates (36.7258944, 9.1873376).
+Cafe mixte is a cafeteria located in Rue abu kacem echebi, Beja 9000, Tunisia. It offers a cozy atmosphere and a wide variety of beverages and snacks. The cafe is open 24 hours a day, making it a great place to relax and socialize or to get some work done.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+VOLCANO is a pizzeria located in Beja, Tunisia (36.7258944, 9.1873376). It has a 4.8 rating based on 9 reviews, and its main category is Pizzeria. VOLCANO is owned by 'VOLCANO (proprietaire)'.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Accessoires Auto Beja is a gas station located in Beja, Tunisia. It is open from 7am to 6pm, except on Sundays. It offers a wide range of automotive accessories and services, making it a convenient destination for vehicle owners in the area. The gas station is located at P5MG+Q59 Accessoires Auto Beja, Beja, and can be contacted at 96 569 983.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7975,12 +11409,62 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a reliable gas station, check out Shell located at Avenue Habib Bourguiba Beja Ville, Av Habib Thameur, Beja 9000. This top-rated destination is perfect for drivers and offers a range of services to choose from, including a car wash and convenience store. With a rating of 4.0, it's a must-visit spot. It's open 24 hours a day, so you can fill up your tank any time. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044798-beja-ville or call them at 71 249 149.</t>
+          <t>Shell is a gas station located in Beja, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and is conveniently located on Avenue Habib Bourguiba Beja Ville. Shell has received positive reviews from customers, with an average rating of 4.0 out of 5 stars.</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated 24-hour gas station in Beja that offers a car wash and convenience store?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortress of Ksar Bardo for a glimpse of Beja's rich history and culture.
+Mid-Morning: Visit the Jamâa Beja museum to delve into the city's fascinating history and cultural heritage.
+Midday: Satisfy your taste buds with a traditional lunch at the highly-rated Restaurant Darna, known for its cozy ambiance and delicious food.
+Afternoon: Escape the midday heat and relax with a refreshing drink at the popular JOKER CLUB, a 4.7-star cafe and grill. Engage in friendly conversations with locals or simply soak up the vibrant atmosphere.
+Evening: Indulge in some retail therapy at the local markets or malls, offering a variety of souvenirs, handicrafts, and local products.
+Night: Experience the lively nightlife at LA CASA, a highly-rated barbecue restaurant. Enjoy the savory grilled dishes while soaking up the electric atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Panorama is a cafe located in Beja, Tunisia, offering a cozy atmosphere and a variety of coffee and tea beverages. Situated at longitude 9.1873376 and latitude 36.7258944, it is a popular spot for locals and tourists alike. The cafe is open daily from 7:00 am to 11:00 pm.
+Located in Beja, mT`m l`rby lswry is a 4.4-star rated restaurant (based on 17 reviews) that operates from 08:00 to 18:30 every day except Sunday. The restaurant's main category is Restaurant and it offers a variety of dishes and services. It is situated at the coordinates (36.7258944, 9.1873376).
+Cafe mixte is a cafeteria located in Rue abu kacem echebi, Beja 9000, Tunisia. It offers a cozy atmosphere and a wide variety of beverages and snacks. The cafe is open 24 hours a day, making it a great place to relax and socialize or to get some work done.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Pizzeria 5 fromages is a local, highly-rated pizzeria located in Beja, Tunisia, offering a wide range of pizzas to satisfy your cravings. It can be found on Rue 18 Janvier and has a convenient phone number (27 924 372) for placing orders.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+**Lavage ben hamouda** is a gas station located in Sousse, Tunisia, at the coordinates (35.846650457545, 10.582875756788). It offers gas, car wash, and other services to its customers. The gas station is open 24 hours a day and has a 4.3 rating on Google Maps.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8082,12 +11566,62 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>If you're in beja and seeking a reliable transportation service, consider SRTBeja, located at P5GR+FCW SRTBeja, Av. de l'Environnement, Beja. With a rating of 2.7, it's worth exploring for your transportation needs. To get in touch, call them at 78 457 433.</t>
+          <t>**SRTBeja** is a transportation service provider located in Beja, Tunisia, at the coordinates (36.645293078416, 9.626535590284). They offer a range of services to meet your transportation needs, with a focus on providing reliable and efficient solutions. Their team is dedicated to providing exceptional customer service, ensuring that your experience is as smooth and convenient as possible.</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>Where can you find a transportation service with a rating of 2.7 in Beja, close to a notable landmark?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortress of Ksar Bardo, offering insights into Beja's rich history and culture.
+Mid-Morning: Immerse in the local culinary scene by trying traditional dishes at the highly-rated Restaurant Darna, known for its family-friendly ambiance.
+Midday: Visit the Jamâa Beja museum to delve into the city's captivating history and culture through its collection of artifacts and exhibits.
+Afternoon: Engage in a refreshing outdoor activity by exploring the scenic Sidi Smail train station, featuring unique architectural elements and offering panoramic city views.
+Evening: Indulge in a delightful dining experience at JOKER CLUB, a vibrant cafe and grill serving a diverse menu and renowned for its inviting atmosphere.
+Night: Experience the lively nightlife of Beja by visiting Patesserie Mozart, a beloved local spot offering a wide range of food options and a welcoming ambiance.</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Cesar is a cafe located in Beja, Tunisia. It is rated 4.0 stars on Google and has 2 reviews. The cafe offers a variety of food and drinks, and is open 7 days a week. It is located at the coordinates (36.7258944, 9.1873376).
+Patesserie Mozart is a restaurant located in Beja, Tunisia. It operates daily from 6:00 AM to 9:00 PM. Patisserie Mozart offers various food options and accepts reservations. Patesserie Mozart has received 4.0 ratings from many customers.
+Cafe Mixte is a cafeteria located on Rue Abu Kacem Echebi in Beja, Tunisia. It has a rating of 5.0 out of 5 based on one review. The cafe is open 24 hours a day and offers a variety of food and drinks. Its coordinates are 36.719729832883, 9.195428235701.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Pizzeria 5 fromages is a local, highly-rated pizzeria located in Beja, Tunisia, offering a wide range of pizzas to satisfy your cravings. It can be found on Rue 18 Janvier and has a convenient phone number (27 924 372) for placing orders.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Shell is a gas station located in Beja, Tunisia, at the coordinates (36.7297911, 9.316904). It offers a wide range of services, including fuel, car wash, convenience store, and sandwiches. The gas station is open 24 hours a day, has a rating of 3.7 out of 5, and has received 3 reviews.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8193,12 +11727,62 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a reliable gas station, check out S.G.P Beja located at P5HP+WVG S.G.P Beja, Beja. This top-rated destination is perfect for Station-service lovers. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-18:00, but closed on dimanche. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website or call them at 78 455 088.</t>
+          <t>S.G.P Beja is a gas station located in Beja, Tunisia. It offers a wide range of services, including fuel, car wash, and tire repair. The gas station is located at (36.7258944, 9.1873376).</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated gas station (4.5 stars) in Beja, known for its reliable service?</t>
+          <t>Day Plan:
+Morning: Explore Ksar Bardo, an ancient fortress offering a glimpse into the region's rich history.
+Mid-Morning: Visit Jamâa Beja, a museum dedicated to the history and culture of the city.
+Midday: Indulge in a delightful meal at Let's Eat, a highly-rated restaurant specializing in various dishes.
+Afternoon: Engage in outdoor activities at Beja Marchandises, which offers convenient public transportation options.
+Evening: Experience cultural immersion at Mlewi sidi fraj, a fast food restaurant serving local cuisine.
+Night: Relax with a drink and enjoy the friendly atmosphere at JOKER CLUB, a cafe and grill serving food and drinks 24 hours a day.</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Beja, a cafe located in the heart of Beja, Tunisia, is a popular spot for locals and tourists alike. Known for its cozy atmosphere and friendly staff, Beja offers a variety of coffee and tea drinks, as well as a selection of pastries and snacks. The cafe is also a great place to relax and enjoy the city's atmosphere, with its prime location along the main pedestrian street.
+In the heart of Beja, Let's Eat is a welcoming restaurant with a rating of 5 stars. It specializes in a wide variety of dishes, and is located at the coordinates (36.7258944, 9.1873376). The restaurant's opening hours are from 10:00 to 22:00 and is contactable by phone at 31 113 883. Experience the delectable cuisine of Let's Eat today!
+Cafeteria Tej is a cafeteria located in Beja (Tunisia) at the coordinates (36.7297911, 9.316904). It has a rating of 5.0 and is open from 6:00 AM to 12:00 AM, closed on none. No phone number is available but you can reach them via their website.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Foot &amp; Food is a pizzeria located at Beja, Tunisia. It has received a rating of 4.3 from 3 reviews. It can be contacted at 25 151 987.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+TOTAL - BEJA twtl is a gas station located in Beja with the coordinates (57.399241687718, 27.202526555184). TOTAL - BEJA twtl offers various services and products related to gas and fuel.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8300,12 +11884,62 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>If you're in beja and in need of a fuel stop, visit Hamia Mecancien. Located at P5QJ+87J Hamia Mecancien, Unnamed Road, Beja, this highly-rated gas station offers top-notch services. Open from 08:00-18:00 during weekdays but closed on Sundays, Hamia Mecancien ensures a convenient refuelling experience. To reach there, follow the GPS coordinates (36.7258944, 9.1873376) or contact them at 40 691 216 for assistance.</t>
+          <t>**Hamia Mecancien** is a gas station ideally located in the region of Beja, Tunisia. The gas station is easily accessible with coordinates (36.7258944, 9.1873376), positioned along the Unnamed Road in P5QJ+87J, Hamia Mecancien. The gas station caters to customer needs from 08:00 AM to 06:00 PM on weekdays, but remains closed on Sundays.</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>Where in Beja can you find a highly-rated gas station that's conveniently located and offers excellent services?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Ksar Bardo fortress.
+Mid-Morning: Have a traditional breakfast with local cuisine at Restaurant Darna.
+Midday: Visit the Jamâa Beja museum to learn about the region's rich history and culture.
+Afternoon: Try local flavors and delicacies at Pizzeria 5 fromages.
+Evening: Engage in outdoor activities and enjoy the scenic views at a nearby park or beach.
+Night: Relax and unwind with a traditional massage at a local spa.</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Oxford cafe is a cafe located in Beja, Tunisia. It offers a variety of food and drinks, and is a popular spot for locals and tourists alike. The cafe is located at 36.7258944, 9.1873376 and is open from 8am to 10pm, 7 days a week.
+Twenty Four - 24 is a restaurant located in Beja, Tunisia offering 24 hour service. It is highly rated with a 5.0 rating. The restaurant offers delicious food options in a cozy and inviting atmosphere. It is located at the coordinates (36.7258944, 9.1873376).
+Cafe mixte is a cafeteria located in Rue abu kacem echebi, Beja 9000, Tunisia. It offers a cozy atmosphere and a wide variety of beverages and snacks. The cafe is open 24 hours a day, making it a great place to relax and socialize or to get some work done.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+Pizzeria 5 fromages is a local, highly-rated pizzeria located in Beja, Tunisia, offering a wide range of pizzas to satisfy your cravings. It can be found on Rue 18 Janvier and has a convenient phone number (27 924 372) for placing orders.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+SHELL is a gas station located in Beja, Tunisia with coordinates (36.7275112, 9.1977718). It is open 24 hours a day and offers various services related to gasoline.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8399,12 +12033,62 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a Station de taxis, check out Station de taxis located at P5FP+82P Station de taxis, Avenue Habib Bourguiba. This top-rated destination is perfect for Station de taxis lovers and it's a must-visit spot. It's open 24/7. To get there, use these GPS coordinates: 36.715723662625, 9.179695197507.</t>
+          <t>Station de taxis is a taxi station situated at Avenue Habib Bourguiba, Beja, Tunisia. It offers taxi services to its customers. Its coordinates are (36.715723662625, 9.179695197507).</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>Where in Beja can you find a highly rated Station de taxis open 24/7?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortress of **Ksar Bardo**, delving into the rich history and culture of the region.
+Mid-Morning: Visit the **Jamâa Beja Museum** to learn about the city's past and admire artifacts from prehistoric times to the Islamic era.
+Midday: Indulge in a hearty and authentic Tunisian lunch at the highly-rated **Restaurant Kais**.
+Afternoon: Head to **Cafeteria Tej** for a refreshing cup of coffee and delicious snacks while immersing yourself in the cozy atmosphere.
+Evening: Experience the vibrant nightlife at **JOKER CLUB**, offering a mix of cafe and restaurant dining options, open 24 hours for your convenience.
+Night: Rest and rejuvenate at your chosen accommodation, preparing for the next day's adventures.</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Mirador is a highly-rated café located at Rue 18 Janvier (coordinates: 36.7258944, 9.1873376) in Beja, Tunisia. It is open 24 hours a day and offers a pleasant ambiance with featured image available at: https://lh5.googleusercontent.com/p/AF1QipOrv6TvXHgfY6kcH3DwY8N4eGLKApT5zF5i-7IN=w408-h544-k-no. Unfortunately, no reviews are currently available for this establishment.
+Restaurant Kais is a highly-rated restaurant located in Beja, Tunisia, with a 5.0 rating based on 3 reviews. While no detailed description is provided, it is listed as a restaurant with a featured image showcasing its establishment. Unfortunately, there is limited information regarding its menu, amenities, or contact details.
+Cafeteria Tej is a highly rated café located at (36.7297911, 9.316904) in Beja, Tunisia. It offers a cozy ambiance and a delicious menu, making it a popular spot for locals and tourists alike. With a 5.0 rating from 1 review, Cafeteria Tej is sure to satisfy your craving for a great cup of coffee and a bite to eat.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+Foot &amp; Food is a pizzeria located at Beja, Tunisia. It has received a rating of 4.3 from 3 reviews. It can be contacted at 25 151 987.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+**Lavage ben hamouda** is a gas station located in Sousse, Tunisia, at the coordinates (35.846650457545, 10.582875756788). It offers gas, car wash, and other services to its customers. The gas station is open 24 hours a day and has a 4.3 rating on Google Maps.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8510,12 +12194,62 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a gas station, check out Accessoires Auto Beja located at P5MG+Q59 Accessoires Auto Beja, Beja. This top-rated destination is perfect for gas station with a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-18:00, but closed on Sunday. To get there, use these GPS coordinates: 36.7258944, 9.1873376. For more details, visit their website at https://www.google.com/maps/place/Accessoires+Auto+Beja/data=!4m7!3m6!1s0x12fb597e9b3b6cff:0x8d38ebd2a90e835d!8m2!3d36.7347568!4d9.1754536!16s%2Fg%2F11vbtt_jf0!19sChIJ_2w7m35Z-xIRXYMOqdLrOI0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 96 569 983.</t>
+          <t>Accessoires Auto Beja is a gas station located in Beja, Tunisia. It is open from 7am to 6pm, except on Sundays. It offers a wide range of automotive accessories and services, making it a convenient destination for vehicle owners in the area. The gas station is located at P5MG+Q59 Accessoires Auto Beja, Beja, and can be contacted at 96 569 983.</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>Where can I find a highly-rated gas station in Beja with a 5.0 rating?</t>
+          <t>Day Plan:
+**Morning:** Exploring Ksar Bardo
+**Mid-Morning:** Trying local cuisine at Let's Eat
+**Midday:** Shopping at Beja Marchandises for souvenirs
+**Afternoon:** Participating in an archaeological experience at Ksar Bardo
+**Evening:** Enjoying scenic views at the rooftop of King gym
+**Night:** Relaxing with a coffee at Cafe Mixte</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ ltwt@ _mqh~ bwthlj@ (lHsb tHt ltwt@) is a cafe located at Rue Kheireddine Pacha in Beja, Tunisia. It has an average rating of 4.6 based on 5 reviews. The cafe offers a variety of coffee, tea, and snacks, and is open from 4 am to 10 pm.
+In the heart of Beja, Let's Eat is a welcoming restaurant with a rating of 5 stars. It specializes in a wide variety of dishes, and is located at the coordinates (36.7258944, 9.1873376). The restaurant's opening hours are from 10:00 to 22:00 and is contactable by phone at 31 113 883. Experience the delectable cuisine of Let's Eat today!
+Cafe Mixte is a cafeteria located on Rue Abu Kacem Echebi in Beja, Tunisia. It has a rating of 5.0 out of 5 based on one review. The cafe is open 24 hours a day and offers a variety of food and drinks. Its coordinates are 36.719729832883, 9.195428235701.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+Pizzeria 5 fromages is a local, highly-rated pizzeria located in Beja, Tunisia, offering a wide range of pizzas to satisfy your cravings. It can be found on Rue 18 Janvier and has a convenient phone number (27 924 372) for placing orders.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Shell is a gas station located in Beja, Tunisia, at the coordinates (36.7297911, 9.316904). It offers a wide range of services, including fuel, car wash, convenience store, and sandwiches. The gas station is open 24 hours a day, has a rating of 3.7 out of 5, and has received 3 reviews.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8609,12 +12343,62 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a reliable taxi service, check out Station de Louage located at P5GP+MMF Station de Louage, Beja. This top-rated destination is perfect for taxi service lovers and offers a range of services to choose from. With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.6488422, 9.6077189.</t>
+          <t>Located at the coordinates (36.6488422, 9.6077189), this taxi station in Beja offers its services to locals and tourists alike. With a rating of 3.0 based on 1 review, this place is a convenient option for transportation needs in the area.</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated taxi service with various options in Beja?</t>
+          <t>Day Plan:
+Morning: Begin your day exploring Ksar Bardo, an ancient fortress offering a glimpse into Beja's rich history and culture.
+Mid-Morning: Head over to Beja Marchandises for their convenient public transportation options to discover the city like a local.
+Midday: Delight in a mouth-watering meal at Restaurant Darna, known for its cozy ambiance and delicious cuisine.
+Afternoon: Visit the Jamâa Beja museum, dedicated to the history and culture of the city.
+Evening: Shop for souvenirs and local products at the Beja open market, immersing yourself in the vibrant local atmosphere.
+Night: Unwind at JOKER CLUB, an elegant and inviting cafe and grill with live entertainment, perfect for ending your day in style.</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Beja is a highly-rated café located in Beja, Tunisia, at the coordinates (36.8636998, 9.1279876). With an impressive 4.5-star rating based on 47 reviews, Beja is open 24 hours a day and is known for its cozy ambiance. It is a popular destination for coffee enthusiasts and offers a range of beverages and snacks to cater to various tastes. Its prime location makes it easily accessible to locals and visitors alike.
+Cha9chek9 is a highly rated restaurant located in Beja, Tunisia, at coordinates (36.7258944, 9.1873376). It has received 18 reviews and boasts a 4.2 rating, indicating its popularity among visitors. The restaurant’s main focus is on providing a delightful dining experience.
+Cafeteria Tej is a cafeteria located in Beja (Tunisia) at the coordinates (36.7297911, 9.316904). It has a rating of 5.0 and is open from 6:00 AM to 12:00 AM, closed on none. No phone number is available but you can reach them via their website.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Noir &amp; Blanc is a popular pizzeria located in Beja, Tunisia. It has received rave reviews for its delicious pizzas and friendly service. The pizzeria is situated at P5PH+4CV and is open daily.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Nestled in Beja at coordinates (36.7268021, 9.1895103), AGIL Beja is a reputable gas station that caters to your fueling needs 24 hours a day.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8710,10 +12494,64 @@
           <t>beja</t>
         </is>
       </c>
-      <c r="Z77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.</t>
+        </is>
+      </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>Where can you visit a place named 'nan' that is known for its ancient temples, vibrant markets, and delectable street food?</t>
+          <t>Day Plan:
+Morning: Explore the ancient fortress of Ksar Bardo, gaining insights into the region's rich history.
+Mid-Morning: Immerse yourself in the local culture at Jamâa Beja museum, by exploring its collection of prehistoric tools, Roman pottery, and Islamic coins.
+Midday: Delight your taste buds with authentic Tunisian cuisine at Patesserie Yakoubi Salah, renowned for its delectable sundae offerings.
+Afternoon: Step into the vibrant atmosphere of Cafe Mixte, enjoying a refreshing beverage and delightful snacks while observing local life.
+Evening: Pamper yourself with a rejuvenating spa session at King gym, allowing your body to relax and unwind after a day of exploration.
+Night: Experience the authentic ambiance of JOKER CLUB, savoring traditional grilled delicacies and immersing yourself in the lively atmosphere of this renowned establishment.</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>Given these locations:
+ALTA CAFFE is a cozy cafe located in Sidi Thabet, Tunisia. It serves as both a cafe and a fabricant. The cafe offers a wide range of beverages, including coffee, tea, and juices. It's nestled in the heart of Beja, close to many attractions. The cafe's prime location makes it a convenient choice for locals and tourists alike.
+Patesserie Mozart is a restaurant located in Beja, Tunisia. It operates daily from 6:00 AM to 9:00 PM. Patisserie Mozart offers various food options and accepts reservations. Patesserie Mozart has received 4.0 ratings from many customers.
+Cafe Mixte is a cafeteria located on Rue Abu Kacem Echebi in Beja, Tunisia. It has a rating of 5.0 out of 5 based on one review. The cafe is open 24 hours a day and offers a variety of food and drinks. Its coordinates are 36.719729832883, 9.195428235701.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a Cafe and restaurant de grillades located in Beja, Tunisia. It offers a 24/7 service and is highly rated with 4.7 stars based on 7 reviews. Its exact location is at coordinates (36.7258944, 9.1873376).
+Foot &amp; Food is a pizzeria located at Beja, Tunisia. It has received a rating of 4.3 from 3 reviews. It can be contacted at 25 151 987.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+**Lavage ben hamouda** is a gas station located in Sousse, Tunisia, at the coordinates (35.846650457545, 10.582875756788). It offers gas, car wash, and other services to its customers. The gas station is open 24 hours a day and has a 4.3 rating on Google Maps.
+The Station louage Tunis is a parking located in Beja, Tunisia. It is open 24 hours a day and has 3.8 out of 5 stars on Google. The parking is located at the coordinates (36.6488422, 9.6077189).
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8811,12 +12649,66 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>If you're in Beja and in search of a train-related destination, Sidi Smail is a top-rated spot. This station is the perfect place for train enthusiasts, offering a range of train-related services and amenities. With a rating of 3.8, it's a must-visit spot for anyone interested in trains. To get there, use these GPS coordinates: 36.57298, 9.15675. For more details, visit the station at Sidi Smail, Beja.</t>
+          <t>Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>Where in Beja can train enthusiasts find a highly-rated destination with various train-related offerings and amenities?</t>
+          <t>Day Plan:
+Morning: Exploring Ksar Bardo
+Mid-Morning: Trying local cuisine at mT`m lbHry
+Midday: Visiting Jamâa Beja and learning about the history and culture of the city
+Afternoon: Enjoying scenic views at Salon de the l ocean while sipping on a refreshing beverage
+Evening: Participating in a cooking class to learn how to prepare traditional Tunisian dishes
+Night: Experiencing cultural immersion at JOKER CLUB, a popular spot for locals and tourists alike</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Salon de the l ocean is a café located in Beja, Tunisia. It has a rating of 5.0 and its main category is Cafe. The cafe offers a variety of services and features, including:
+- A wide selection of coffees and teas
+- A selection of pastries and snacks
+- Free Wi-Fi
+- A comfortable and relaxing atmosphere
+mT`m lbHry is a highly-rated restaurant located in Beja, Tunisia. With an average rating of 4.0 out of 11 reviews, this establishment specializes in local cuisine and is particularly popular among locals. It's conveniently located at P5FP+H64, making it easily accessible for visitors and residents alike.
+Cafe mixte is a cafeteria located in Rue abu kacem echebi, Beja 9000, Tunisia. It offers a cozy atmosphere and a wide variety of beverages and snacks. The cafe is open 24 hours a day, making it a great place to relax and socialize or to get some work done.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Pizzeria 5 fromages is a local, highly-rated pizzeria located in Beja, Tunisia, offering a wide range of pizzas to satisfy your cravings. It can be found on Rue 18 Janvier and has a convenient phone number (27 924 372) for placing orders.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+SHELL is a gas station located in Beja, Tunisia with coordinates (36.7275112, 9.1977718). It is open 24 hours a day and offers various services related to gasoline.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8918,12 +12810,62 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a place to park, check out Station louage Tunis located at P5GP+MQC. This top-rated destination is perfect for Parking lovers. With a rating of 3.8, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 36.6488422, 9.6077189.</t>
+          <t>Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated parking spot with extended hours in Beja?</t>
+          <t>Day Plan:
+Morning: Explore Ksar Bardo, an ancient fortress offering insights into local history and culture.
+Mid-Morning: Visit Jamâa Beja, a museum showcasing the city's rich history through artifacts and exhibits.
+Midday: Try local cuisine at Let's Eat, a welcoming restaurant known for its wide variety of dishes.
+Afternoon: Enjoy the serene ambiance and delicious menu at Cafeteria Tej, a highly-rated café known for its coffee and bites.
+Evening: Participate in outdoor activities like hiking or biking at Beja National Park, immersing yourself in natural beauty.
+Night: Experience cultural immersion by witnessing a traditional music or dance performance at a local theater or cultural center.</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe El guebsi is a cafe located at Av. Farhat Hached, Beja, Tunisia. It is open 24 hours a day and offers a variety of items. The cafe has a rating of 5.0 out of 5 and has received 1 review.
+In the heart of Beja, Let's Eat is a welcoming restaurant with a rating of 5 stars. It specializes in a wide variety of dishes, and is located at the coordinates (36.7258944, 9.1873376). The restaurant's opening hours are from 10:00 to 22:00 and is contactable by phone at 31 113 883. Experience the delectable cuisine of Let's Eat today!
+Cafeteria Tej is a highly rated café located at (36.7297911, 9.316904) in Beja, Tunisia. It offers a cozy ambiance and a delicious menu, making it a popular spot for locals and tourists alike. With a 5.0 rating from 1 review, Cafeteria Tej is sure to satisfy your craving for a great cup of coffee and a bite to eat.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+Pizzeria 5 fromages is a local, highly-rated pizzeria located in Beja, Tunisia, offering a wide range of pizzas to satisfy your cravings. It can be found on Rue 18 Janvier and has a convenient phone number (27 924 372) for placing orders.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+Staroil Beja Ceinture is a gas station located in Beja, Tunisia. It offers a wide range of services, including fuel, car wash and tire repair. The gas station is open 24 hours a day, 7 days a week. The staff is friendly and helpful, and they are always willing to go the extra mile to make sure that customers are satisfied.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9025,12 +12967,62 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>If you're in beja and looking for a top-rated station-service, check out Lavage ben hamouda located at Rue du Commandant Bejaoui, Sousse. This highly rated destination offers a range of station-service options to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.846650457545, 10.582875756788. For more details, visit their link at  https://www.google.com/maps/place/Lavage+ben+hamouda/data=!4m7!3m6!1s0x12fd8b42a9dec84d:0x4dbb4bca04b0a7d1!8m2!3d35.8249595!4d10.6179803!16s%2Fg%2F11j95thwvn!19sChIJTcjeqUKL_RIR0aewBMpLu00?authuser=0&amp;hl=fr&amp;rclk=1  or call them at 26 249 159.</t>
+          <t>**Lavage ben hamouda** is a gas station located in Sousse, Tunisia, at the coordinates (35.846650457545, 10.582875756788). It offers gas, car wash, and other services to its customers. The gas station is open 24 hours a day and has a 4.3 rating on Google Maps.</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated station-service with a 4.3 rating in Beja?</t>
+          <t>Day Plan:
+Morning: Exploring Ksar Bardo, an ancient fortress offering insights into Beja's history.
+Mid-Morning: Trying local cuisine at JOKER CLUB, a popular cafe and grill with a 4.7-star rating.
+Midday: Visiting Jamâa Beja, a museum showcasing the city's rich cultural heritage through artifacts and exhibits.
+Afternoon: Relaxing with a refreshing beverage and enjoying the cozy atmosphere at Cafe mixte, a 24-hour cafeteria.
+Evening: Experiencing scenic views at Sidi Smail, a train station offering breathtaking surroundings.
+Night: Engaging in outdoor activities such as walking or jogging at Restaurant Vero Gusto Beja, which boasts a picturesque location.</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Sefir is a cafe located in Beja, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and snacks. It is open from 6am to midnight every day. The cafe has a rating of 4.4 out of 5 stars on Google Maps, and is located at the coordinates (36.7258944, 9.1873376).
+Nestled in the heart of Restaurant Vero Gusto Beja, this restaurant tantalizes taste buds with its delectable cuisine. Located at 36.7258944, 9.1873376, it offers a culinary experience that is sure to leave a lasting impression.
+Cafe mixte is a cafeteria located in Rue abu kacem echebi, Beja 9000, Tunisia. It offers a cozy atmosphere and a wide variety of beverages and snacks. The cafe is open 24 hours a day, making it a great place to relax and socialize or to get some work done.
+Ksar Bardo is an ancient fortress located in Beja, Tunisia, with coordinates (36.73567, 9.17533). It is a tourist attraction, offering a glimpse into the region's rich history and culture. With a 4.0 rating and 62 reviews, it is a popular destination for tourists seeking an immersive archaeological experience. The fortress operates from 9:00 AM to 9:00 PM, providing ample time for exploration.
+Jamâa Beja is a museum located in Beja, Tunisia. It is dedicated to the history and culture of the city of Beja. The museum has a collection of artifacts from the region, including prehistoric tools, Roman pottery, and Islamic coins. The museum also has a library with a collection of books on the history and culture of Beja.
+King gym is a gym located in King gym, Av. Farhat Hached, Beja, open from 8 AM to 9 PM. It's rated 4.2 based on 10 reviews and offers a range of services to help you achieve your fitness goals. With its convenient location and experienced staff, King gym is the perfect place to get in shape.
+JOKER CLUB is a 4.7-star cafe and grill located in Beja, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is also a popular spot for locals and tourists alike, and it is known for its friendly atmosphere and its delicious food. JOKER CLUB is situated at: 36.7258944 latitude and 9.1873376 longitude.
+VOLCANO is a pizzeria located in Beja, Tunisia (36.7258944, 9.1873376). It has a 4.8 rating based on 9 reviews, and its main category is Pizzeria. VOLCANO is owned by 'VOLCANO (proprietaire)'.
+Restaurant Darna is a highly-rated restaurant located in Beja, Tunisia, offering a family-friendly dining experience. It has earned a rating of 4.4 stars based on 7 reviews and specializes in providing a cozy and welcoming ambiance for its guests. Its precise geolocation is (36.7258944, 9.1873376), making it easily accessible for those looking for a delicious and enjoyable meal.
+Patisserie Yakoubi Salah is a restaurant in Beja, Tunisia. It is located at P5FP+996, Avenue Habib Bourguiba and is open from 08:00-12:00. The restaurant has a rating of 4.0 on Google and primarily serves as a sundae restaurant.
+Mlewi sidi fraj is a fast food restaurant located in Beja, Tunisia (36.7202648, 9.1996424). It has a 5.0 rating based on 1 review.
+LA CASA is a barbecue restaurant located in BEJAOUA 1, Beja with a 5.0 Google rating based on 2 reviews. Its coordinates are (36.8571499, 10.0087355) and its featured image can be found at the following URL: https://lh5.googleusercontent.com/p/AF1QipNggshBEPY10hgF1-iEMbj9e7OQNAJNCmFJnRGX=w408-h306-k-no
+bjaoui Key is a gas station located in Beja, Tunisia, at the coordinates (36.7297911, 9.316904). It offers fuel, lubricants, and other automotive services. The station is open from 7:00 AM to 6:00 PM, Monday through Saturday, and is closed on Sundays. bjaoui Key has a rating of 5.0 out of 5 based on 4 reviews.
+Station Louage Tunis is open 24 hours a day and is located at P5GP+MQC Station, Beja. The parking offers a wide range of services such as vehicle storage, valet parking, and car detailing. With its convenient location and wide range of services, Station Louage Tunis is a great option for those looking for a safe and convenient parking solution in Beja.
+Beja Marchandises, situated in Beja, Tunisia (57.399241687718, 27.202526555184), offers transportation services. This highly-rated establishment (4.2/5 stars) specializes in convenient public transportation options, making it a prime location for travelers and commuters alike.
+Louage Station Beja-Jendouba is a moving company located in Beja, Tunisia at (36.7258944, 9.1873376). Its main activity is moving and it has a 5.0 rating based on 1 review.
+Sidi Smail is located in the city of Beja, Tunisia. It is a train station with featured offers, and is located at 36.57298 latitude and 9.15675 longitude.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
